--- a/Logos.xlsx
+++ b/Logos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="1058">
   <si>
     <t>TEAM</t>
   </si>
@@ -2110,6 +2110,1089 @@
   </si>
   <si>
     <t>https://cdn.bleacherreport.net/images/team_logos/328x328/providence_friars_basketball.png</t>
+  </si>
+  <si>
+    <t>ABBREVIATION</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>AAMU</t>
+  </si>
+  <si>
+    <t>ALST</t>
+  </si>
+  <si>
+    <t>ALBY</t>
+  </si>
+  <si>
+    <t>ALCN</t>
+  </si>
+  <si>
+    <t>AMER</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>ARPB</t>
+  </si>
+  <si>
+    <t>UALR</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>PEAY</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>BELL</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Bethune Cookman</t>
+  </si>
+  <si>
+    <t>COOK</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e8/Bethune%E2%80%93Cookman_Wildcats_logo.svg/1200px-Bethune%E2%80%93Cookman_Wildcats_logo.svg.png</t>
+  </si>
+  <si>
+    <t>BING</t>
+  </si>
+  <si>
+    <t>BSU</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>BRAD</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>BRWN</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Brown_Bears_men's_basketball#/media/File:Brown_Bears_wordmark.png</t>
+  </si>
+  <si>
+    <t>BRY</t>
+  </si>
+  <si>
+    <t>BUCK</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>BUT</t>
+  </si>
+  <si>
+    <t>CBU</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CSF</t>
+  </si>
+  <si>
+    <t>CSN</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>CSB</t>
+  </si>
+  <si>
+    <t>CAMP</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CARK</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>COFC</t>
+  </si>
+  <si>
+    <t>CHSO</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>CHAT</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>CIT</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>CLEV</t>
+  </si>
+  <si>
+    <t>CCAR</t>
+  </si>
+  <si>
+    <t>COLG</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>CLMB</t>
+  </si>
+  <si>
+    <t>https://a2.espncdn.com/combiner/i?img=%2Fi%2Fteamlogos%2Fncaa%2F500%2F171.png</t>
+  </si>
+  <si>
+    <t>COPP</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/9/9b/Cornell_Big_Red_logo.svg/1200px-Cornell_Big_Red_logo.svg.png</t>
+  </si>
+  <si>
+    <t>CREI</t>
+  </si>
+  <si>
+    <t>Dartmouth</t>
+  </si>
+  <si>
+    <t>DART</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/scorestream-team-profile-pictures/274266/20201203225737_795_mascotOrig.png</t>
+  </si>
+  <si>
+    <t>DAV</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>DSU</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>DXST</t>
+  </si>
+  <si>
+    <t>DRKE</t>
+  </si>
+  <si>
+    <t>DREX</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>DUQ</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>ETSU</t>
+  </si>
+  <si>
+    <t>EIU</t>
+  </si>
+  <si>
+    <t>EKY</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>EWU</t>
+  </si>
+  <si>
+    <t>ELON</t>
+  </si>
+  <si>
+    <t>EVAN</t>
+  </si>
+  <si>
+    <t>FAIR</t>
+  </si>
+  <si>
+    <t>FDU</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>FGCU</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>WEBB</t>
+  </si>
+  <si>
+    <t>GMU</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>GTWN</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>GONZ</t>
+  </si>
+  <si>
+    <t>GRAM</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>HAMP</t>
+  </si>
+  <si>
+    <t>HART</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/76/Harvard_Crimson_logo.svg/651px-Harvard_Crimson_logo.svg.png</t>
+  </si>
+  <si>
+    <t>HARV</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HOF</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>HBU</t>
+  </si>
+  <si>
+    <t>HOW</t>
+  </si>
+  <si>
+    <t>IDHO</t>
+  </si>
+  <si>
+    <t>IDST</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>UIC</t>
+  </si>
+  <si>
+    <t>ILST</t>
+  </si>
+  <si>
+    <t>IW</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>INST</t>
+  </si>
+  <si>
+    <t>IONA</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>IUPU</t>
+  </si>
+  <si>
+    <t>JKST</t>
+  </si>
+  <si>
+    <t>JAC</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>LAF</t>
+  </si>
+  <si>
+    <t>LAM</t>
+  </si>
+  <si>
+    <t>LEH</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>LIP</t>
+  </si>
+  <si>
+    <t>LIU</t>
+  </si>
+  <si>
+    <t>LBSU</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ULL</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>L-IL</t>
+  </si>
+  <si>
+    <t>LMU</t>
+  </si>
+  <si>
+    <t>L-MD</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>MRST</t>
+  </si>
+  <si>
+    <t>MARQ</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>MCNS</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>MRMK</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>MTU</t>
+  </si>
+  <si>
+    <t>MILW</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>MVSU</t>
+  </si>
+  <si>
+    <t>MIZZ</t>
+  </si>
+  <si>
+    <t>MOSU</t>
+  </si>
+  <si>
+    <t>MONM</t>
+  </si>
+  <si>
+    <t>MONT</t>
+  </si>
+  <si>
+    <t>MTST</t>
+  </si>
+  <si>
+    <t>MORE</t>
+  </si>
+  <si>
+    <t>MORG</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>MURR</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>NEOM</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>UNO</t>
+  </si>
+  <si>
+    <t>NIAG</t>
+  </si>
+  <si>
+    <t>NICH</t>
+  </si>
+  <si>
+    <t>NORF</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>NCAT</t>
+  </si>
+  <si>
+    <t>NCCU</t>
+  </si>
+  <si>
+    <t>NCST</t>
+  </si>
+  <si>
+    <t>UND</t>
+  </si>
+  <si>
+    <t>NDSU</t>
+  </si>
+  <si>
+    <t>UNF</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NAU</t>
+  </si>
+  <si>
+    <t>UNCO</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>NKU</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>NWST</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OAK</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>OKLA</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>ORU</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c7/Penn_Quakers_logo.svg/1200px-Penn_Quakers_logo.svg.png</t>
+  </si>
+  <si>
+    <t>PENN</t>
+  </si>
+  <si>
+    <t>Penn</t>
+  </si>
+  <si>
+    <t>PEPP</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>PRST</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e0/Princeton_Tigers_logo.svg/1200px-Princeton_Tigers_logo.svg.png</t>
+  </si>
+  <si>
+    <t>PRIN</t>
+  </si>
+  <si>
+    <t>PROV</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>QUIN</t>
+  </si>
+  <si>
+    <t>RAD</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>RICH</t>
+  </si>
+  <si>
+    <t>RID</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>SHU</t>
+  </si>
+  <si>
+    <t>JOES</t>
+  </si>
+  <si>
+    <t>SLU</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>SCU</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>HALL</t>
+  </si>
+  <si>
+    <t>SIE</t>
+  </si>
+  <si>
+    <t>SIUE</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>SCAR</t>
+  </si>
+  <si>
+    <t>SCST</t>
+  </si>
+  <si>
+    <t>SDAK</t>
+  </si>
+  <si>
+    <t>SDST</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>SEMO</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>SIU</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>SOU</t>
+  </si>
+  <si>
+    <t>SUU</t>
+  </si>
+  <si>
+    <t>SBON</t>
+  </si>
+  <si>
+    <t>SFNY</t>
+  </si>
+  <si>
+    <t>SFPA</t>
+  </si>
+  <si>
+    <t>SJU</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>SFA</t>
+  </si>
+  <si>
+    <t>STET</t>
+  </si>
+  <si>
+    <t>STON</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>TARL</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>TNST</t>
+  </si>
+  <si>
+    <t>TNTC</t>
+  </si>
+  <si>
+    <t>UTM</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>TXAM</t>
+  </si>
+  <si>
+    <t>AMCC</t>
+  </si>
+  <si>
+    <t>TXSO</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>TOWS</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>UCI</t>
+  </si>
+  <si>
+    <t>UCRV</t>
+  </si>
+  <si>
+    <t>UCSD</t>
+  </si>
+  <si>
+    <t>UCSB</t>
+  </si>
+  <si>
+    <t>UNCA</t>
+  </si>
+  <si>
+    <t>UNCG</t>
+  </si>
+  <si>
+    <t>SCUS</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>UTRGV</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>UVU</t>
+  </si>
+  <si>
+    <t>VALP</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>UVM</t>
+  </si>
+  <si>
+    <t>VILL</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>WCU</t>
+  </si>
+  <si>
+    <t>WIU</t>
+  </si>
+  <si>
+    <t>WKU</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>WICH</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>WOF</t>
+  </si>
+  <si>
+    <t>WRST</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>XAV</t>
+  </si>
+  <si>
+    <t>YSU</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>YALE</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/e/e5/Yale_Bulldogs_logo.svg/1200px-Yale_Bulldogs_logo.svg.png</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t>PFW</t>
+  </si>
+  <si>
+    <t>RMU</t>
+  </si>
+  <si>
+    <t>MASSL</t>
+  </si>
+  <si>
+    <t>UNCW</t>
+  </si>
+  <si>
+    <t>Maryland Eastern Shore</t>
+  </si>
+  <si>
+    <t>UMES</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/6/65/Maryland_Eastern_Shore_Hawks_logo.svg/1200px-Maryland_Eastern_Shore_Hawks_logo.svg.png</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +3248,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2219,12 +3302,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2251,6 +3345,11 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2277,6 +3376,11 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2606,2807 +3710,3965 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:C359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="B352" sqref="B352"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="118.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>690</v>
       </c>
       <c r="B2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>704</v>
+      </c>
+      <c r="C9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C11" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>708</v>
+      </c>
+      <c r="C13" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>710</v>
+      </c>
+      <c r="C15" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>712</v>
+      </c>
+      <c r="C16" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>711</v>
+      </c>
+      <c r="C17" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
+        <v>715</v>
+      </c>
+      <c r="C19" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>716</v>
+      </c>
+      <c r="C20" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>717</v>
+      </c>
+      <c r="C21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>718</v>
+      </c>
+      <c r="C22" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
+        <v>719</v>
+      </c>
+      <c r="C23" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
+        <v>720</v>
+      </c>
+      <c r="C24" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B25" t="s">
+        <v>722</v>
+      </c>
+      <c r="C25" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
+        <v>724</v>
+      </c>
+      <c r="C26" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
+        <v>725</v>
+      </c>
+      <c r="C27" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
+        <v>726</v>
+      </c>
+      <c r="C28" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
+        <v>727</v>
+      </c>
+      <c r="C29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
+        <v>728</v>
+      </c>
+      <c r="C30" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B31" t="s">
+        <v>731</v>
+      </c>
+      <c r="C31" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
+        <v>729</v>
+      </c>
+      <c r="C32" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C33" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
+        <v>734</v>
+      </c>
+      <c r="C34" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
+        <v>735</v>
+      </c>
+      <c r="C35" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C36" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
+        <v>737</v>
+      </c>
+      <c r="C38" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
+        <v>738</v>
+      </c>
+      <c r="C39" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C40" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
+        <v>739</v>
+      </c>
+      <c r="C41" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
+        <v>740</v>
+      </c>
+      <c r="C42" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
+        <v>741</v>
+      </c>
+      <c r="C43" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
+        <v>743</v>
+      </c>
+      <c r="C44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
+        <v>744</v>
+      </c>
+      <c r="C45" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
+        <v>745</v>
+      </c>
+      <c r="C46" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
+        <v>746</v>
+      </c>
+      <c r="C47" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
+        <v>747</v>
+      </c>
+      <c r="C48" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
+        <v>749</v>
+      </c>
+      <c r="C49" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
+        <v>750</v>
+      </c>
+      <c r="C50" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
+        <v>751</v>
+      </c>
+      <c r="C51" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
+        <v>752</v>
+      </c>
+      <c r="C52" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
+        <v>753</v>
+      </c>
+      <c r="C53" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
+        <v>755</v>
+      </c>
+      <c r="C54" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
+        <v>756</v>
+      </c>
+      <c r="C55" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
+        <v>757</v>
+      </c>
+      <c r="C56" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
+        <v>758</v>
+      </c>
+      <c r="C57" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
+        <v>748</v>
+      </c>
+      <c r="C58" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
+        <v>759</v>
+      </c>
+      <c r="C59" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
+        <v>760</v>
+      </c>
+      <c r="C60" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B61" t="s">
+        <v>762</v>
+      </c>
+      <c r="C61" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C62" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
+        <v>764</v>
+      </c>
+      <c r="C63" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B64" t="s">
+        <v>766</v>
+      </c>
+      <c r="C64" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" t="s">
+        <v>768</v>
+      </c>
+      <c r="C65" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B66" t="s">
+        <v>770</v>
+      </c>
+      <c r="C66" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B67" t="s">
+        <v>772</v>
+      </c>
+      <c r="C67" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B68" t="s">
+        <v>773</v>
+      </c>
+      <c r="C68" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B69" t="s">
+        <v>774</v>
+      </c>
+      <c r="C69" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B70" t="s">
+        <v>775</v>
+      </c>
+      <c r="C70" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B71" t="s">
+        <v>776</v>
+      </c>
+      <c r="C71" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B72" t="s">
+        <v>777</v>
+      </c>
+      <c r="C72" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B73" t="s">
+        <v>778</v>
+      </c>
+      <c r="C73" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B74" t="s">
+        <v>779</v>
+      </c>
+      <c r="C74" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B75" t="s">
+        <v>780</v>
+      </c>
+      <c r="C75" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B76" t="s">
+        <v>781</v>
+      </c>
+      <c r="C76" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B77" t="s">
+        <v>782</v>
+      </c>
+      <c r="C77" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B78" t="s">
+        <v>783</v>
+      </c>
+      <c r="C78" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B79" t="s">
+        <v>784</v>
+      </c>
+      <c r="C79" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B80" t="s">
+        <v>785</v>
+      </c>
+      <c r="C80" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B81" t="s">
+        <v>786</v>
+      </c>
+      <c r="C81" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B82" t="s">
+        <v>787</v>
+      </c>
+      <c r="C82" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B83" t="s">
+        <v>788</v>
+      </c>
+      <c r="C83" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B84" t="s">
+        <v>789</v>
+      </c>
+      <c r="C84" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B85" t="s">
+        <v>790</v>
+      </c>
+      <c r="C85" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B86" t="s">
+        <v>791</v>
+      </c>
+      <c r="C86" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B87" t="s">
+        <v>792</v>
+      </c>
+      <c r="C87" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B88" t="s">
+        <v>793</v>
+      </c>
+      <c r="C88" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B90" t="s">
+        <v>794</v>
+      </c>
+      <c r="C90" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B91" t="s">
+        <v>795</v>
+      </c>
+      <c r="C91" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B92" t="s">
+        <v>796</v>
+      </c>
+      <c r="C92" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B93" t="s">
+        <v>797</v>
+      </c>
+      <c r="C93" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B94" t="s">
+        <v>798</v>
+      </c>
+      <c r="C94" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B95" t="s">
+        <v>799</v>
+      </c>
+      <c r="C95" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B96" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C96" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B97" t="s">
+        <v>800</v>
+      </c>
+      <c r="C97" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B98" t="s">
+        <v>801</v>
+      </c>
+      <c r="C98" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B99" t="s">
+        <v>802</v>
+      </c>
+      <c r="C99" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B100" t="s">
+        <v>803</v>
+      </c>
+      <c r="C100" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B101" t="s">
+        <v>804</v>
+      </c>
+      <c r="C101" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B102" t="s">
+        <v>805</v>
+      </c>
+      <c r="C102" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B103" t="s">
+        <v>806</v>
+      </c>
+      <c r="C103" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B104" t="s">
+        <v>807</v>
+      </c>
+      <c r="C104" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B105" t="s">
+        <v>808</v>
+      </c>
+      <c r="C105" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B106" t="s">
+        <v>809</v>
+      </c>
+      <c r="C106" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B107" t="s">
+        <v>810</v>
+      </c>
+      <c r="C107" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B108" t="s">
+        <v>811</v>
+      </c>
+      <c r="C108" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B109" t="s">
+        <v>812</v>
+      </c>
+      <c r="C109" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B110" t="s">
+        <v>813</v>
+      </c>
+      <c r="C110" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B111" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C111" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B112" t="s">
+        <v>815</v>
+      </c>
+      <c r="C112" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B113" t="s">
+        <v>818</v>
+      </c>
+      <c r="C113" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B114" t="s">
+        <v>819</v>
+      </c>
+      <c r="C114" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B115" t="s">
+        <v>820</v>
+      </c>
+      <c r="C115" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B116" t="s">
+        <v>821</v>
+      </c>
+      <c r="C116" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B117" t="s">
+        <v>822</v>
+      </c>
+      <c r="C117" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B118" t="s">
+        <v>823</v>
+      </c>
+      <c r="C118" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B119" t="s">
+        <v>824</v>
+      </c>
+      <c r="C119" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B120" t="s">
+        <v>825</v>
+      </c>
+      <c r="C120" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B121" t="s">
+        <v>826</v>
+      </c>
+      <c r="C121" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B122" t="s">
+        <v>827</v>
+      </c>
+      <c r="C122" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B123" t="s">
+        <v>828</v>
+      </c>
+      <c r="C123" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B124" t="s">
+        <v>829</v>
+      </c>
+      <c r="C124" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B125" t="s">
+        <v>830</v>
+      </c>
+      <c r="C125" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B126" t="s">
+        <v>831</v>
+      </c>
+      <c r="C126" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B127" t="s">
+        <v>832</v>
+      </c>
+      <c r="C127" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B128" t="s">
+        <v>833</v>
+      </c>
+      <c r="C128" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B129" t="s">
+        <v>834</v>
+      </c>
+      <c r="C129" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B130" t="s">
+        <v>835</v>
+      </c>
+      <c r="C130" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1" t="s">
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B131" t="s">
+        <v>836</v>
+      </c>
+      <c r="C131" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1" t="s">
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B132" t="s">
+        <v>837</v>
+      </c>
+      <c r="C132" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B133" t="s">
+        <v>838</v>
+      </c>
+      <c r="C133" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B134" t="s">
+        <v>839</v>
+      </c>
+      <c r="C134" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1" t="s">
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B135" t="s">
+        <v>840</v>
+      </c>
+      <c r="C135" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B136" t="s">
+        <v>841</v>
+      </c>
+      <c r="C136" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B137" t="s">
+        <v>842</v>
+      </c>
+      <c r="C137" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1" t="s">
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B138" t="s">
+        <v>843</v>
+      </c>
+      <c r="C138" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1" t="s">
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B139" t="s">
+        <v>844</v>
+      </c>
+      <c r="C139" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B140" t="s">
+        <v>845</v>
+      </c>
+      <c r="C140" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1" t="s">
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B141" t="s">
+        <v>846</v>
+      </c>
+      <c r="C141" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B142" t="s">
+        <v>847</v>
+      </c>
+      <c r="C142" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1" t="s">
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B143" t="s">
+        <v>848</v>
+      </c>
+      <c r="C143" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1" t="s">
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B144" t="s">
+        <v>849</v>
+      </c>
+      <c r="C144" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1" t="s">
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B145" t="s">
+        <v>850</v>
+      </c>
+      <c r="C145" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B146" t="s">
+        <v>851</v>
+      </c>
+      <c r="C146" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1" t="s">
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B147" t="s">
+        <v>852</v>
+      </c>
+      <c r="C147" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B148" t="s">
+        <v>713</v>
+      </c>
+      <c r="C148" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1" t="s">
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B149" t="s">
+        <v>853</v>
+      </c>
+      <c r="C149" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B150" t="s">
+        <v>854</v>
+      </c>
+      <c r="C150" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1" t="s">
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B151" t="s">
+        <v>855</v>
+      </c>
+      <c r="C151" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1" t="s">
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B152" t="s">
+        <v>857</v>
+      </c>
+      <c r="C152" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1" t="s">
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B153" t="s">
+        <v>858</v>
+      </c>
+      <c r="C153" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B154" t="s">
+        <v>856</v>
+      </c>
+      <c r="C154" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1" t="s">
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B155" t="s">
+        <v>859</v>
+      </c>
+      <c r="C155" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B156" t="s">
+        <v>860</v>
+      </c>
+      <c r="C156" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B157" t="s">
+        <v>861</v>
+      </c>
+      <c r="C157" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B158" t="s">
+        <v>862</v>
+      </c>
+      <c r="C158" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1" t="s">
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B159" t="s">
+        <v>155</v>
+      </c>
+      <c r="C159" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1" t="s">
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B160" t="s">
+        <v>863</v>
+      </c>
+      <c r="C160" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1" t="s">
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B161" t="s">
+        <v>864</v>
+      </c>
+      <c r="C161" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1" t="s">
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B162" t="s">
+        <v>865</v>
+      </c>
+      <c r="C162" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1" t="s">
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B163" t="s">
+        <v>866</v>
+      </c>
+      <c r="C163" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1" t="s">
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B164" t="s">
+        <v>867</v>
+      </c>
+      <c r="C164" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1" t="s">
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B165" t="s">
+        <v>868</v>
+      </c>
+      <c r="C165" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1" t="s">
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B167" t="s">
+        <v>869</v>
+      </c>
+      <c r="C167" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B168" t="s">
+        <v>870</v>
+      </c>
+      <c r="C168" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1" t="s">
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B169" t="s">
+        <v>871</v>
+      </c>
+      <c r="C169" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1" t="s">
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B170" t="s">
+        <v>872</v>
+      </c>
+      <c r="C170" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1" t="s">
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B171" t="s">
+        <v>873</v>
+      </c>
+      <c r="C171" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1" t="s">
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B172" t="s">
+        <v>874</v>
+      </c>
+      <c r="C172" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1" t="s">
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B173" t="s">
+        <v>875</v>
+      </c>
+      <c r="C173" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1" t="s">
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B174" t="s">
+        <v>876</v>
+      </c>
+      <c r="C174" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1" t="s">
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B175" t="s">
+        <v>877</v>
+      </c>
+      <c r="C175" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1" t="s">
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B176" t="s">
+        <v>878</v>
+      </c>
+      <c r="C176" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1" t="s">
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B177" t="s">
+        <v>879</v>
+      </c>
+      <c r="C177" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="1" t="s">
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B178" t="s">
+        <v>880</v>
+      </c>
+      <c r="C178" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1" t="s">
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B179" t="s">
+        <v>927</v>
+      </c>
+      <c r="C179" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="1" t="s">
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B180" t="s">
+        <v>881</v>
+      </c>
+      <c r="C180" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B181" t="s">
+        <v>882</v>
+      </c>
+      <c r="C181" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="1" t="s">
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B182" t="s">
+        <v>883</v>
+      </c>
+      <c r="C182" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="1" t="s">
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B183" t="s">
+        <v>884</v>
+      </c>
+      <c r="C183" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="1" t="s">
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B184" t="s">
+        <v>885</v>
+      </c>
+      <c r="C184" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="1" t="s">
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B185" t="s">
+        <v>886</v>
+      </c>
+      <c r="C185" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="1" t="s">
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B186" t="s">
+        <v>887</v>
+      </c>
+      <c r="C186" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="1" t="s">
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B187" t="s">
+        <v>888</v>
+      </c>
+      <c r="C187" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="1" t="s">
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B188" t="s">
+        <v>889</v>
+      </c>
+      <c r="C188" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1" t="s">
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B189" t="s">
+        <v>890</v>
+      </c>
+      <c r="C189" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="1" t="s">
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B190" t="s">
+        <v>891</v>
+      </c>
+      <c r="C190" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="1" t="s">
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B191" t="s">
+        <v>892</v>
+      </c>
+      <c r="C191" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="1" t="s">
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B192" t="s">
+        <v>893</v>
+      </c>
+      <c r="C192" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="1" t="s">
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B193" t="s">
+        <v>894</v>
+      </c>
+      <c r="C193" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="1" t="s">
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B194" t="s">
+        <v>895</v>
+      </c>
+      <c r="C194" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="1" t="s">
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B195" t="s">
+        <v>896</v>
+      </c>
+      <c r="C195" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="1" t="s">
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B196" t="s">
+        <v>897</v>
+      </c>
+      <c r="C196" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="1" t="s">
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B197" t="s">
+        <v>898</v>
+      </c>
+      <c r="C197" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="1" t="s">
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B198" t="s">
+        <v>899</v>
+      </c>
+      <c r="C198" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="1" t="s">
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B199" t="s">
+        <v>900</v>
+      </c>
+      <c r="C199" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="1" t="s">
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B200" t="s">
+        <v>901</v>
+      </c>
+      <c r="C200" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1" t="s">
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B201" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C201" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1" t="s">
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B202" t="s">
+        <v>902</v>
+      </c>
+      <c r="C202" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1" t="s">
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B203" t="s">
+        <v>903</v>
+      </c>
+      <c r="C203" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="1" t="s">
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B204" t="s">
+        <v>904</v>
+      </c>
+      <c r="C204" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="1" t="s">
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B205" t="s">
+        <v>905</v>
+      </c>
+      <c r="C205" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="1" t="s">
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B206" t="s">
+        <v>906</v>
+      </c>
+      <c r="C206" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="1" t="s">
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B207" t="s">
+        <v>907</v>
+      </c>
+      <c r="C207" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1" t="s">
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B208" t="s">
+        <v>908</v>
+      </c>
+      <c r="C208" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="1" t="s">
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B209" t="s">
+        <v>909</v>
+      </c>
+      <c r="C209" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="1" t="s">
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B210" t="s">
+        <v>910</v>
+      </c>
+      <c r="C210" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="1" t="s">
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B211" t="s">
+        <v>911</v>
+      </c>
+      <c r="C211" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="1" t="s">
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B212" t="s">
+        <v>912</v>
+      </c>
+      <c r="C212" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="1" t="s">
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B213" t="s">
+        <v>913</v>
+      </c>
+      <c r="C213" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="1" t="s">
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B214" t="s">
+        <v>914</v>
+      </c>
+      <c r="C214" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="1" t="s">
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B215" t="s">
+        <v>915</v>
+      </c>
+      <c r="C215" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="1" t="s">
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B216" t="s">
+        <v>916</v>
+      </c>
+      <c r="C216" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="1" t="s">
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B217" t="s">
+        <v>917</v>
+      </c>
+      <c r="C217" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="1" t="s">
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B218" t="s">
+        <v>918</v>
+      </c>
+      <c r="C218" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="1" t="s">
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B219" t="s">
+        <v>919</v>
+      </c>
+      <c r="C219" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="1" t="s">
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B220" t="s">
+        <v>920</v>
+      </c>
+      <c r="C220" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="1" t="s">
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B221" t="s">
+        <v>921</v>
+      </c>
+      <c r="C221" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="1" t="s">
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B222" t="s">
+        <v>922</v>
+      </c>
+      <c r="C222" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="1" t="s">
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B223" t="s">
+        <v>923</v>
+      </c>
+      <c r="C223" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="1" t="s">
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B224" t="s">
+        <v>924</v>
+      </c>
+      <c r="C224" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="1" t="s">
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B225" t="s">
+        <v>925</v>
+      </c>
+      <c r="C225" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="1" t="s">
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B226" t="s">
+        <v>926</v>
+      </c>
+      <c r="C226" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="1" t="s">
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B227" t="s">
+        <v>928</v>
+      </c>
+      <c r="C227" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="1" t="s">
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B228" t="s">
+        <v>929</v>
+      </c>
+      <c r="C228" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="1" t="s">
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B229" t="s">
+        <v>930</v>
+      </c>
+      <c r="C229" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="1" t="s">
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B230" t="s">
+        <v>931</v>
+      </c>
+      <c r="C230" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="1" t="s">
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B231" t="s">
+        <v>932</v>
+      </c>
+      <c r="C231" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="1" t="s">
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B232" t="s">
+        <v>934</v>
+      </c>
+      <c r="C232" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B233" t="s">
+        <v>936</v>
+      </c>
+      <c r="C233" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="1" t="s">
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B234" t="s">
+        <v>937</v>
+      </c>
+      <c r="C234" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="1" t="s">
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B235" t="s">
+        <v>938</v>
+      </c>
+      <c r="C235" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="1" t="s">
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B236" t="s">
+        <v>939</v>
+      </c>
+      <c r="C236" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="1" t="s">
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B237" t="s">
+        <v>940</v>
+      </c>
+      <c r="C237" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1" t="s">
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B238" t="s">
+        <v>941</v>
+      </c>
+      <c r="C238" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1" t="s">
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B239" t="s">
+        <v>944</v>
+      </c>
+      <c r="C239" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B240" t="s">
+        <v>945</v>
+      </c>
+      <c r="C240" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1" t="s">
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B241" t="s">
+        <v>946</v>
+      </c>
+      <c r="C241" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1" t="s">
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B242" t="s">
+        <v>947</v>
+      </c>
+      <c r="C242" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="1" t="s">
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B243" t="s">
+        <v>948</v>
+      </c>
+      <c r="C243" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="1" t="s">
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B244" t="s">
+        <v>949</v>
+      </c>
+      <c r="C244" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="1" t="s">
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B245" t="s">
+        <v>950</v>
+      </c>
+      <c r="C245" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="1" t="s">
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B246" t="s">
+        <v>951</v>
+      </c>
+      <c r="C246" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="1" t="s">
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B247" t="s">
+        <v>952</v>
+      </c>
+      <c r="C247" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="1" t="s">
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B248" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C248" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="1" t="s">
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B249" t="s">
+        <v>953</v>
+      </c>
+      <c r="C249" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="1" t="s">
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B250" t="s">
+        <v>954</v>
+      </c>
+      <c r="C250" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="1" t="s">
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B251" t="s">
+        <v>955</v>
+      </c>
+      <c r="C251" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="1" t="s">
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B252" t="s">
+        <v>956</v>
+      </c>
+      <c r="C252" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="1" t="s">
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B253" t="s">
+        <v>957</v>
+      </c>
+      <c r="C253" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1" t="s">
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B254" t="s">
+        <v>958</v>
+      </c>
+      <c r="C254" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="1" t="s">
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B255" t="s">
+        <v>986</v>
+      </c>
+      <c r="C255" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1" t="s">
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B256" t="s">
+        <v>959</v>
+      </c>
+      <c r="C256" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="1" t="s">
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B257" t="s">
+        <v>960</v>
+      </c>
+      <c r="C257" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="1" t="s">
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B258" t="s">
+        <v>961</v>
+      </c>
+      <c r="C258" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="1" t="s">
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B259" t="s">
+        <v>962</v>
+      </c>
+      <c r="C259" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="1" t="s">
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B260" t="s">
+        <v>963</v>
+      </c>
+      <c r="C260" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="1" t="s">
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B261" t="s">
+        <v>964</v>
+      </c>
+      <c r="C261" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="1" t="s">
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B262" t="s">
+        <v>965</v>
+      </c>
+      <c r="C262" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="1" t="s">
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B263" t="s">
+        <v>966</v>
+      </c>
+      <c r="C263" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="1" t="s">
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B264" t="s">
+        <v>967</v>
+      </c>
+      <c r="C264" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="1" t="s">
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B265" t="s">
+        <v>968</v>
+      </c>
+      <c r="C265" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="1" t="s">
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B266" t="s">
+        <v>969</v>
+      </c>
+      <c r="C266" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="1" t="s">
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B267" t="s">
+        <v>260</v>
+      </c>
+      <c r="C267" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="1" t="s">
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B268" t="s">
+        <v>970</v>
+      </c>
+      <c r="C268" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="1" t="s">
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B269" t="s">
+        <v>971</v>
+      </c>
+      <c r="C269" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1" t="s">
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B270" t="s">
+        <v>972</v>
+      </c>
+      <c r="C270" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1" t="s">
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B271" t="s">
+        <v>973</v>
+      </c>
+      <c r="C271" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="1" t="s">
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B272" t="s">
+        <v>974</v>
+      </c>
+      <c r="C272" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="1" t="s">
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B273" t="s">
+        <v>975</v>
+      </c>
+      <c r="C273" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="1" t="s">
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B274" t="s">
+        <v>976</v>
+      </c>
+      <c r="C274" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="1" t="s">
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B275" t="s">
+        <v>977</v>
+      </c>
+      <c r="C275" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="1" t="s">
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B276" t="s">
+        <v>980</v>
+      </c>
+      <c r="C276" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="1" t="s">
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B277" t="s">
+        <v>978</v>
+      </c>
+      <c r="C277" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="1" t="s">
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B278" t="s">
+        <v>979</v>
+      </c>
+      <c r="C278" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="1" t="s">
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B279" t="s">
+        <v>981</v>
+      </c>
+      <c r="C279" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="1" t="s">
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B280" t="s">
+        <v>982</v>
+      </c>
+      <c r="C280" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="1" t="s">
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B281" t="s">
+        <v>983</v>
+      </c>
+      <c r="C281" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1" t="s">
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B282" t="s">
+        <v>984</v>
+      </c>
+      <c r="C282" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="1" t="s">
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B283" t="s">
+        <v>985</v>
+      </c>
+      <c r="C283" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="1" t="s">
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B284" t="s">
+        <v>987</v>
+      </c>
+      <c r="C284" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="1" t="s">
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B285" t="s">
+        <v>988</v>
+      </c>
+      <c r="C285" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1" t="s">
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B286" t="s">
+        <v>989</v>
+      </c>
+      <c r="C286" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1" t="s">
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B287" t="s">
+        <v>990</v>
+      </c>
+      <c r="C287" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1" t="s">
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B288" t="s">
+        <v>991</v>
+      </c>
+      <c r="C288" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1" t="s">
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B289" t="s">
+        <v>992</v>
+      </c>
+      <c r="C289" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1" t="s">
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B290" t="s">
+        <v>283</v>
+      </c>
+      <c r="C290" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1" t="s">
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B291" t="s">
+        <v>993</v>
+      </c>
+      <c r="C291" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1" t="s">
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B292" t="s">
+        <v>994</v>
+      </c>
+      <c r="C292" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1" t="s">
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B293" t="s">
+        <v>997</v>
+      </c>
+      <c r="C293" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1" t="s">
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B294" t="s">
+        <v>995</v>
+      </c>
+      <c r="C294" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="1" t="s">
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B295" t="s">
+        <v>996</v>
+      </c>
+      <c r="C295" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="1" t="s">
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B296" t="s">
+        <v>998</v>
+      </c>
+      <c r="C296" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="1" t="s">
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B297" t="s">
+        <v>999</v>
+      </c>
+      <c r="C297" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="1" t="s">
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B298" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C298" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="1" t="s">
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B299" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C299" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="1" t="s">
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B300" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C300" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="1" t="s">
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B301" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C301" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="1" t="s">
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B302" t="s">
+        <v>754</v>
+      </c>
+      <c r="C302" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="1" t="s">
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B303" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C303" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1" t="s">
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B304" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C304" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="1" t="s">
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B305" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C305" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="1" t="s">
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B306" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C306" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="1" t="s">
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B307" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C307" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="1" t="s">
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B308" t="s">
+        <v>301</v>
+      </c>
+      <c r="C308" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="1" t="s">
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B309" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C309" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="1" t="s">
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B310" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C310" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="1" t="s">
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B311" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C311" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="1" t="s">
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B312" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C312" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="1" t="s">
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B313" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C313" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="1" t="s">
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B314" t="s">
+        <v>307</v>
+      </c>
+      <c r="C314" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="1" t="s">
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B315" t="s">
+        <v>308</v>
+      </c>
+      <c r="C315" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="1" t="s">
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B316" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C316" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="1" t="s">
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B317" t="s">
+        <v>310</v>
+      </c>
+      <c r="C317" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="1" t="s">
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B318" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C318" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="1" t="s">
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B319" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C319" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="1" t="s">
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B320" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C320" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="1" t="s">
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B321" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C321" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="1" t="s">
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B322" t="s">
+        <v>315</v>
+      </c>
+      <c r="C322" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1" t="s">
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B323" t="s">
+        <v>316</v>
+      </c>
+      <c r="C323" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1" t="s">
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B324" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C324" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1" t="s">
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B325" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C325" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1" t="s">
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B326" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C326" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1" t="s">
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B327" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C327" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1" t="s">
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B328" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C328" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="1" t="s">
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B329" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C329" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="1" t="s">
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B330" t="s">
+        <v>323</v>
+      </c>
+      <c r="C330" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="1" t="s">
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B331" t="s">
+        <v>324</v>
+      </c>
+      <c r="C331" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="1" t="s">
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B332" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C332" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1" t="s">
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B333" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C333" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="1" t="s">
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B334" t="s">
+        <v>327</v>
+      </c>
+      <c r="C334" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1" t="s">
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B335" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C335" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="1" t="s">
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B336" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C336" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="1" t="s">
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B337" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C337" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="1" t="s">
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B338" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C338" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="1" t="s">
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B339" t="s">
+        <v>332</v>
+      </c>
+      <c r="C339" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="1" t="s">
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B340" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C340" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="1" t="s">
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B341" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C341" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="1" t="s">
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B342" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C342" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="1" t="s">
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B343" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C343" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="1" t="s">
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B344" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C344" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="1" t="s">
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B345" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C345" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="1" t="s">
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B346" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C346" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="1" t="s">
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B347" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C347" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="1" t="s">
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B348" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C348" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="1" t="s">
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B349" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C349" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="1" t="s">
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B350" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C350" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="1" t="s">
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B351" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C351" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="1" t="s">
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B352" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C352" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="1" t="s">
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B353" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C353" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="1" t="s">
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B354" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C354" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="1" t="s">
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B355" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C355" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="1" t="s">
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B356" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C356" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="1" t="s">
+    <row r="357" spans="1:3">
+      <c r="A357" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B357" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C357" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="1" t="s">
+    <row r="358" spans="1:3">
+      <c r="A358" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B359" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C359" t="s">
         <v>683</v>
       </c>
     </row>

--- a/Logos.xlsx
+++ b/Logos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3712,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="C363" sqref="C363"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Logos.xlsx
+++ b/Logos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2058,9 +2058,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e5/Wisconsin_Badgers_logo.svg/1200px-Wisconsin_Badgers_logo.svg.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3d/Wofford_Terriers_wordmark.svg/1280px-Wofford_Terriers_wordmark.svg.png</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/c/c2/Wright_State_Raiders_logo.svg/1200px-Wright_State_Raiders_logo.svg.png</t>
   </si>
   <si>
@@ -3193,6 +3190,9 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/6/65/Maryland_Eastern_Shore_Hawks_logo.svg/1200px-Maryland_Eastern_Shore_Hawks_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://a1.espncdn.com/combiner/i?img=%2Fi%2Fteamlogos%2Fncaa%2F500%2F2747.png</t>
   </si>
 </sst>
 </file>
@@ -3712,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="C354" sqref="C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3736,13 +3736,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3750,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -3761,7 +3761,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3772,7 +3772,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -3783,7 +3783,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C6" t="s">
         <v>352</v>
@@ -3794,7 +3794,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C7" t="s">
         <v>353</v>
@@ -3805,7 +3805,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C8" t="s">
         <v>354</v>
@@ -3816,7 +3816,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C9" t="s">
         <v>355</v>
@@ -3827,7 +3827,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C10" t="s">
         <v>356</v>
@@ -3838,7 +3838,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C11" t="s">
         <v>357</v>
@@ -3849,7 +3849,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C12" t="s">
         <v>358</v>
@@ -3860,7 +3860,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C13" t="s">
         <v>359</v>
@@ -3871,7 +3871,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C14" t="s">
         <v>360</v>
@@ -3882,7 +3882,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C15" t="s">
         <v>361</v>
@@ -3893,7 +3893,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C16" t="s">
         <v>362</v>
@@ -3904,10 +3904,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3915,7 +3915,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C18" t="s">
         <v>363</v>
@@ -3926,7 +3926,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C19" t="s">
         <v>364</v>
@@ -3937,7 +3937,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C20" t="s">
         <v>365</v>
@@ -3948,7 +3948,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C21" t="s">
         <v>366</v>
@@ -3959,7 +3959,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C22" t="s">
         <v>367</v>
@@ -3970,7 +3970,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C23" t="s">
         <v>368</v>
@@ -3981,7 +3981,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C24" t="s">
         <v>369</v>
@@ -3989,13 +3989,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B25" t="s">
         <v>721</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>722</v>
-      </c>
-      <c r="C25" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4003,7 +4003,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C26" t="s">
         <v>370</v>
@@ -4014,7 +4014,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C27" t="s">
         <v>371</v>
@@ -4025,7 +4025,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C28" t="s">
         <v>372</v>
@@ -4036,7 +4036,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C29" t="s">
         <v>373</v>
@@ -4047,7 +4047,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C30" t="s">
         <v>374</v>
@@ -4055,13 +4055,13 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B31" t="s">
         <v>730</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>731</v>
-      </c>
-      <c r="C31" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4069,7 +4069,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C32" t="s">
         <v>375</v>
@@ -4080,7 +4080,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C33" t="s">
         <v>376</v>
@@ -4091,7 +4091,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C34" t="s">
         <v>377</v>
@@ -4102,7 +4102,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C35" t="s">
         <v>378</v>
@@ -4113,7 +4113,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C36" t="s">
         <v>379</v>
@@ -4135,7 +4135,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C38" t="s">
         <v>381</v>
@@ -4146,7 +4146,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C39" t="s">
         <v>382</v>
@@ -4157,7 +4157,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C40" t="s">
         <v>383</v>
@@ -4168,7 +4168,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C41" t="s">
         <v>384</v>
@@ -4179,7 +4179,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C42" t="s">
         <v>385</v>
@@ -4190,7 +4190,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C43" t="s">
         <v>386</v>
@@ -4201,7 +4201,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C44" t="s">
         <v>387</v>
@@ -4212,7 +4212,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C45" t="s">
         <v>388</v>
@@ -4223,7 +4223,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C46" t="s">
         <v>389</v>
@@ -4234,7 +4234,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C47" t="s">
         <v>390</v>
@@ -4245,7 +4245,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C48" t="s">
         <v>391</v>
@@ -4256,7 +4256,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C49" t="s">
         <v>392</v>
@@ -4267,7 +4267,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C50" t="s">
         <v>393</v>
@@ -4278,7 +4278,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C51" t="s">
         <v>394</v>
@@ -4289,10 +4289,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4300,10 +4300,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C53" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4311,7 +4311,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C54" t="s">
         <v>395</v>
@@ -4322,7 +4322,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C55" t="s">
         <v>396</v>
@@ -4333,7 +4333,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C56" t="s">
         <v>397</v>
@@ -4344,7 +4344,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C57" t="s">
         <v>398</v>
@@ -4355,7 +4355,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C58" t="s">
         <v>399</v>
@@ -4366,7 +4366,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C59" t="s">
         <v>400</v>
@@ -4377,7 +4377,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C60" t="s">
         <v>401</v>
@@ -4385,13 +4385,13 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B61" t="s">
         <v>761</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>762</v>
-      </c>
-      <c r="C61" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4399,7 +4399,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C62" t="s">
         <v>402</v>
@@ -4410,7 +4410,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C63" t="s">
         <v>403</v>
@@ -4418,13 +4418,13 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B64" t="s">
         <v>765</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>766</v>
-      </c>
-      <c r="C64" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4432,7 +4432,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C65" t="s">
         <v>404</v>
@@ -4440,13 +4440,13 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B66" t="s">
         <v>769</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>770</v>
-      </c>
-      <c r="C66" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4454,7 +4454,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C67" t="s">
         <v>406</v>
@@ -4465,7 +4465,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C68" t="s">
         <v>405</v>
@@ -4476,7 +4476,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C69" t="s">
         <v>408</v>
@@ -4487,7 +4487,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C70" t="s">
         <v>409</v>
@@ -4498,7 +4498,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C71" t="s">
         <v>410</v>
@@ -4509,7 +4509,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C72" t="s">
         <v>411</v>
@@ -4520,7 +4520,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C73" t="s">
         <v>412</v>
@@ -4531,7 +4531,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C74" t="s">
         <v>413</v>
@@ -4542,7 +4542,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C75" t="s">
         <v>414</v>
@@ -4553,7 +4553,7 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C76" t="s">
         <v>415</v>
@@ -4564,7 +4564,7 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C77" t="s">
         <v>416</v>
@@ -4575,7 +4575,7 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C78" t="s">
         <v>417</v>
@@ -4586,7 +4586,7 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C79" t="s">
         <v>418</v>
@@ -4597,7 +4597,7 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C80" t="s">
         <v>419</v>
@@ -4608,7 +4608,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C81" t="s">
         <v>420</v>
@@ -4619,7 +4619,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C82" t="s">
         <v>421</v>
@@ -4630,7 +4630,7 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C83" t="s">
         <v>422</v>
@@ -4641,7 +4641,7 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C84" t="s">
         <v>423</v>
@@ -4652,7 +4652,7 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C85" t="s">
         <v>424</v>
@@ -4663,7 +4663,7 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C86" t="s">
         <v>425</v>
@@ -4674,7 +4674,7 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C87" t="s">
         <v>426</v>
@@ -4685,7 +4685,7 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C88" t="s">
         <v>427</v>
@@ -4707,7 +4707,7 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C90" t="s">
         <v>429</v>
@@ -4718,7 +4718,7 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C91" t="s">
         <v>430</v>
@@ -4729,7 +4729,7 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C92" t="s">
         <v>431</v>
@@ -4740,7 +4740,7 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C93" t="s">
         <v>432</v>
@@ -4751,7 +4751,7 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C94" t="s">
         <v>433</v>
@@ -4762,7 +4762,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C95" t="s">
         <v>434</v>
@@ -4773,7 +4773,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C96" t="s">
         <v>407</v>
@@ -4784,7 +4784,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C97" t="s">
         <v>435</v>
@@ -4795,10 +4795,10 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C98" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4806,7 +4806,7 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C99" t="s">
         <v>436</v>
@@ -4817,7 +4817,7 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C100" t="s">
         <v>437</v>
@@ -4828,7 +4828,7 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C101" t="s">
         <v>438</v>
@@ -4839,7 +4839,7 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C102" t="s">
         <v>439</v>
@@ -4850,7 +4850,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C103" t="s">
         <v>440</v>
@@ -4861,7 +4861,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C104" t="s">
         <v>441</v>
@@ -4872,7 +4872,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C105" t="s">
         <v>442</v>
@@ -4883,7 +4883,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C106" t="s">
         <v>443</v>
@@ -4894,7 +4894,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C107" t="s">
         <v>409</v>
@@ -4905,7 +4905,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C108" t="s">
         <v>444</v>
@@ -4916,7 +4916,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C109" t="s">
         <v>445</v>
@@ -4927,10 +4927,10 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C110" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4938,7 +4938,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C111" t="s">
         <v>446</v>
@@ -4949,7 +4949,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C112" t="s">
         <v>447</v>
@@ -4957,13 +4957,13 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B113" t="s">
+        <v>817</v>
+      </c>
+      <c r="C113" t="s">
         <v>816</v>
-      </c>
-      <c r="B113" t="s">
-        <v>818</v>
-      </c>
-      <c r="C113" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4971,7 +4971,7 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C114" t="s">
         <v>448</v>
@@ -4982,7 +4982,7 @@
         <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C115" t="s">
         <v>449</v>
@@ -4993,7 +4993,7 @@
         <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C116" t="s">
         <v>450</v>
@@ -5004,7 +5004,7 @@
         <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C117" t="s">
         <v>451</v>
@@ -5015,7 +5015,7 @@
         <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C118" t="s">
         <v>452</v>
@@ -5026,7 +5026,7 @@
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C119" t="s">
         <v>453</v>
@@ -5037,7 +5037,7 @@
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C120" t="s">
         <v>454</v>
@@ -5048,7 +5048,7 @@
         <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C121" t="s">
         <v>455</v>
@@ -5059,7 +5059,7 @@
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C122" t="s">
         <v>456</v>
@@ -5070,7 +5070,7 @@
         <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C123" t="s">
         <v>457</v>
@@ -5081,7 +5081,7 @@
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C124" t="s">
         <v>458</v>
@@ -5092,7 +5092,7 @@
         <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C125" t="s">
         <v>459</v>
@@ -5103,7 +5103,7 @@
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C126" t="s">
         <v>460</v>
@@ -5114,7 +5114,7 @@
         <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C127" t="s">
         <v>461</v>
@@ -5125,7 +5125,7 @@
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C128" t="s">
         <v>462</v>
@@ -5136,7 +5136,7 @@
         <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C129" t="s">
         <v>463</v>
@@ -5147,7 +5147,7 @@
         <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C130" t="s">
         <v>464</v>
@@ -5158,7 +5158,7 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C131" t="s">
         <v>465</v>
@@ -5169,7 +5169,7 @@
         <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C132" t="s">
         <v>466</v>
@@ -5180,7 +5180,7 @@
         <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C133" t="s">
         <v>467</v>
@@ -5191,7 +5191,7 @@
         <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C134" t="s">
         <v>468</v>
@@ -5202,7 +5202,7 @@
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C135" t="s">
         <v>469</v>
@@ -5213,7 +5213,7 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C136" t="s">
         <v>470</v>
@@ -5224,7 +5224,7 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C137" t="s">
         <v>471</v>
@@ -5235,7 +5235,7 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C138" t="s">
         <v>472</v>
@@ -5246,7 +5246,7 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C139" t="s">
         <v>473</v>
@@ -5257,7 +5257,7 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C140" t="s">
         <v>474</v>
@@ -5268,7 +5268,7 @@
         <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C141" t="s">
         <v>475</v>
@@ -5279,7 +5279,7 @@
         <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C142" t="s">
         <v>476</v>
@@ -5290,7 +5290,7 @@
         <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C143" t="s">
         <v>477</v>
@@ -5301,7 +5301,7 @@
         <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C144" t="s">
         <v>478</v>
@@ -5312,7 +5312,7 @@
         <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C145" t="s">
         <v>479</v>
@@ -5323,7 +5323,7 @@
         <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C146" t="s">
         <v>480</v>
@@ -5334,10 +5334,10 @@
         <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C147" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5345,10 +5345,10 @@
         <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C148" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5356,10 +5356,10 @@
         <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C149" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5367,10 +5367,10 @@
         <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C150" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5378,7 +5378,7 @@
         <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C151" t="s">
         <v>481</v>
@@ -5389,7 +5389,7 @@
         <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C152" t="s">
         <v>482</v>
@@ -5400,7 +5400,7 @@
         <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C153" t="s">
         <v>483</v>
@@ -5411,7 +5411,7 @@
         <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C154" t="s">
         <v>484</v>
@@ -5422,7 +5422,7 @@
         <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C155" t="s">
         <v>485</v>
@@ -5433,7 +5433,7 @@
         <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C156" t="s">
         <v>486</v>
@@ -5444,7 +5444,7 @@
         <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C157" t="s">
         <v>487</v>
@@ -5455,7 +5455,7 @@
         <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C158" t="s">
         <v>488</v>
@@ -5477,7 +5477,7 @@
         <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C160" t="s">
         <v>490</v>
@@ -5488,7 +5488,7 @@
         <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C161" t="s">
         <v>491</v>
@@ -5499,7 +5499,7 @@
         <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C162" t="s">
         <v>492</v>
@@ -5510,7 +5510,7 @@
         <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C163" t="s">
         <v>493</v>
@@ -5521,7 +5521,7 @@
         <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C164" t="s">
         <v>494</v>
@@ -5532,7 +5532,7 @@
         <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C165" t="s">
         <v>495</v>
@@ -5540,13 +5540,13 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="C166" t="s">
         <v>1056</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5554,7 +5554,7 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C167" t="s">
         <v>496</v>
@@ -5565,7 +5565,7 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C168" t="s">
         <v>497</v>
@@ -5576,7 +5576,7 @@
         <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C169" t="s">
         <v>498</v>
@@ -5587,7 +5587,7 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C170" t="s">
         <v>499</v>
@@ -5598,7 +5598,7 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C171" t="s">
         <v>500</v>
@@ -5609,7 +5609,7 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C172" t="s">
         <v>501</v>
@@ -5620,7 +5620,7 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C173" t="s">
         <v>502</v>
@@ -5631,7 +5631,7 @@
         <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C174" t="s">
         <v>503</v>
@@ -5642,7 +5642,7 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C175" t="s">
         <v>504</v>
@@ -5653,7 +5653,7 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C176" t="s">
         <v>505</v>
@@ -5664,7 +5664,7 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C177" t="s">
         <v>506</v>
@@ -5675,7 +5675,7 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C178" t="s">
         <v>507</v>
@@ -5686,7 +5686,7 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C179" t="s">
         <v>508</v>
@@ -5697,7 +5697,7 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C180" t="s">
         <v>509</v>
@@ -5708,7 +5708,7 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C181" t="s">
         <v>510</v>
@@ -5719,7 +5719,7 @@
         <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C182" t="s">
         <v>511</v>
@@ -5730,7 +5730,7 @@
         <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C183" t="s">
         <v>512</v>
@@ -5741,7 +5741,7 @@
         <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C184" t="s">
         <v>513</v>
@@ -5752,7 +5752,7 @@
         <v>180</v>
       </c>
       <c r="B185" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C185" t="s">
         <v>514</v>
@@ -5763,7 +5763,7 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C186" t="s">
         <v>515</v>
@@ -5774,7 +5774,7 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C187" t="s">
         <v>516</v>
@@ -5785,7 +5785,7 @@
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C188" t="s">
         <v>517</v>
@@ -5796,7 +5796,7 @@
         <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C189" t="s">
         <v>518</v>
@@ -5807,7 +5807,7 @@
         <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C190" t="s">
         <v>519</v>
@@ -5818,7 +5818,7 @@
         <v>186</v>
       </c>
       <c r="B191" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C191" t="s">
         <v>520</v>
@@ -5829,7 +5829,7 @@
         <v>187</v>
       </c>
       <c r="B192" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C192" t="s">
         <v>521</v>
@@ -5840,7 +5840,7 @@
         <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C193" t="s">
         <v>522</v>
@@ -5851,7 +5851,7 @@
         <v>189</v>
       </c>
       <c r="B194" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C194" t="s">
         <v>523</v>
@@ -5862,7 +5862,7 @@
         <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C195" t="s">
         <v>524</v>
@@ -5873,7 +5873,7 @@
         <v>191</v>
       </c>
       <c r="B196" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C196" t="s">
         <v>525</v>
@@ -5884,7 +5884,7 @@
         <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C197" t="s">
         <v>526</v>
@@ -5895,7 +5895,7 @@
         <v>193</v>
       </c>
       <c r="B198" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C198" t="s">
         <v>527</v>
@@ -5906,10 +5906,10 @@
         <v>194</v>
       </c>
       <c r="B199" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C199" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5917,7 +5917,7 @@
         <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C200" t="s">
         <v>528</v>
@@ -5939,7 +5939,7 @@
         <v>197</v>
       </c>
       <c r="B202" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C202" t="s">
         <v>530</v>
@@ -5950,7 +5950,7 @@
         <v>198</v>
       </c>
       <c r="B203" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C203" t="s">
         <v>531</v>
@@ -5961,7 +5961,7 @@
         <v>199</v>
       </c>
       <c r="B204" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C204" t="s">
         <v>532</v>
@@ -5972,7 +5972,7 @@
         <v>200</v>
       </c>
       <c r="B205" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C205" t="s">
         <v>533</v>
@@ -5983,7 +5983,7 @@
         <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C206" t="s">
         <v>534</v>
@@ -5994,7 +5994,7 @@
         <v>202</v>
       </c>
       <c r="B207" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C207" t="s">
         <v>535</v>
@@ -6005,7 +6005,7 @@
         <v>203</v>
       </c>
       <c r="B208" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C208" t="s">
         <v>536</v>
@@ -6016,7 +6016,7 @@
         <v>204</v>
       </c>
       <c r="B209" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C209" t="s">
         <v>537</v>
@@ -6027,7 +6027,7 @@
         <v>205</v>
       </c>
       <c r="B210" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C210" t="s">
         <v>538</v>
@@ -6038,7 +6038,7 @@
         <v>206</v>
       </c>
       <c r="B211" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C211" t="s">
         <v>539</v>
@@ -6049,7 +6049,7 @@
         <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C212" t="s">
         <v>540</v>
@@ -6060,7 +6060,7 @@
         <v>208</v>
       </c>
       <c r="B213" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C213" t="s">
         <v>541</v>
@@ -6071,7 +6071,7 @@
         <v>209</v>
       </c>
       <c r="B214" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C214" t="s">
         <v>542</v>
@@ -6082,7 +6082,7 @@
         <v>210</v>
       </c>
       <c r="B215" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C215" t="s">
         <v>543</v>
@@ -6093,7 +6093,7 @@
         <v>211</v>
       </c>
       <c r="B216" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C216" t="s">
         <v>544</v>
@@ -6104,7 +6104,7 @@
         <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C217" t="s">
         <v>545</v>
@@ -6115,7 +6115,7 @@
         <v>213</v>
       </c>
       <c r="B218" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C218" t="s">
         <v>546</v>
@@ -6126,7 +6126,7 @@
         <v>214</v>
       </c>
       <c r="B219" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C219" t="s">
         <v>547</v>
@@ -6137,7 +6137,7 @@
         <v>215</v>
       </c>
       <c r="B220" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C220" t="s">
         <v>548</v>
@@ -6148,7 +6148,7 @@
         <v>216</v>
       </c>
       <c r="B221" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C221" t="s">
         <v>549</v>
@@ -6159,7 +6159,7 @@
         <v>217</v>
       </c>
       <c r="B222" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C222" t="s">
         <v>550</v>
@@ -6170,7 +6170,7 @@
         <v>218</v>
       </c>
       <c r="B223" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C223" t="s">
         <v>551</v>
@@ -6181,7 +6181,7 @@
         <v>219</v>
       </c>
       <c r="B224" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C224" t="s">
         <v>552</v>
@@ -6192,7 +6192,7 @@
         <v>220</v>
       </c>
       <c r="B225" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C225" t="s">
         <v>553</v>
@@ -6203,7 +6203,7 @@
         <v>221</v>
       </c>
       <c r="B226" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C226" t="s">
         <v>554</v>
@@ -6214,7 +6214,7 @@
         <v>222</v>
       </c>
       <c r="B227" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C227" t="s">
         <v>555</v>
@@ -6225,7 +6225,7 @@
         <v>223</v>
       </c>
       <c r="B228" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C228" t="s">
         <v>556</v>
@@ -6236,7 +6236,7 @@
         <v>224</v>
       </c>
       <c r="B229" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C229" t="s">
         <v>557</v>
@@ -6247,7 +6247,7 @@
         <v>225</v>
       </c>
       <c r="B230" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C230" t="s">
         <v>558</v>
@@ -6258,7 +6258,7 @@
         <v>226</v>
       </c>
       <c r="B231" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C231" t="s">
         <v>559</v>
@@ -6266,13 +6266,13 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B232" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C232" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6280,7 +6280,7 @@
         <v>227</v>
       </c>
       <c r="B233" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C233" t="s">
         <v>560</v>
@@ -6291,7 +6291,7 @@
         <v>228</v>
       </c>
       <c r="B234" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C234" t="s">
         <v>561</v>
@@ -6302,7 +6302,7 @@
         <v>229</v>
       </c>
       <c r="B235" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C235" t="s">
         <v>562</v>
@@ -6313,7 +6313,7 @@
         <v>230</v>
       </c>
       <c r="B236" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C236" t="s">
         <v>563</v>
@@ -6324,7 +6324,7 @@
         <v>231</v>
       </c>
       <c r="B237" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C237" t="s">
         <v>564</v>
@@ -6335,7 +6335,7 @@
         <v>232</v>
       </c>
       <c r="B238" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C238" t="s">
         <v>565</v>
@@ -6343,13 +6343,13 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B239" t="s">
+        <v>943</v>
+      </c>
+      <c r="C239" t="s">
         <v>942</v>
-      </c>
-      <c r="B239" t="s">
-        <v>944</v>
-      </c>
-      <c r="C239" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6357,10 +6357,10 @@
         <v>233</v>
       </c>
       <c r="B240" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C240" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6368,7 +6368,7 @@
         <v>234</v>
       </c>
       <c r="B241" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C241" t="s">
         <v>566</v>
@@ -6379,7 +6379,7 @@
         <v>235</v>
       </c>
       <c r="B242" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C242" t="s">
         <v>567</v>
@@ -6390,7 +6390,7 @@
         <v>236</v>
       </c>
       <c r="B243" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C243" t="s">
         <v>568</v>
@@ -6401,7 +6401,7 @@
         <v>237</v>
       </c>
       <c r="B244" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C244" t="s">
         <v>569</v>
@@ -6412,7 +6412,7 @@
         <v>238</v>
       </c>
       <c r="B245" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C245" t="s">
         <v>570</v>
@@ -6423,7 +6423,7 @@
         <v>239</v>
       </c>
       <c r="B246" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C246" t="s">
         <v>571</v>
@@ -6434,7 +6434,7 @@
         <v>240</v>
       </c>
       <c r="B247" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C247" t="s">
         <v>572</v>
@@ -6445,7 +6445,7 @@
         <v>241</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C248" t="s">
         <v>573</v>
@@ -6456,7 +6456,7 @@
         <v>242</v>
       </c>
       <c r="B249" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C249" t="s">
         <v>574</v>
@@ -6467,7 +6467,7 @@
         <v>243</v>
       </c>
       <c r="B250" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C250" t="s">
         <v>575</v>
@@ -6478,7 +6478,7 @@
         <v>244</v>
       </c>
       <c r="B251" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C251" t="s">
         <v>576</v>
@@ -6489,7 +6489,7 @@
         <v>245</v>
       </c>
       <c r="B252" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C252" t="s">
         <v>577</v>
@@ -6500,7 +6500,7 @@
         <v>246</v>
       </c>
       <c r="B253" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C253" t="s">
         <v>578</v>
@@ -6511,7 +6511,7 @@
         <v>247</v>
       </c>
       <c r="B254" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C254" t="s">
         <v>579</v>
@@ -6522,7 +6522,7 @@
         <v>248</v>
       </c>
       <c r="B255" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C255" t="s">
         <v>580</v>
@@ -6533,7 +6533,7 @@
         <v>249</v>
       </c>
       <c r="B256" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C256" t="s">
         <v>581</v>
@@ -6544,7 +6544,7 @@
         <v>250</v>
       </c>
       <c r="B257" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C257" t="s">
         <v>582</v>
@@ -6555,7 +6555,7 @@
         <v>251</v>
       </c>
       <c r="B258" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C258" t="s">
         <v>583</v>
@@ -6566,7 +6566,7 @@
         <v>252</v>
       </c>
       <c r="B259" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C259" t="s">
         <v>584</v>
@@ -6577,7 +6577,7 @@
         <v>253</v>
       </c>
       <c r="B260" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C260" t="s">
         <v>585</v>
@@ -6588,7 +6588,7 @@
         <v>254</v>
       </c>
       <c r="B261" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C261" t="s">
         <v>586</v>
@@ -6599,7 +6599,7 @@
         <v>255</v>
       </c>
       <c r="B262" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C262" t="s">
         <v>587</v>
@@ -6610,7 +6610,7 @@
         <v>256</v>
       </c>
       <c r="B263" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C263" t="s">
         <v>588</v>
@@ -6621,7 +6621,7 @@
         <v>257</v>
       </c>
       <c r="B264" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C264" t="s">
         <v>589</v>
@@ -6632,7 +6632,7 @@
         <v>258</v>
       </c>
       <c r="B265" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C265" t="s">
         <v>590</v>
@@ -6643,7 +6643,7 @@
         <v>259</v>
       </c>
       <c r="B266" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C266" t="s">
         <v>591</v>
@@ -6665,7 +6665,7 @@
         <v>261</v>
       </c>
       <c r="B268" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C268" t="s">
         <v>593</v>
@@ -6676,7 +6676,7 @@
         <v>262</v>
       </c>
       <c r="B269" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C269" t="s">
         <v>594</v>
@@ -6687,7 +6687,7 @@
         <v>263</v>
       </c>
       <c r="B270" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C270" t="s">
         <v>595</v>
@@ -6698,7 +6698,7 @@
         <v>264</v>
       </c>
       <c r="B271" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C271" t="s">
         <v>596</v>
@@ -6709,7 +6709,7 @@
         <v>265</v>
       </c>
       <c r="B272" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C272" t="s">
         <v>597</v>
@@ -6720,7 +6720,7 @@
         <v>266</v>
       </c>
       <c r="B273" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C273" t="s">
         <v>598</v>
@@ -6731,7 +6731,7 @@
         <v>267</v>
       </c>
       <c r="B274" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C274" t="s">
         <v>599</v>
@@ -6742,7 +6742,7 @@
         <v>268</v>
       </c>
       <c r="B275" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C275" t="s">
         <v>600</v>
@@ -6753,7 +6753,7 @@
         <v>269</v>
       </c>
       <c r="B276" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C276" t="s">
         <v>601</v>
@@ -6764,7 +6764,7 @@
         <v>270</v>
       </c>
       <c r="B277" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C277" t="s">
         <v>602</v>
@@ -6775,7 +6775,7 @@
         <v>271</v>
       </c>
       <c r="B278" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C278" t="s">
         <v>603</v>
@@ -6786,7 +6786,7 @@
         <v>272</v>
       </c>
       <c r="B279" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C279" t="s">
         <v>604</v>
@@ -6797,7 +6797,7 @@
         <v>273</v>
       </c>
       <c r="B280" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C280" t="s">
         <v>605</v>
@@ -6808,7 +6808,7 @@
         <v>274</v>
       </c>
       <c r="B281" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C281" t="s">
         <v>606</v>
@@ -6819,7 +6819,7 @@
         <v>275</v>
       </c>
       <c r="B282" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C282" t="s">
         <v>607</v>
@@ -6830,7 +6830,7 @@
         <v>276</v>
       </c>
       <c r="B283" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C283" t="s">
         <v>608</v>
@@ -6841,7 +6841,7 @@
         <v>277</v>
       </c>
       <c r="B284" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C284" t="s">
         <v>609</v>
@@ -6852,7 +6852,7 @@
         <v>278</v>
       </c>
       <c r="B285" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C285" t="s">
         <v>610</v>
@@ -6863,7 +6863,7 @@
         <v>279</v>
       </c>
       <c r="B286" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C286" t="s">
         <v>611</v>
@@ -6874,7 +6874,7 @@
         <v>280</v>
       </c>
       <c r="B287" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C287" t="s">
         <v>612</v>
@@ -6885,7 +6885,7 @@
         <v>281</v>
       </c>
       <c r="B288" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C288" t="s">
         <v>613</v>
@@ -6896,7 +6896,7 @@
         <v>282</v>
       </c>
       <c r="B289" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C289" t="s">
         <v>614</v>
@@ -6918,7 +6918,7 @@
         <v>284</v>
       </c>
       <c r="B291" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C291" t="s">
         <v>616</v>
@@ -6929,7 +6929,7 @@
         <v>285</v>
       </c>
       <c r="B292" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C292" t="s">
         <v>617</v>
@@ -6940,7 +6940,7 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C293" t="s">
         <v>618</v>
@@ -6951,7 +6951,7 @@
         <v>287</v>
       </c>
       <c r="B294" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C294" t="s">
         <v>619</v>
@@ -6962,7 +6962,7 @@
         <v>288</v>
       </c>
       <c r="B295" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C295" t="s">
         <v>620</v>
@@ -6973,7 +6973,7 @@
         <v>289</v>
       </c>
       <c r="B296" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C296" t="s">
         <v>621</v>
@@ -6984,7 +6984,7 @@
         <v>290</v>
       </c>
       <c r="B297" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C297" t="s">
         <v>622</v>
@@ -6995,7 +6995,7 @@
         <v>291</v>
       </c>
       <c r="B298" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C298" t="s">
         <v>623</v>
@@ -7006,7 +7006,7 @@
         <v>292</v>
       </c>
       <c r="B299" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C299" t="s">
         <v>624</v>
@@ -7017,7 +7017,7 @@
         <v>293</v>
       </c>
       <c r="B300" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C300" t="s">
         <v>625</v>
@@ -7028,7 +7028,7 @@
         <v>294</v>
       </c>
       <c r="B301" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C301" t="s">
         <v>626</v>
@@ -7039,7 +7039,7 @@
         <v>295</v>
       </c>
       <c r="B302" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C302" t="s">
         <v>627</v>
@@ -7050,7 +7050,7 @@
         <v>296</v>
       </c>
       <c r="B303" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C303" t="s">
         <v>628</v>
@@ -7061,7 +7061,7 @@
         <v>297</v>
       </c>
       <c r="B304" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C304" t="s">
         <v>630</v>
@@ -7072,7 +7072,7 @@
         <v>298</v>
       </c>
       <c r="B305" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C305" t="s">
         <v>629</v>
@@ -7083,7 +7083,7 @@
         <v>299</v>
       </c>
       <c r="B306" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C306" t="s">
         <v>631</v>
@@ -7094,7 +7094,7 @@
         <v>300</v>
       </c>
       <c r="B307" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C307" t="s">
         <v>632</v>
@@ -7116,7 +7116,7 @@
         <v>302</v>
       </c>
       <c r="B309" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C309" t="s">
         <v>634</v>
@@ -7127,7 +7127,7 @@
         <v>303</v>
       </c>
       <c r="B310" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C310" t="s">
         <v>635</v>
@@ -7138,7 +7138,7 @@
         <v>304</v>
       </c>
       <c r="B311" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C311" t="s">
         <v>636</v>
@@ -7149,7 +7149,7 @@
         <v>305</v>
       </c>
       <c r="B312" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C312" t="s">
         <v>637</v>
@@ -7160,7 +7160,7 @@
         <v>306</v>
       </c>
       <c r="B313" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C313" t="s">
         <v>638</v>
@@ -7193,7 +7193,7 @@
         <v>309</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C316" t="s">
         <v>641</v>
@@ -7226,7 +7226,7 @@
         <v>312</v>
       </c>
       <c r="B319" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C319" t="s">
         <v>644</v>
@@ -7237,7 +7237,7 @@
         <v>313</v>
       </c>
       <c r="B320" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C320" t="s">
         <v>645</v>
@@ -7248,7 +7248,7 @@
         <v>314</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C321" t="s">
         <v>646</v>
@@ -7281,7 +7281,7 @@
         <v>317</v>
       </c>
       <c r="B324" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C324" t="s">
         <v>649</v>
@@ -7292,7 +7292,7 @@
         <v>318</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C325" t="s">
         <v>650</v>
@@ -7303,7 +7303,7 @@
         <v>319</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C326" t="s">
         <v>651</v>
@@ -7314,7 +7314,7 @@
         <v>320</v>
       </c>
       <c r="B327" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C327" t="s">
         <v>652</v>
@@ -7325,7 +7325,7 @@
         <v>321</v>
       </c>
       <c r="B328" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C328" t="s">
         <v>653</v>
@@ -7336,7 +7336,7 @@
         <v>322</v>
       </c>
       <c r="B329" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C329" t="s">
         <v>654</v>
@@ -7369,7 +7369,7 @@
         <v>325</v>
       </c>
       <c r="B332" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C332" t="s">
         <v>657</v>
@@ -7380,7 +7380,7 @@
         <v>326</v>
       </c>
       <c r="B333" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C333" t="s">
         <v>658</v>
@@ -7402,7 +7402,7 @@
         <v>328</v>
       </c>
       <c r="B335" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C335" t="s">
         <v>660</v>
@@ -7413,7 +7413,7 @@
         <v>329</v>
       </c>
       <c r="B336" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C336" t="s">
         <v>661</v>
@@ -7424,7 +7424,7 @@
         <v>330</v>
       </c>
       <c r="B337" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C337" t="s">
         <v>662</v>
@@ -7435,7 +7435,7 @@
         <v>331</v>
       </c>
       <c r="B338" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C338" t="s">
         <v>663</v>
@@ -7457,7 +7457,7 @@
         <v>333</v>
       </c>
       <c r="B340" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C340" t="s">
         <v>665</v>
@@ -7468,7 +7468,7 @@
         <v>334</v>
       </c>
       <c r="B341" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C341" t="s">
         <v>666</v>
@@ -7479,7 +7479,7 @@
         <v>335</v>
       </c>
       <c r="B342" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C342" t="s">
         <v>667</v>
@@ -7490,7 +7490,7 @@
         <v>336</v>
       </c>
       <c r="B343" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C343" t="s">
         <v>668</v>
@@ -7501,7 +7501,7 @@
         <v>337</v>
       </c>
       <c r="B344" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C344" t="s">
         <v>669</v>
@@ -7512,7 +7512,7 @@
         <v>338</v>
       </c>
       <c r="B345" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C345" t="s">
         <v>670</v>
@@ -7523,7 +7523,7 @@
         <v>339</v>
       </c>
       <c r="B346" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C346" t="s">
         <v>671</v>
@@ -7534,7 +7534,7 @@
         <v>340</v>
       </c>
       <c r="B347" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C347" t="s">
         <v>672</v>
@@ -7545,7 +7545,7 @@
         <v>341</v>
       </c>
       <c r="B348" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C348" t="s">
         <v>673</v>
@@ -7556,7 +7556,7 @@
         <v>342</v>
       </c>
       <c r="B349" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C349" t="s">
         <v>674</v>
@@ -7567,7 +7567,7 @@
         <v>343</v>
       </c>
       <c r="B350" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C350" t="s">
         <v>675</v>
@@ -7578,7 +7578,7 @@
         <v>344</v>
       </c>
       <c r="B351" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C351" t="s">
         <v>676</v>
@@ -7589,7 +7589,7 @@
         <v>345</v>
       </c>
       <c r="B352" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C352" t="s">
         <v>677</v>
@@ -7600,7 +7600,7 @@
         <v>346</v>
       </c>
       <c r="B353" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C353" t="s">
         <v>678</v>
@@ -7611,10 +7611,10 @@
         <v>347</v>
       </c>
       <c r="B354" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C354" t="s">
-        <v>679</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -7622,10 +7622,10 @@
         <v>348</v>
       </c>
       <c r="B355" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C355" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -7633,10 +7633,10 @@
         <v>349</v>
       </c>
       <c r="B356" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C356" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -7644,21 +7644,21 @@
         <v>350</v>
       </c>
       <c r="B357" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C357" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B358" t="s">
         <v>1047</v>
       </c>
-      <c r="B358" t="s">
+      <c r="C358" t="s">
         <v>1048</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -7666,10 +7666,10 @@
         <v>351</v>
       </c>
       <c r="B359" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C359" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>

--- a/Logos.xlsx
+++ b/Logos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1235">
   <si>
     <t>TEAM</t>
   </si>
@@ -3193,6 +3193,537 @@
   </si>
   <si>
     <t>https://a1.espncdn.com/combiner/i?img=%2Fi%2Fteamlogos%2Fncaa%2F500%2F2747.png</t>
+  </si>
+  <si>
+    <t>TeamRankingsName</t>
+  </si>
+  <si>
+    <t>Abl Christian</t>
+  </si>
+  <si>
+    <t>Alab A&amp;M</t>
+  </si>
+  <si>
+    <t>Alabama St</t>
+  </si>
+  <si>
+    <t>Alcorn State</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>AR Lit Rock</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Ark Pine Bl</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>Beth-Cook</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Boston U</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Cal St Nrdge</t>
+  </si>
+  <si>
+    <t>Central Ark</t>
+  </si>
+  <si>
+    <t>Central Conn</t>
+  </si>
+  <si>
+    <t>Central FL</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Charl South</t>
+  </si>
+  <si>
+    <t>Chicago St</t>
+  </si>
+  <si>
+    <t>Citadel</t>
+  </si>
+  <si>
+    <t>Cleveland St</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Col Charlestn</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Coppin State</t>
+  </si>
+  <si>
+    <t>CS Bakersfld</t>
+  </si>
+  <si>
+    <t>CS Fullerton</t>
+  </si>
+  <si>
+    <t>Delaware St</t>
+  </si>
+  <si>
+    <t>Dixie State</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>E Illinois</t>
+  </si>
+  <si>
+    <t>E Kentucky</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>E Tenn St</t>
+  </si>
+  <si>
+    <t>E Washingtn</t>
+  </si>
+  <si>
+    <t>F Dickinson</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Fla Gulf Cst</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>Gard-Webb</t>
+  </si>
+  <si>
+    <t>Geo Mason</t>
+  </si>
+  <si>
+    <t>Geo Wshgtn</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>Grambling St</t>
+  </si>
+  <si>
+    <t>Grd Canyon</t>
+  </si>
+  <si>
+    <t>Houston Bap</t>
+  </si>
+  <si>
+    <t>Idaho State</t>
+  </si>
+  <si>
+    <t>IL-Chicago</t>
+  </si>
+  <si>
+    <t>Illinois St</t>
+  </si>
+  <si>
+    <t>Incar Word</t>
+  </si>
+  <si>
+    <t>Indiana St</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>IPFW</t>
+  </si>
+  <si>
+    <t>Jackson St</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Kennesaw St</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>LA Lafayette</t>
+  </si>
+  <si>
+    <t>LA Monroe</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>Lg Beach St</t>
+  </si>
+  <si>
+    <t>Loyola Mymt</t>
+  </si>
+  <si>
+    <t>Loyola-Chi</t>
+  </si>
+  <si>
+    <t>Loyola-MD</t>
+  </si>
+  <si>
+    <t>Maryland BC</t>
+  </si>
+  <si>
+    <t>Maryland ES</t>
+  </si>
+  <si>
+    <t>Mass Lowell</t>
+  </si>
+  <si>
+    <t>McNeese St</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Miss Val St</t>
+  </si>
+  <si>
+    <t>Missouri St</t>
+  </si>
+  <si>
+    <t>Montana St</t>
+  </si>
+  <si>
+    <t>Morehead St</t>
+  </si>
+  <si>
+    <t>Morgan St</t>
+  </si>
+  <si>
+    <t>Mt St Marys</t>
+  </si>
+  <si>
+    <t>Murray St</t>
+  </si>
+  <si>
+    <t>N Alabama</t>
+  </si>
+  <si>
+    <t>N Arizona</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>N Colorado</t>
+  </si>
+  <si>
+    <t>N Dakota St</t>
+  </si>
+  <si>
+    <t>N Florida</t>
+  </si>
+  <si>
+    <t>N Hampshire</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>N Iowa</t>
+  </si>
+  <si>
+    <t>N Kentucky</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>NC A&amp;T</t>
+  </si>
+  <si>
+    <t>NC Central</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>NC-Asheville</t>
+  </si>
+  <si>
+    <t>NC-Grnsboro</t>
+  </si>
+  <si>
+    <t>NC-Wilmgton</t>
+  </si>
+  <si>
+    <t>Neb Omaha</t>
+  </si>
+  <si>
+    <t>Nicholls St</t>
+  </si>
+  <si>
+    <t>Norfolk St</t>
+  </si>
+  <si>
+    <t>Northeastrn</t>
+  </si>
+  <si>
+    <t>NW State</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>Portland St</t>
+  </si>
+  <si>
+    <t>Prairie View</t>
+  </si>
+  <si>
+    <t>Rob Morris</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>S Car State</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>S Dakota St</t>
+  </si>
+  <si>
+    <t>S Florida</t>
+  </si>
+  <si>
+    <t>S Illinois</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>S Utah</t>
+  </si>
+  <si>
+    <t>Sac State</t>
+  </si>
+  <si>
+    <t>Sacred Hrt</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>San Fransco</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>SC Upstate</t>
+  </si>
+  <si>
+    <t>SE Louisiana</t>
+  </si>
+  <si>
+    <t>SE Missouri</t>
+  </si>
+  <si>
+    <t>SIU Edward</t>
+  </si>
+  <si>
+    <t>St Bonavent</t>
+  </si>
+  <si>
+    <t>St Fran (NY)</t>
+  </si>
+  <si>
+    <t>St Fran (PA)</t>
+  </si>
+  <si>
+    <t>St Johns</t>
+  </si>
+  <si>
+    <t>St Josephs</t>
+  </si>
+  <si>
+    <t>St Marys</t>
+  </si>
+  <si>
+    <t>St Peters</t>
+  </si>
+  <si>
+    <t>Ste F Austin</t>
+  </si>
+  <si>
+    <t>Tarleton State</t>
+  </si>
+  <si>
+    <t>Texas State</t>
+  </si>
+  <si>
+    <t>TN Martin</t>
+  </si>
+  <si>
+    <t>TN State</t>
+  </si>
+  <si>
+    <t>TN Tech</t>
+  </si>
+  <si>
+    <t>TX A&amp;M-CC</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>TX Southern</t>
+  </si>
+  <si>
+    <t>TX-Arlington</t>
+  </si>
+  <si>
+    <t>TX-Pan Am</t>
+  </si>
+  <si>
+    <t>TX-San Ant</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>U Penn</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Utah Val St</t>
+  </si>
+  <si>
+    <t>VA Military</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>W Carolina</t>
+  </si>
+  <si>
+    <t>W Illinois</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Weber State</t>
+  </si>
+  <si>
+    <t>WI-Grn Bay</t>
+  </si>
+  <si>
+    <t>WI-Milwkee</t>
+  </si>
+  <si>
+    <t>Wichita St</t>
+  </si>
+  <si>
+    <t>Wm &amp; Mary</t>
+  </si>
+  <si>
+    <t>Wright State</t>
+  </si>
+  <si>
+    <t>Youngs St</t>
   </si>
 </sst>
 </file>
@@ -3248,8 +3779,494 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="549">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3318,7 +4335,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="549">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3350,6 +4367,249 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3381,6 +4641,249 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3710,31 +5213,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C359"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="C354" sqref="C354"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="D362" sqref="D362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="118.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="118.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1" t="s">
         <v>696</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>689</v>
       </c>
@@ -3742,384 +5248,489 @@
         <v>689</v>
       </c>
       <c r="C2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C3" t="s">
         <v>697</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>698</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>699</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>700</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C7" t="s">
         <v>701</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C8" t="s">
         <v>702</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>703</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C10" t="s">
         <v>704</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>705</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C12" t="s">
         <v>706</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>707</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C14" t="s">
         <v>708</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
         <v>709</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C16" t="s">
         <v>711</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C17" t="s">
         <v>710</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
         <v>713</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
         <v>714</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
         <v>715</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C21" t="s">
         <v>716</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
         <v>717</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
         <v>718</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
         <v>719</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>720</v>
       </c>
       <c r="B25" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C25" t="s">
         <v>721</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
         <v>723</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C27" t="s">
         <v>724</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C28" t="s">
         <v>725</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C29" t="s">
         <v>726</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C30" t="s">
         <v>727</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B31" t="s">
+        <v>729</v>
+      </c>
+      <c r="C31" t="s">
         <v>730</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
         <v>728</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
         <v>732</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
         <v>733</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
         <v>734</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
         <v>735</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -4127,1231 +5738,1567 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
         <v>736</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
         <v>737</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C41" t="s">
         <v>738</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C42" t="s">
         <v>739</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
         <v>740</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
         <v>742</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
         <v>743</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C46" t="s">
         <v>744</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C47" t="s">
         <v>745</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C48" t="s">
         <v>746</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C49" t="s">
         <v>748</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
         <v>749</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
         <v>750</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C52" t="s">
         <v>751</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
         <v>752</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
         <v>754</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C55" t="s">
         <v>755</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C56" t="s">
         <v>756</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
         <v>757</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C58" t="s">
         <v>747</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
         <v>758</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C60" t="s">
         <v>759</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>760</v>
       </c>
       <c r="B61" t="s">
+        <v>760</v>
+      </c>
+      <c r="C61" t="s">
         <v>761</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C63" t="s">
         <v>763</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>764</v>
       </c>
       <c r="B64" t="s">
+        <v>764</v>
+      </c>
+      <c r="C64" t="s">
         <v>765</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
         <v>767</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>768</v>
       </c>
       <c r="B66" t="s">
+        <v>768</v>
+      </c>
+      <c r="C66" t="s">
         <v>769</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
         <v>771</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
         <v>772</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
         <v>773</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B70" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C70" t="s">
         <v>774</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
         <v>775</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
         <v>776</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
         <v>777</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B74" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C74" t="s">
         <v>778</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
         <v>779</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
         <v>780</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
         <v>781</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
         <v>782</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B79" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C79" t="s">
         <v>783</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B80" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C80" t="s">
         <v>784</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B81" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C81" t="s">
         <v>785</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B82" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C82" t="s">
         <v>786</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B83" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C83" t="s">
         <v>787</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B84" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C84" t="s">
         <v>788</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
         <v>789</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
         <v>790</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
         <v>791</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B88" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C88" t="s">
         <v>792</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B89" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C89" t="s">
         <v>86</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B90" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
         <v>793</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" t="s">
         <v>794</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B92" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C92" t="s">
         <v>795</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B93" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C93" t="s">
         <v>796</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B94" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C94" t="s">
         <v>797</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
         <v>798</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B97" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C97" t="s">
         <v>799</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
         <v>800</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B99" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C99" t="s">
         <v>801</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B100" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C100" t="s">
         <v>802</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B101" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C101" t="s">
         <v>803</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B102" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
         <v>804</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
         <v>805</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B104" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C104" t="s">
         <v>806</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B105" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C105" t="s">
         <v>807</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B106" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C106" t="s">
         <v>808</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
         <v>809</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B108" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C108" t="s">
         <v>810</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B109" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C109" t="s">
         <v>811</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B110" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C110" t="s">
         <v>812</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B112" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" t="s">
         <v>814</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>815</v>
       </c>
       <c r="B113" t="s">
+        <v>815</v>
+      </c>
+      <c r="C113" t="s">
         <v>817</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" t="s">
         <v>818</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B115" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" t="s">
         <v>819</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B116" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" t="s">
         <v>820</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B117" t="s">
+        <v>113</v>
+      </c>
+      <c r="C117" t="s">
         <v>821</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B118" t="s">
+        <v>114</v>
+      </c>
+      <c r="C118" t="s">
         <v>822</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B119" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C119" t="s">
         <v>823</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B120" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" t="s">
         <v>824</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B121" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" t="s">
         <v>825</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B122" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C122" t="s">
         <v>826</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" t="s">
         <v>827</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B124" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C124" t="s">
         <v>828</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B125" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C125" t="s">
         <v>829</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B126" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C126" t="s">
         <v>830</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B127" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" t="s">
         <v>831</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B128" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C128" t="s">
         <v>832</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" t="s">
         <v>833</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B130" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" t="s">
         <v>834</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B131" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C131" t="s">
         <v>835</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B132" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" t="s">
         <v>836</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B133" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C133" t="s">
         <v>837</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B134" t="s">
+        <v>130</v>
+      </c>
+      <c r="C134" t="s">
         <v>838</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B135" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C135" t="s">
         <v>839</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C136" t="s">
         <v>840</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B137" t="s">
+        <v>133</v>
+      </c>
+      <c r="C137" t="s">
         <v>841</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B138" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C138" t="s">
         <v>842</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B139" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C139" t="s">
         <v>843</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B140" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C140" t="s">
         <v>844</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B141" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141" t="s">
         <v>845</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B142" t="s">
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
         <v>846</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B143" t="s">
+        <v>139</v>
+      </c>
+      <c r="C143" t="s">
         <v>847</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B144" t="s">
+        <v>140</v>
+      </c>
+      <c r="C144" t="s">
         <v>848</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B145" t="s">
+        <v>141</v>
+      </c>
+      <c r="C145" t="s">
         <v>849</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B146" t="s">
+        <v>142</v>
+      </c>
+      <c r="C146" t="s">
         <v>850</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B147" t="s">
+        <v>143</v>
+      </c>
+      <c r="C147" t="s">
         <v>851</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B148" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C148" t="s">
         <v>712</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
         <v>145</v>
       </c>
@@ -5359,109 +7306,139 @@
         <v>852</v>
       </c>
       <c r="C149" t="s">
+        <v>852</v>
+      </c>
+      <c r="D149" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B150" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C150" t="s">
         <v>853</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B151" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" t="s">
         <v>854</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B152" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C152" t="s">
         <v>856</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B153" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C153" t="s">
         <v>857</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B154" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C154" t="s">
         <v>855</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B155" t="s">
+        <v>151</v>
+      </c>
+      <c r="C155" t="s">
         <v>858</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B156" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C156" t="s">
         <v>859</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B157" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C157" t="s">
         <v>860</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B158" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C158" t="s">
         <v>861</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
         <v>155</v>
       </c>
@@ -5469,1638 +7446,2085 @@
         <v>155</v>
       </c>
       <c r="C159" t="s">
+        <v>155</v>
+      </c>
+      <c r="D159" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B160" t="s">
+        <v>156</v>
+      </c>
+      <c r="C160" t="s">
         <v>862</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B161" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" t="s">
         <v>863</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B162" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" t="s">
         <v>864</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B163" t="s">
+        <v>159</v>
+      </c>
+      <c r="C163" t="s">
         <v>865</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B164" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" t="s">
         <v>866</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B165" t="s">
+        <v>161</v>
+      </c>
+      <c r="C165" t="s">
         <v>867</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B167" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C167" t="s">
         <v>868</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B168" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C168" t="s">
         <v>869</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B169" t="s">
+        <v>164</v>
+      </c>
+      <c r="C169" t="s">
         <v>870</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B170" t="s">
+        <v>165</v>
+      </c>
+      <c r="C170" t="s">
         <v>871</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B171" t="s">
+        <v>166</v>
+      </c>
+      <c r="C171" t="s">
         <v>872</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B172" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C172" t="s">
         <v>873</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B173" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C173" t="s">
         <v>874</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B174" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" t="s">
         <v>875</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B175" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C175" t="s">
         <v>876</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B176" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C176" t="s">
         <v>877</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B177" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C177" t="s">
         <v>878</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B178" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" t="s">
         <v>879</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B179" t="s">
+        <v>174</v>
+      </c>
+      <c r="C179" t="s">
         <v>926</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B180" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C180" t="s">
         <v>880</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B181" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C181" t="s">
         <v>881</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B182" t="s">
+        <v>177</v>
+      </c>
+      <c r="C182" t="s">
         <v>882</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B183" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C183" t="s">
         <v>883</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B184" t="s">
+        <v>179</v>
+      </c>
+      <c r="C184" t="s">
         <v>884</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B185" t="s">
+        <v>180</v>
+      </c>
+      <c r="C185" t="s">
         <v>885</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B186" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C186" t="s">
         <v>886</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B187" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C187" t="s">
         <v>887</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B188" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C188" t="s">
         <v>888</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B189" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C189" t="s">
         <v>889</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B190" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C190" t="s">
         <v>890</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B191" t="s">
+        <v>186</v>
+      </c>
+      <c r="C191" t="s">
         <v>891</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B192" t="s">
+        <v>187</v>
+      </c>
+      <c r="C192" t="s">
         <v>892</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B193" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C193" t="s">
         <v>893</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B194" t="s">
+        <v>189</v>
+      </c>
+      <c r="C194" t="s">
         <v>894</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B195" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C195" t="s">
         <v>895</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B196" t="s">
+        <v>191</v>
+      </c>
+      <c r="C196" t="s">
         <v>896</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B197" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C197" t="s">
         <v>897</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B198" t="s">
+        <v>193</v>
+      </c>
+      <c r="C198" t="s">
         <v>898</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B199" t="s">
+        <v>194</v>
+      </c>
+      <c r="C199" t="s">
         <v>899</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B200" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C200" t="s">
         <v>900</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" t="s">
         <v>196</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D201" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B202" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C202" t="s">
         <v>901</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B203" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C203" t="s">
         <v>902</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B204" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C204" t="s">
         <v>903</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B205" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C205" t="s">
         <v>904</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B206" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C206" t="s">
         <v>905</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B207" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C207" t="s">
         <v>906</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B208" t="s">
+        <v>203</v>
+      </c>
+      <c r="C208" t="s">
         <v>907</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B209" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C209" t="s">
         <v>908</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B210" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C210" t="s">
         <v>909</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B211" t="s">
+        <v>206</v>
+      </c>
+      <c r="C211" t="s">
         <v>910</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B212" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C212" t="s">
         <v>911</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B213" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C213" t="s">
         <v>912</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B214" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C214" t="s">
         <v>913</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B215" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C215" t="s">
         <v>914</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B216" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C216" t="s">
         <v>915</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B217" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C217" t="s">
         <v>916</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B218" t="s">
+        <v>213</v>
+      </c>
+      <c r="C218" t="s">
         <v>917</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B219" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C219" t="s">
         <v>918</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B220" t="s">
+        <v>215</v>
+      </c>
+      <c r="C220" t="s">
         <v>919</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C221" t="s">
         <v>920</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B222" t="s">
+        <v>217</v>
+      </c>
+      <c r="C222" t="s">
         <v>921</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B223" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C223" t="s">
         <v>922</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B224" t="s">
+        <v>219</v>
+      </c>
+      <c r="C224" t="s">
         <v>923</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:4">
       <c r="A225" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B225" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C225" t="s">
         <v>924</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:4">
       <c r="A226" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B226" t="s">
+        <v>221</v>
+      </c>
+      <c r="C226" t="s">
         <v>925</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:4">
       <c r="A227" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B227" t="s">
+        <v>222</v>
+      </c>
+      <c r="C227" t="s">
         <v>927</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B228" t="s">
+        <v>223</v>
+      </c>
+      <c r="C228" t="s">
         <v>928</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:4">
       <c r="A229" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B229" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C229" t="s">
         <v>929</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:4">
       <c r="A230" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B230" t="s">
+        <v>225</v>
+      </c>
+      <c r="C230" t="s">
         <v>930</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:4">
       <c r="A231" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B231" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C231" t="s">
         <v>931</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
         <v>934</v>
       </c>
       <c r="B232" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C232" t="s">
         <v>933</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:4">
       <c r="A233" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B233" t="s">
+        <v>227</v>
+      </c>
+      <c r="C233" t="s">
         <v>935</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:4">
       <c r="A234" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B234" t="s">
+        <v>228</v>
+      </c>
+      <c r="C234" t="s">
         <v>936</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:4">
       <c r="A235" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B235" t="s">
+        <v>229</v>
+      </c>
+      <c r="C235" t="s">
         <v>937</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:4">
       <c r="A236" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B236" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C236" t="s">
         <v>938</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:4">
       <c r="A237" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B237" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C237" t="s">
         <v>939</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:4">
       <c r="A238" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B238" t="s">
+        <v>232</v>
+      </c>
+      <c r="C238" t="s">
         <v>940</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:4">
       <c r="A239" s="1" t="s">
         <v>941</v>
       </c>
       <c r="B239" t="s">
+        <v>941</v>
+      </c>
+      <c r="C239" t="s">
         <v>943</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:4">
       <c r="A240" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B240" t="s">
+        <v>233</v>
+      </c>
+      <c r="C240" t="s">
         <v>944</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B241" t="s">
+        <v>234</v>
+      </c>
+      <c r="C241" t="s">
         <v>945</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:4">
       <c r="A242" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B242" t="s">
+        <v>235</v>
+      </c>
+      <c r="C242" t="s">
         <v>946</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B243" t="s">
+        <v>236</v>
+      </c>
+      <c r="C243" t="s">
         <v>947</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:4">
       <c r="A244" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B244" t="s">
+        <v>237</v>
+      </c>
+      <c r="C244" t="s">
         <v>948</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:4">
       <c r="A245" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B245" t="s">
+        <v>238</v>
+      </c>
+      <c r="C245" t="s">
         <v>949</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B246" t="s">
+        <v>239</v>
+      </c>
+      <c r="C246" t="s">
         <v>950</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:4">
       <c r="A247" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B247" t="s">
+        <v>240</v>
+      </c>
+      <c r="C247" t="s">
         <v>951</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:4">
       <c r="A248" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:4">
       <c r="A249" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B249" t="s">
+        <v>242</v>
+      </c>
+      <c r="C249" t="s">
         <v>952</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:4">
       <c r="A250" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B250" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C250" t="s">
         <v>953</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:4">
       <c r="A251" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B251" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C251" t="s">
         <v>954</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:4">
       <c r="A252" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B252" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C252" t="s">
         <v>955</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:4">
       <c r="A253" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B253" t="s">
+        <v>246</v>
+      </c>
+      <c r="C253" t="s">
         <v>956</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B254" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C254" t="s">
         <v>957</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:4">
       <c r="A255" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B255" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C255" t="s">
         <v>985</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:4">
       <c r="A256" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B256" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C256" t="s">
         <v>958</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B257" t="s">
+        <v>250</v>
+      </c>
+      <c r="C257" t="s">
         <v>959</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B258" t="s">
+        <v>251</v>
+      </c>
+      <c r="C258" t="s">
         <v>960</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B259" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C259" t="s">
         <v>961</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B260" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C260" t="s">
         <v>962</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B261" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C261" t="s">
         <v>963</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B262" t="s">
+        <v>255</v>
+      </c>
+      <c r="C262" t="s">
         <v>964</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B263" t="s">
+        <v>256</v>
+      </c>
+      <c r="C263" t="s">
         <v>965</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B264" t="s">
+        <v>257</v>
+      </c>
+      <c r="C264" t="s">
         <v>966</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B265" t="s">
+        <v>258</v>
+      </c>
+      <c r="C265" t="s">
         <v>967</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B266" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C266" t="s">
         <v>968</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B267" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C267" t="s">
         <v>260</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B268" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C268" t="s">
         <v>969</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B269" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C269" t="s">
         <v>970</v>
       </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B270" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C270" t="s">
         <v>971</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C271" t="s">
         <v>972</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B272" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C272" t="s">
         <v>973</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B273" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C273" t="s">
         <v>974</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B274" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C274" t="s">
         <v>975</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B275" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C275" t="s">
         <v>976</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B276" t="s">
+        <v>269</v>
+      </c>
+      <c r="C276" t="s">
         <v>979</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B277" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C277" t="s">
         <v>977</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B278" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C278" t="s">
         <v>978</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B279" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C279" t="s">
         <v>980</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B280" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C280" t="s">
         <v>981</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B281" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C281" t="s">
         <v>982</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B282" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C282" t="s">
         <v>983</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B283" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C283" t="s">
         <v>984</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B284" t="s">
+        <v>277</v>
+      </c>
+      <c r="C284" t="s">
         <v>986</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B285" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C285" t="s">
         <v>987</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B286" t="s">
+        <v>279</v>
+      </c>
+      <c r="C286" t="s">
         <v>988</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B287" t="s">
+        <v>280</v>
+      </c>
+      <c r="C287" t="s">
         <v>989</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B288" t="s">
+        <v>281</v>
+      </c>
+      <c r="C288" t="s">
         <v>990</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B289" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C289" t="s">
         <v>991</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B290" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C290" t="s">
         <v>283</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B291" t="s">
+        <v>284</v>
+      </c>
+      <c r="C291" t="s">
         <v>992</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B292" t="s">
+        <v>285</v>
+      </c>
+      <c r="C292" t="s">
         <v>993</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B293" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C293" t="s">
         <v>996</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B294" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C294" t="s">
         <v>994</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B295" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C295" t="s">
         <v>995</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B296" t="s">
+        <v>289</v>
+      </c>
+      <c r="C296" t="s">
         <v>997</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B297" t="s">
+        <v>290</v>
+      </c>
+      <c r="C297" t="s">
         <v>998</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B298" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C298" t="s">
         <v>999</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B299" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C299" t="s">
         <v>1000</v>
       </c>
-      <c r="C299" t="s">
+      <c r="D299" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B300" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C300" t="s">
         <v>1001</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B301" t="s">
+        <v>294</v>
+      </c>
+      <c r="C301" t="s">
         <v>1002</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B302" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C302" t="s">
         <v>753</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B303" t="s">
+        <v>296</v>
+      </c>
+      <c r="C303" t="s">
         <v>1003</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B304" t="s">
+        <v>297</v>
+      </c>
+      <c r="C304" t="s">
         <v>1004</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B305" t="s">
+        <v>298</v>
+      </c>
+      <c r="C305" t="s">
         <v>1005</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B306" t="s">
+        <v>299</v>
+      </c>
+      <c r="C306" t="s">
         <v>1006</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B307" t="s">
+        <v>300</v>
+      </c>
+      <c r="C307" t="s">
         <v>1007</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
         <v>301</v>
       </c>
@@ -7108,54 +9532,69 @@
         <v>301</v>
       </c>
       <c r="C308" t="s">
+        <v>301</v>
+      </c>
+      <c r="D308" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B309" t="s">
+        <v>302</v>
+      </c>
+      <c r="C309" t="s">
         <v>1008</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B310" t="s">
+        <v>303</v>
+      </c>
+      <c r="C310" t="s">
         <v>1009</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B311" t="s">
+        <v>304</v>
+      </c>
+      <c r="C311" t="s">
         <v>1010</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B312" t="s">
+        <v>305</v>
+      </c>
+      <c r="C312" t="s">
         <v>1011</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
         <v>306</v>
       </c>
@@ -7163,21 +9602,27 @@
         <v>1012</v>
       </c>
       <c r="C313" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D313" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B314" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C314" t="s">
         <v>307</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
         <v>308</v>
       </c>
@@ -7185,76 +9630,97 @@
         <v>308</v>
       </c>
       <c r="C315" t="s">
+        <v>308</v>
+      </c>
+      <c r="D315" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B316" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C316" t="s">
+      <c r="D316" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B317" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C317" t="s">
         <v>310</v>
       </c>
-      <c r="C317" t="s">
+      <c r="D317" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" t="s">
         <v>311</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D318" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B319" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C319" t="s">
         <v>1013</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B320" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C320" t="s">
         <v>1014</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
         <v>315</v>
       </c>
@@ -7262,10 +9728,13 @@
         <v>315</v>
       </c>
       <c r="C322" t="s">
+        <v>315</v>
+      </c>
+      <c r="D322" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
         <v>316</v>
       </c>
@@ -7273,120 +9742,153 @@
         <v>316</v>
       </c>
       <c r="C323" t="s">
+        <v>316</v>
+      </c>
+      <c r="D323" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B324" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C324" t="s">
         <v>1015</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B327" t="s">
+        <v>320</v>
+      </c>
+      <c r="C327" t="s">
         <v>1016</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B328" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C328" t="s">
         <v>1019</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B329" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C329" t="s">
         <v>1020</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B330" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C330" t="s">
         <v>323</v>
       </c>
-      <c r="C330" t="s">
+      <c r="D330" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B331" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C331" t="s">
         <v>324</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B332" t="s">
+        <v>325</v>
+      </c>
+      <c r="C332" t="s">
         <v>1021</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B333" t="s">
+        <v>326</v>
+      </c>
+      <c r="C333" t="s">
         <v>1022</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
         <v>327</v>
       </c>
@@ -7394,281 +9896,359 @@
         <v>327</v>
       </c>
       <c r="C334" t="s">
+        <v>327</v>
+      </c>
+      <c r="D334" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B335" t="s">
+        <v>328</v>
+      </c>
+      <c r="C335" t="s">
         <v>1023</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B336" t="s">
+        <v>329</v>
+      </c>
+      <c r="C336" t="s">
         <v>1024</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B337" t="s">
+        <v>330</v>
+      </c>
+      <c r="C337" t="s">
         <v>1025</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B338" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C338" t="s">
         <v>1026</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B339" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C339" t="s">
         <v>332</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B340" t="s">
+        <v>333</v>
+      </c>
+      <c r="C340" t="s">
         <v>1027</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B341" t="s">
+        <v>334</v>
+      </c>
+      <c r="C341" t="s">
         <v>1028</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B342" t="s">
+        <v>335</v>
+      </c>
+      <c r="C342" t="s">
         <v>1029</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B343" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C343" t="s">
         <v>1030</v>
       </c>
-      <c r="C343" t="s">
+      <c r="D343" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B344" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C344" t="s">
         <v>1031</v>
       </c>
-      <c r="C344" t="s">
+      <c r="D344" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B345" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C345" t="s">
         <v>1032</v>
       </c>
-      <c r="C345" t="s">
+      <c r="D345" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B346" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C346" t="s">
         <v>1033</v>
       </c>
-      <c r="C346" t="s">
+      <c r="D346" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B347" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C347" t="s">
         <v>1034</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B348" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C348" t="s">
         <v>1035</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B349" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C349" t="s">
         <v>1036</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B350" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C350" t="s">
         <v>1037</v>
       </c>
-      <c r="C350" t="s">
+      <c r="D350" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C351" t="s">
         <v>1038</v>
       </c>
-      <c r="C351" t="s">
+      <c r="D351" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B352" t="s">
+        <v>345</v>
+      </c>
+      <c r="C352" t="s">
         <v>1039</v>
       </c>
-      <c r="C352" t="s">
+      <c r="D352" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B353" t="s">
+        <v>346</v>
+      </c>
+      <c r="C353" t="s">
         <v>1040</v>
       </c>
-      <c r="C353" t="s">
+      <c r="D353" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B354" t="s">
+        <v>347</v>
+      </c>
+      <c r="C354" t="s">
         <v>1041</v>
       </c>
-      <c r="C354" t="s">
+      <c r="D354" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B355" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C355" t="s">
         <v>1042</v>
       </c>
-      <c r="C355" t="s">
+      <c r="D355" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B356" t="s">
+        <v>349</v>
+      </c>
+      <c r="C356" t="s">
         <v>1043</v>
       </c>
-      <c r="C356" t="s">
+      <c r="D356" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:4">
       <c r="A357" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B357" t="s">
+        <v>350</v>
+      </c>
+      <c r="C357" t="s">
         <v>1044</v>
       </c>
-      <c r="C357" t="s">
+      <c r="D357" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="B358" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C358" t="s">
         <v>1047</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B359" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C359" t="s">
         <v>1045</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
         <v>682</v>
       </c>
     </row>

--- a/Logos.xlsx
+++ b/Logos.xlsx
@@ -1134,9 +1134,6 @@
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/d/d8/Binghamton_Bearcats_logo.svg/1200px-Binghamton_Bearcats_logo.svg.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/61/Boise_State_%22B%22_logo.svg/1200px-Boise_State_%22B%22_logo.svg.png</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/9/96/Boston_College_Eagles_logo.svg/1200px-Boston_College_Eagles_logo.svg.png</t>
   </si>
   <si>
@@ -3724,6 +3721,9 @@
   </si>
   <si>
     <t>Youngs St</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/4/40/Boise_State_Broncos_logo.svg/1200px-Boise_State_Broncos_logo.svg.png</t>
   </si>
 </sst>
 </file>
@@ -5215,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="D362" sqref="D362"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5231,10 +5231,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -5242,16 +5242,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5259,10 +5259,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -5276,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -5290,7 +5290,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -5304,7 +5304,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D6" t="s">
         <v>352</v>
@@ -5315,10 +5315,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D7" t="s">
         <v>353</v>
@@ -5329,10 +5329,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D8" t="s">
         <v>354</v>
@@ -5346,7 +5346,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D9" t="s">
         <v>355</v>
@@ -5357,10 +5357,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D10" t="s">
         <v>356</v>
@@ -5374,7 +5374,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D11" t="s">
         <v>357</v>
@@ -5385,10 +5385,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D12" t="s">
         <v>358</v>
@@ -5402,7 +5402,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D13" t="s">
         <v>359</v>
@@ -5413,10 +5413,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D14" t="s">
         <v>360</v>
@@ -5430,7 +5430,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D15" t="s">
         <v>361</v>
@@ -5441,10 +5441,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D16" t="s">
         <v>362</v>
@@ -5455,13 +5455,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5472,7 +5472,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D18" t="s">
         <v>363</v>
@@ -5486,7 +5486,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D19" t="s">
         <v>364</v>
@@ -5500,7 +5500,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D20" t="s">
         <v>365</v>
@@ -5511,10 +5511,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D21" t="s">
         <v>366</v>
@@ -5528,7 +5528,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D22" t="s">
         <v>367</v>
@@ -5542,7 +5542,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D23" t="s">
         <v>368</v>
@@ -5556,7 +5556,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D24" t="s">
         <v>369</v>
@@ -5564,16 +5564,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C25" t="s">
         <v>720</v>
       </c>
-      <c r="B25" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>721</v>
-      </c>
-      <c r="D25" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5584,7 +5584,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D26" t="s">
         <v>370</v>
@@ -5595,13 +5595,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D27" t="s">
-        <v>371</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5609,13 +5609,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5623,13 +5623,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C29" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5637,27 +5637,27 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B31" t="s">
+        <v>728</v>
+      </c>
+      <c r="C31" t="s">
         <v>729</v>
       </c>
-      <c r="B31" t="s">
-        <v>729</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>730</v>
-      </c>
-      <c r="D31" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5668,10 +5668,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5682,10 +5682,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5696,10 +5696,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5710,10 +5710,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5724,10 +5724,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5741,7 +5741,7 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5752,10 +5752,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5766,10 +5766,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5777,13 +5777,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5791,13 +5791,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C41" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5805,13 +5805,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5822,10 +5822,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5836,10 +5836,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5850,10 +5850,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5861,13 +5861,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5875,13 +5875,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5889,13 +5889,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5903,13 +5903,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C49" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5920,10 +5920,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5934,10 +5934,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5945,13 +5945,13 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C52" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D52" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5962,10 +5962,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D53" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5976,10 +5976,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5987,13 +5987,13 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6001,13 +6001,13 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C56" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6018,10 +6018,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6029,13 +6029,13 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C58" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6046,10 +6046,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D59" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6057,27 +6057,27 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C60" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B61" t="s">
+        <v>759</v>
+      </c>
+      <c r="C61" t="s">
         <v>760</v>
       </c>
-      <c r="B61" t="s">
-        <v>760</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>761</v>
-      </c>
-      <c r="D61" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6088,10 +6088,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6099,27 +6099,27 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C63" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B64" t="s">
+        <v>763</v>
+      </c>
+      <c r="C64" t="s">
         <v>764</v>
       </c>
-      <c r="B64" t="s">
-        <v>764</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>765</v>
-      </c>
-      <c r="D64" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6130,24 +6130,24 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B66" t="s">
+        <v>767</v>
+      </c>
+      <c r="C66" t="s">
         <v>768</v>
       </c>
-      <c r="B66" t="s">
-        <v>768</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>769</v>
-      </c>
-      <c r="D66" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6158,10 +6158,10 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6172,10 +6172,10 @@
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D68" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6186,10 +6186,10 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6197,13 +6197,13 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C70" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6214,10 +6214,10 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6228,10 +6228,10 @@
         <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D72" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6242,10 +6242,10 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D73" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6253,13 +6253,13 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C74" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D74" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6270,10 +6270,10 @@
         <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6284,10 +6284,10 @@
         <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D76" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6298,10 +6298,10 @@
         <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -6312,10 +6312,10 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -6323,13 +6323,13 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C79" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D79" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -6337,13 +6337,13 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C80" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D80" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6351,13 +6351,13 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C81" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D81" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6365,13 +6365,13 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C82" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6379,13 +6379,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C83" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -6393,13 +6393,13 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C84" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -6410,10 +6410,10 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D85" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -6424,10 +6424,10 @@
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D86" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -6438,10 +6438,10 @@
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6449,13 +6449,13 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C88" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -6463,13 +6463,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C89" t="s">
         <v>86</v>
       </c>
       <c r="D89" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6480,10 +6480,10 @@
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D90" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -6494,10 +6494,10 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D91" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6505,13 +6505,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C92" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D92" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -6519,13 +6519,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C93" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D93" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -6533,13 +6533,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C94" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D94" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -6550,10 +6550,10 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D95" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -6561,13 +6561,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D96" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6575,13 +6575,13 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C97" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D97" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6592,10 +6592,10 @@
         <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6603,13 +6603,13 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C99" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D99" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6617,13 +6617,13 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C100" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D100" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -6631,13 +6631,13 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C101" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D101" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6648,10 +6648,10 @@
         <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D102" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -6662,10 +6662,10 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -6673,13 +6673,13 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C104" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D104" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6687,13 +6687,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C105" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6701,13 +6701,13 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C106" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D106" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6718,10 +6718,10 @@
         <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -6729,13 +6729,13 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C108" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D108" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6743,13 +6743,13 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C109" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D109" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -6757,13 +6757,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C110" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D110" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6774,10 +6774,10 @@
         <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D111" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -6788,24 +6788,24 @@
         <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D112" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B113" t="s">
+        <v>814</v>
+      </c>
+      <c r="C113" t="s">
+        <v>816</v>
+      </c>
+      <c r="D113" t="s">
         <v>815</v>
-      </c>
-      <c r="B113" t="s">
-        <v>815</v>
-      </c>
-      <c r="C113" t="s">
-        <v>817</v>
-      </c>
-      <c r="D113" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6816,10 +6816,10 @@
         <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D114" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -6830,10 +6830,10 @@
         <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D115" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6844,10 +6844,10 @@
         <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D116" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6858,10 +6858,10 @@
         <v>113</v>
       </c>
       <c r="C117" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D117" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6872,10 +6872,10 @@
         <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6883,13 +6883,13 @@
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C119" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D119" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6900,10 +6900,10 @@
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D120" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6914,10 +6914,10 @@
         <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D121" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -6925,13 +6925,13 @@
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C122" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D122" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6942,10 +6942,10 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D123" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6953,13 +6953,13 @@
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C124" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D124" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6967,13 +6967,13 @@
         <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C125" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D125" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6981,13 +6981,13 @@
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C126" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6998,10 +6998,10 @@
         <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D127" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -7009,13 +7009,13 @@
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C128" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D128" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -7026,10 +7026,10 @@
         <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D129" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -7040,10 +7040,10 @@
         <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D130" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -7051,13 +7051,13 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C131" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D131" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -7068,10 +7068,10 @@
         <v>128</v>
       </c>
       <c r="C132" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D132" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -7079,13 +7079,13 @@
         <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C133" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D133" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -7096,10 +7096,10 @@
         <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D134" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -7107,13 +7107,13 @@
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C135" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D135" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7121,13 +7121,13 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C136" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D136" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -7138,10 +7138,10 @@
         <v>133</v>
       </c>
       <c r="C137" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D137" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -7149,13 +7149,13 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C138" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -7163,13 +7163,13 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C139" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D139" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -7177,13 +7177,13 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C140" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D140" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -7194,10 +7194,10 @@
         <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D141" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -7208,10 +7208,10 @@
         <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D142" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -7222,10 +7222,10 @@
         <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D143" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -7236,10 +7236,10 @@
         <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D144" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -7250,10 +7250,10 @@
         <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D145" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -7264,10 +7264,10 @@
         <v>142</v>
       </c>
       <c r="C146" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D146" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -7278,10 +7278,10 @@
         <v>143</v>
       </c>
       <c r="C147" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D147" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -7289,13 +7289,13 @@
         <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C148" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D148" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -7303,13 +7303,13 @@
         <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C149" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D149" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -7317,13 +7317,13 @@
         <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C150" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D150" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -7334,10 +7334,10 @@
         <v>147</v>
       </c>
       <c r="C151" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D151" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -7345,13 +7345,13 @@
         <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C152" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D152" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -7359,13 +7359,13 @@
         <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C153" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D153" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -7373,13 +7373,13 @@
         <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C154" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D154" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -7390,10 +7390,10 @@
         <v>151</v>
       </c>
       <c r="C155" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D155" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -7401,13 +7401,13 @@
         <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C156" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D156" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -7415,13 +7415,13 @@
         <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C157" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D157" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -7429,13 +7429,13 @@
         <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C158" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D158" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -7449,7 +7449,7 @@
         <v>155</v>
       </c>
       <c r="D159" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -7460,10 +7460,10 @@
         <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D160" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7474,10 +7474,10 @@
         <v>157</v>
       </c>
       <c r="C161" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D161" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7488,10 +7488,10 @@
         <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D162" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7502,10 +7502,10 @@
         <v>159</v>
       </c>
       <c r="C163" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D163" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7516,10 +7516,10 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D164" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -7530,24 +7530,24 @@
         <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D165" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="B166" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" t="s">
         <v>1055</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7555,13 +7555,13 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C167" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D167" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7569,13 +7569,13 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C168" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D168" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -7586,10 +7586,10 @@
         <v>164</v>
       </c>
       <c r="C169" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D169" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -7600,10 +7600,10 @@
         <v>165</v>
       </c>
       <c r="C170" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D170" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -7614,10 +7614,10 @@
         <v>166</v>
       </c>
       <c r="C171" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D171" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -7625,13 +7625,13 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C172" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D172" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -7639,13 +7639,13 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C173" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D173" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -7656,10 +7656,10 @@
         <v>169</v>
       </c>
       <c r="C174" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D174" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7667,13 +7667,13 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C175" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D175" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -7681,13 +7681,13 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C176" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D176" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -7695,13 +7695,13 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C177" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D177" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -7712,10 +7712,10 @@
         <v>173</v>
       </c>
       <c r="C178" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D178" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -7726,10 +7726,10 @@
         <v>174</v>
       </c>
       <c r="C179" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D179" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -7737,13 +7737,13 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C180" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D180" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -7751,13 +7751,13 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C181" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D181" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7768,10 +7768,10 @@
         <v>177</v>
       </c>
       <c r="C182" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D182" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -7779,13 +7779,13 @@
         <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C183" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D183" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -7796,10 +7796,10 @@
         <v>179</v>
       </c>
       <c r="C184" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D184" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -7810,10 +7810,10 @@
         <v>180</v>
       </c>
       <c r="C185" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D185" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -7821,13 +7821,13 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C186" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D186" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -7835,13 +7835,13 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C187" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D187" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -7849,13 +7849,13 @@
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C188" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D188" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -7863,13 +7863,13 @@
         <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C189" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D189" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -7877,13 +7877,13 @@
         <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C190" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D190" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -7894,10 +7894,10 @@
         <v>186</v>
       </c>
       <c r="C191" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D191" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -7908,10 +7908,10 @@
         <v>187</v>
       </c>
       <c r="C192" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D192" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -7919,13 +7919,13 @@
         <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C193" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D193" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -7936,10 +7936,10 @@
         <v>189</v>
       </c>
       <c r="C194" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D194" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -7947,13 +7947,13 @@
         <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C195" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D195" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -7964,10 +7964,10 @@
         <v>191</v>
       </c>
       <c r="C196" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D196" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -7975,13 +7975,13 @@
         <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C197" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D197" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -7992,10 +7992,10 @@
         <v>193</v>
       </c>
       <c r="C198" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D198" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -8006,10 +8006,10 @@
         <v>194</v>
       </c>
       <c r="C199" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D199" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -8017,13 +8017,13 @@
         <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C200" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D200" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -8037,7 +8037,7 @@
         <v>196</v>
       </c>
       <c r="D201" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -8045,13 +8045,13 @@
         <v>197</v>
       </c>
       <c r="B202" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C202" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D202" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -8059,13 +8059,13 @@
         <v>198</v>
       </c>
       <c r="B203" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C203" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D203" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -8073,13 +8073,13 @@
         <v>199</v>
       </c>
       <c r="B204" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C204" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D204" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -8087,13 +8087,13 @@
         <v>200</v>
       </c>
       <c r="B205" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C205" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D205" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -8101,13 +8101,13 @@
         <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C206" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D206" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -8115,13 +8115,13 @@
         <v>202</v>
       </c>
       <c r="B207" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C207" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D207" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -8132,10 +8132,10 @@
         <v>203</v>
       </c>
       <c r="C208" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D208" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -8143,13 +8143,13 @@
         <v>204</v>
       </c>
       <c r="B209" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C209" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D209" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -8157,13 +8157,13 @@
         <v>205</v>
       </c>
       <c r="B210" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C210" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D210" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -8174,10 +8174,10 @@
         <v>206</v>
       </c>
       <c r="C211" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D211" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -8185,13 +8185,13 @@
         <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C212" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D212" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -8199,13 +8199,13 @@
         <v>208</v>
       </c>
       <c r="B213" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C213" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D213" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -8213,13 +8213,13 @@
         <v>209</v>
       </c>
       <c r="B214" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C214" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D214" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -8227,13 +8227,13 @@
         <v>210</v>
       </c>
       <c r="B215" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C215" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D215" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -8241,13 +8241,13 @@
         <v>211</v>
       </c>
       <c r="B216" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C216" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D216" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -8255,13 +8255,13 @@
         <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C217" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D217" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -8272,10 +8272,10 @@
         <v>213</v>
       </c>
       <c r="C218" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D218" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -8283,13 +8283,13 @@
         <v>214</v>
       </c>
       <c r="B219" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C219" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D219" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -8300,10 +8300,10 @@
         <v>215</v>
       </c>
       <c r="C220" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D220" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -8314,10 +8314,10 @@
         <v>216</v>
       </c>
       <c r="C221" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D221" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -8328,10 +8328,10 @@
         <v>217</v>
       </c>
       <c r="C222" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D222" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -8339,13 +8339,13 @@
         <v>218</v>
       </c>
       <c r="B223" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C223" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D223" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -8356,10 +8356,10 @@
         <v>219</v>
       </c>
       <c r="C224" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D224" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -8367,13 +8367,13 @@
         <v>220</v>
       </c>
       <c r="B225" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C225" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D225" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -8384,10 +8384,10 @@
         <v>221</v>
       </c>
       <c r="C226" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D226" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -8398,10 +8398,10 @@
         <v>222</v>
       </c>
       <c r="C227" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D227" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -8412,10 +8412,10 @@
         <v>223</v>
       </c>
       <c r="C228" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D228" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -8423,13 +8423,13 @@
         <v>224</v>
       </c>
       <c r="B229" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C229" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D229" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -8440,10 +8440,10 @@
         <v>225</v>
       </c>
       <c r="C230" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D230" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -8451,27 +8451,27 @@
         <v>226</v>
       </c>
       <c r="B231" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C231" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D231" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B232" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C232" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D232" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -8482,10 +8482,10 @@
         <v>227</v>
       </c>
       <c r="C233" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D233" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -8496,10 +8496,10 @@
         <v>228</v>
       </c>
       <c r="C234" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D234" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -8510,10 +8510,10 @@
         <v>229</v>
       </c>
       <c r="C235" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D235" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -8521,13 +8521,13 @@
         <v>230</v>
       </c>
       <c r="B236" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C236" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D236" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -8535,13 +8535,13 @@
         <v>231</v>
       </c>
       <c r="B237" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C237" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D237" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -8552,24 +8552,24 @@
         <v>232</v>
       </c>
       <c r="C238" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D238" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B239" t="s">
+        <v>940</v>
+      </c>
+      <c r="C239" t="s">
+        <v>942</v>
+      </c>
+      <c r="D239" t="s">
         <v>941</v>
-      </c>
-      <c r="B239" t="s">
-        <v>941</v>
-      </c>
-      <c r="C239" t="s">
-        <v>943</v>
-      </c>
-      <c r="D239" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -8580,10 +8580,10 @@
         <v>233</v>
       </c>
       <c r="C240" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D240" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -8594,10 +8594,10 @@
         <v>234</v>
       </c>
       <c r="C241" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D241" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -8608,10 +8608,10 @@
         <v>235</v>
       </c>
       <c r="C242" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D242" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -8622,10 +8622,10 @@
         <v>236</v>
       </c>
       <c r="C243" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D243" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -8636,10 +8636,10 @@
         <v>237</v>
       </c>
       <c r="C244" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D244" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -8650,10 +8650,10 @@
         <v>238</v>
       </c>
       <c r="C245" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D245" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="C246" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D246" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -8678,10 +8678,10 @@
         <v>240</v>
       </c>
       <c r="C247" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D247" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -8689,13 +8689,13 @@
         <v>241</v>
       </c>
       <c r="B248" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D248" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -8706,10 +8706,10 @@
         <v>242</v>
       </c>
       <c r="C249" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D249" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -8717,13 +8717,13 @@
         <v>243</v>
       </c>
       <c r="B250" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C250" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D250" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -8731,13 +8731,13 @@
         <v>244</v>
       </c>
       <c r="B251" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C251" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D251" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -8745,13 +8745,13 @@
         <v>245</v>
       </c>
       <c r="B252" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C252" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D252" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -8762,10 +8762,10 @@
         <v>246</v>
       </c>
       <c r="C253" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D253" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -8773,13 +8773,13 @@
         <v>247</v>
       </c>
       <c r="B254" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C254" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D254" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -8787,13 +8787,13 @@
         <v>248</v>
       </c>
       <c r="B255" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C255" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D255" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -8801,13 +8801,13 @@
         <v>249</v>
       </c>
       <c r="B256" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C256" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D256" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -8818,10 +8818,10 @@
         <v>250</v>
       </c>
       <c r="C257" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D257" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -8832,10 +8832,10 @@
         <v>251</v>
       </c>
       <c r="C258" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D258" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -8843,13 +8843,13 @@
         <v>252</v>
       </c>
       <c r="B259" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C259" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D259" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -8857,13 +8857,13 @@
         <v>253</v>
       </c>
       <c r="B260" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C260" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D260" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -8871,13 +8871,13 @@
         <v>254</v>
       </c>
       <c r="B261" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C261" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D261" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -8888,10 +8888,10 @@
         <v>255</v>
       </c>
       <c r="C262" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D262" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -8902,10 +8902,10 @@
         <v>256</v>
       </c>
       <c r="C263" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D263" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -8916,10 +8916,10 @@
         <v>257</v>
       </c>
       <c r="C264" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D264" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -8930,10 +8930,10 @@
         <v>258</v>
       </c>
       <c r="C265" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D265" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -8941,13 +8941,13 @@
         <v>259</v>
       </c>
       <c r="B266" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C266" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D266" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -8955,13 +8955,13 @@
         <v>260</v>
       </c>
       <c r="B267" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C267" t="s">
         <v>260</v>
       </c>
       <c r="D267" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -8969,13 +8969,13 @@
         <v>261</v>
       </c>
       <c r="B268" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C268" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D268" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -8983,13 +8983,13 @@
         <v>262</v>
       </c>
       <c r="B269" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C269" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D269" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -8997,13 +8997,13 @@
         <v>263</v>
       </c>
       <c r="B270" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C270" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D270" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -9014,10 +9014,10 @@
         <v>264</v>
       </c>
       <c r="C271" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D271" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -9025,13 +9025,13 @@
         <v>265</v>
       </c>
       <c r="B272" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C272" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D272" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -9039,13 +9039,13 @@
         <v>266</v>
       </c>
       <c r="B273" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C273" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D273" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -9053,13 +9053,13 @@
         <v>267</v>
       </c>
       <c r="B274" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C274" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D274" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -9067,13 +9067,13 @@
         <v>268</v>
       </c>
       <c r="B275" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C275" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D275" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -9084,10 +9084,10 @@
         <v>269</v>
       </c>
       <c r="C276" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D276" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -9095,13 +9095,13 @@
         <v>270</v>
       </c>
       <c r="B277" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C277" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D277" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -9109,13 +9109,13 @@
         <v>271</v>
       </c>
       <c r="B278" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C278" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D278" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -9123,13 +9123,13 @@
         <v>272</v>
       </c>
       <c r="B279" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C279" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D279" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -9137,13 +9137,13 @@
         <v>273</v>
       </c>
       <c r="B280" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C280" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D280" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -9151,13 +9151,13 @@
         <v>274</v>
       </c>
       <c r="B281" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C281" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D281" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -9165,13 +9165,13 @@
         <v>275</v>
       </c>
       <c r="B282" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C282" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D282" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -9179,13 +9179,13 @@
         <v>276</v>
       </c>
       <c r="B283" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C283" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D283" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -9196,10 +9196,10 @@
         <v>277</v>
       </c>
       <c r="C284" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D284" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -9207,13 +9207,13 @@
         <v>278</v>
       </c>
       <c r="B285" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C285" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D285" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -9224,10 +9224,10 @@
         <v>279</v>
       </c>
       <c r="C286" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D286" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -9238,10 +9238,10 @@
         <v>280</v>
       </c>
       <c r="C287" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D287" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -9252,10 +9252,10 @@
         <v>281</v>
       </c>
       <c r="C288" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D288" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -9263,13 +9263,13 @@
         <v>282</v>
       </c>
       <c r="B289" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C289" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D289" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -9277,13 +9277,13 @@
         <v>283</v>
       </c>
       <c r="B290" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C290" t="s">
         <v>283</v>
       </c>
       <c r="D290" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -9294,10 +9294,10 @@
         <v>284</v>
       </c>
       <c r="C291" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D291" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -9308,10 +9308,10 @@
         <v>285</v>
       </c>
       <c r="C292" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D292" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -9319,13 +9319,13 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C293" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D293" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -9333,13 +9333,13 @@
         <v>287</v>
       </c>
       <c r="B294" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C294" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D294" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -9347,13 +9347,13 @@
         <v>288</v>
       </c>
       <c r="B295" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C295" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D295" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -9364,10 +9364,10 @@
         <v>289</v>
       </c>
       <c r="C296" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D296" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -9378,10 +9378,10 @@
         <v>290</v>
       </c>
       <c r="C297" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D297" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -9389,13 +9389,13 @@
         <v>291</v>
       </c>
       <c r="B298" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C298" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D298" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -9403,13 +9403,13 @@
         <v>292</v>
       </c>
       <c r="B299" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C299" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D299" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -9417,13 +9417,13 @@
         <v>293</v>
       </c>
       <c r="B300" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C300" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D300" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -9434,10 +9434,10 @@
         <v>294</v>
       </c>
       <c r="C301" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D301" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -9445,13 +9445,13 @@
         <v>295</v>
       </c>
       <c r="B302" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C302" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D302" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -9462,10 +9462,10 @@
         <v>296</v>
       </c>
       <c r="C303" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D303" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -9476,10 +9476,10 @@
         <v>297</v>
       </c>
       <c r="C304" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D304" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -9490,10 +9490,10 @@
         <v>298</v>
       </c>
       <c r="C305" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D305" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -9504,10 +9504,10 @@
         <v>299</v>
       </c>
       <c r="C306" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D306" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -9518,10 +9518,10 @@
         <v>300</v>
       </c>
       <c r="C307" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D307" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -9535,7 +9535,7 @@
         <v>301</v>
       </c>
       <c r="D308" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -9546,10 +9546,10 @@
         <v>302</v>
       </c>
       <c r="C309" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D309" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -9560,10 +9560,10 @@
         <v>303</v>
       </c>
       <c r="C310" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D310" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -9574,10 +9574,10 @@
         <v>304</v>
       </c>
       <c r="C311" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D311" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -9588,10 +9588,10 @@
         <v>305</v>
       </c>
       <c r="C312" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D312" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -9599,13 +9599,13 @@
         <v>306</v>
       </c>
       <c r="B313" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C313" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D313" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -9613,13 +9613,13 @@
         <v>307</v>
       </c>
       <c r="B314" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C314" t="s">
         <v>307</v>
       </c>
       <c r="D314" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -9633,7 +9633,7 @@
         <v>308</v>
       </c>
       <c r="D315" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -9641,13 +9641,13 @@
         <v>309</v>
       </c>
       <c r="B316" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D316" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -9655,13 +9655,13 @@
         <v>310</v>
       </c>
       <c r="B317" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C317" t="s">
         <v>310</v>
       </c>
       <c r="D317" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -9675,7 +9675,7 @@
         <v>311</v>
       </c>
       <c r="D318" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -9683,13 +9683,13 @@
         <v>312</v>
       </c>
       <c r="B319" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C319" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D319" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -9697,13 +9697,13 @@
         <v>313</v>
       </c>
       <c r="B320" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C320" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D320" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -9711,13 +9711,13 @@
         <v>314</v>
       </c>
       <c r="B321" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D321" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -9731,7 +9731,7 @@
         <v>315</v>
       </c>
       <c r="D322" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -9745,7 +9745,7 @@
         <v>316</v>
       </c>
       <c r="D323" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -9753,13 +9753,13 @@
         <v>317</v>
       </c>
       <c r="B324" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C324" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D324" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -9767,13 +9767,13 @@
         <v>318</v>
       </c>
       <c r="B325" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D325" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -9781,13 +9781,13 @@
         <v>319</v>
       </c>
       <c r="B326" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D326" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -9798,10 +9798,10 @@
         <v>320</v>
       </c>
       <c r="C327" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D327" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -9809,13 +9809,13 @@
         <v>321</v>
       </c>
       <c r="B328" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C328" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D328" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -9823,13 +9823,13 @@
         <v>322</v>
       </c>
       <c r="B329" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C329" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D329" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -9837,13 +9837,13 @@
         <v>323</v>
       </c>
       <c r="B330" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C330" t="s">
         <v>323</v>
       </c>
       <c r="D330" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -9851,13 +9851,13 @@
         <v>324</v>
       </c>
       <c r="B331" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C331" t="s">
         <v>324</v>
       </c>
       <c r="D331" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -9868,10 +9868,10 @@
         <v>325</v>
       </c>
       <c r="C332" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D332" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -9882,10 +9882,10 @@
         <v>326</v>
       </c>
       <c r="C333" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D333" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -9899,7 +9899,7 @@
         <v>327</v>
       </c>
       <c r="D334" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -9910,10 +9910,10 @@
         <v>328</v>
       </c>
       <c r="C335" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D335" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -9924,10 +9924,10 @@
         <v>329</v>
       </c>
       <c r="C336" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D336" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -9938,10 +9938,10 @@
         <v>330</v>
       </c>
       <c r="C337" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D337" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -9949,13 +9949,13 @@
         <v>331</v>
       </c>
       <c r="B338" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C338" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D338" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -9963,13 +9963,13 @@
         <v>332</v>
       </c>
       <c r="B339" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C339" t="s">
         <v>332</v>
       </c>
       <c r="D339" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -9980,10 +9980,10 @@
         <v>333</v>
       </c>
       <c r="C340" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D340" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -9994,10 +9994,10 @@
         <v>334</v>
       </c>
       <c r="C341" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D341" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -10008,10 +10008,10 @@
         <v>335</v>
       </c>
       <c r="C342" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D342" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -10019,13 +10019,13 @@
         <v>336</v>
       </c>
       <c r="B343" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C343" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D343" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -10033,13 +10033,13 @@
         <v>337</v>
       </c>
       <c r="B344" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C344" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D344" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -10047,13 +10047,13 @@
         <v>338</v>
       </c>
       <c r="B345" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C345" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D345" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -10061,13 +10061,13 @@
         <v>339</v>
       </c>
       <c r="B346" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C346" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D346" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -10075,13 +10075,13 @@
         <v>340</v>
       </c>
       <c r="B347" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C347" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D347" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -10089,13 +10089,13 @@
         <v>341</v>
       </c>
       <c r="B348" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C348" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D348" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -10103,13 +10103,13 @@
         <v>342</v>
       </c>
       <c r="B349" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C349" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D349" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -10117,13 +10117,13 @@
         <v>343</v>
       </c>
       <c r="B350" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C350" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D350" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -10131,13 +10131,13 @@
         <v>344</v>
       </c>
       <c r="B351" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C351" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D351" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -10148,10 +10148,10 @@
         <v>345</v>
       </c>
       <c r="C352" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D352" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -10162,10 +10162,10 @@
         <v>346</v>
       </c>
       <c r="C353" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D353" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -10176,10 +10176,10 @@
         <v>347</v>
       </c>
       <c r="C354" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D354" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -10187,13 +10187,13 @@
         <v>348</v>
       </c>
       <c r="B355" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C355" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D355" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -10204,10 +10204,10 @@
         <v>349</v>
       </c>
       <c r="C356" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D356" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -10218,24 +10218,24 @@
         <v>350</v>
       </c>
       <c r="C357" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D357" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C358" t="s">
         <v>1046</v>
       </c>
-      <c r="B358" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>1047</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -10243,13 +10243,13 @@
         <v>351</v>
       </c>
       <c r="B359" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C359" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D359" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/Logos.xlsx
+++ b/Logos.xlsx
@@ -2082,9 +2082,6 @@
     <t>https://a4.espncdn.com/combiner/i?img=%2Fi%2Fteamlogos%2Fncaa%2F500%2F2132.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/dd/NCAA_logo.svg/1042px-NCAA_logo.svg.png</t>
-  </si>
-  <si>
     <t>NCAA</t>
   </si>
   <si>
@@ -3724,6 +3721,9 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/4/40/Boise_State_Broncos_logo.svg/1200px-Boise_State_Broncos_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://cdn.freebiesupply.com/logos/large/2x/ncaa-basketball-logo-png-transparent.png</t>
   </si>
 </sst>
 </file>
@@ -5215,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5231,10 +5231,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -5242,16 +5242,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D2" t="s">
-        <v>687</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5259,10 +5259,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -5276,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -5290,7 +5290,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -5304,7 +5304,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D6" t="s">
         <v>352</v>
@@ -5315,10 +5315,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D7" t="s">
         <v>353</v>
@@ -5329,10 +5329,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D8" t="s">
         <v>354</v>
@@ -5346,7 +5346,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D9" t="s">
         <v>355</v>
@@ -5357,10 +5357,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D10" t="s">
         <v>356</v>
@@ -5374,7 +5374,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D11" t="s">
         <v>357</v>
@@ -5385,10 +5385,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D12" t="s">
         <v>358</v>
@@ -5402,7 +5402,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D13" t="s">
         <v>359</v>
@@ -5413,10 +5413,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D14" t="s">
         <v>360</v>
@@ -5430,7 +5430,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D15" t="s">
         <v>361</v>
@@ -5441,10 +5441,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D16" t="s">
         <v>362</v>
@@ -5455,13 +5455,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5472,7 +5472,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D18" t="s">
         <v>363</v>
@@ -5486,7 +5486,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D19" t="s">
         <v>364</v>
@@ -5500,7 +5500,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D20" t="s">
         <v>365</v>
@@ -5511,10 +5511,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D21" t="s">
         <v>366</v>
@@ -5528,7 +5528,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D22" t="s">
         <v>367</v>
@@ -5542,7 +5542,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D23" t="s">
         <v>368</v>
@@ -5556,7 +5556,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D24" t="s">
         <v>369</v>
@@ -5564,16 +5564,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C25" t="s">
         <v>719</v>
       </c>
-      <c r="B25" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>720</v>
-      </c>
-      <c r="D25" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5584,7 +5584,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D26" t="s">
         <v>370</v>
@@ -5595,13 +5595,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D27" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5609,10 +5609,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D28" t="s">
         <v>371</v>
@@ -5623,10 +5623,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C29" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D29" t="s">
         <v>372</v>
@@ -5637,10 +5637,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D30" t="s">
         <v>373</v>
@@ -5648,16 +5648,16 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B31" t="s">
+        <v>727</v>
+      </c>
+      <c r="C31" t="s">
         <v>728</v>
       </c>
-      <c r="B31" t="s">
-        <v>728</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>729</v>
-      </c>
-      <c r="D31" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5668,7 +5668,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D32" t="s">
         <v>374</v>
@@ -5682,7 +5682,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D33" t="s">
         <v>375</v>
@@ -5696,7 +5696,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D34" t="s">
         <v>376</v>
@@ -5710,7 +5710,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D35" t="s">
         <v>377</v>
@@ -5724,7 +5724,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D36" t="s">
         <v>378</v>
@@ -5752,7 +5752,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D38" t="s">
         <v>380</v>
@@ -5766,7 +5766,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D39" t="s">
         <v>381</v>
@@ -5777,10 +5777,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D40" t="s">
         <v>382</v>
@@ -5791,10 +5791,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C41" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D41" t="s">
         <v>383</v>
@@ -5805,10 +5805,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D42" t="s">
         <v>384</v>
@@ -5822,7 +5822,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D43" t="s">
         <v>385</v>
@@ -5836,7 +5836,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D44" t="s">
         <v>386</v>
@@ -5850,7 +5850,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D45" t="s">
         <v>387</v>
@@ -5861,10 +5861,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D46" t="s">
         <v>388</v>
@@ -5875,10 +5875,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C47" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D47" t="s">
         <v>389</v>
@@ -5889,10 +5889,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C48" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D48" t="s">
         <v>390</v>
@@ -5903,10 +5903,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C49" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D49" t="s">
         <v>391</v>
@@ -5920,7 +5920,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D50" t="s">
         <v>392</v>
@@ -5934,7 +5934,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D51" t="s">
         <v>393</v>
@@ -5945,13 +5945,13 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C52" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D52" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5962,7 +5962,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D53" t="s">
         <v>686</v>
@@ -5976,7 +5976,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D54" t="s">
         <v>394</v>
@@ -5987,10 +5987,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D55" t="s">
         <v>395</v>
@@ -6001,10 +6001,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C56" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D56" t="s">
         <v>396</v>
@@ -6018,7 +6018,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D57" t="s">
         <v>397</v>
@@ -6029,10 +6029,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C58" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D58" t="s">
         <v>398</v>
@@ -6046,7 +6046,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D59" t="s">
         <v>399</v>
@@ -6057,10 +6057,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C60" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D60" t="s">
         <v>400</v>
@@ -6068,16 +6068,16 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B61" t="s">
+        <v>758</v>
+      </c>
+      <c r="C61" t="s">
         <v>759</v>
       </c>
-      <c r="B61" t="s">
-        <v>759</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>760</v>
-      </c>
-      <c r="D61" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6088,7 +6088,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D62" t="s">
         <v>401</v>
@@ -6099,10 +6099,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C63" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D63" t="s">
         <v>402</v>
@@ -6110,16 +6110,16 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B64" t="s">
+        <v>762</v>
+      </c>
+      <c r="C64" t="s">
         <v>763</v>
       </c>
-      <c r="B64" t="s">
-        <v>763</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>764</v>
-      </c>
-      <c r="D64" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6130,7 +6130,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D65" t="s">
         <v>403</v>
@@ -6138,16 +6138,16 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B66" t="s">
+        <v>766</v>
+      </c>
+      <c r="C66" t="s">
         <v>767</v>
       </c>
-      <c r="B66" t="s">
-        <v>767</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>768</v>
-      </c>
-      <c r="D66" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6158,7 +6158,7 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D67" t="s">
         <v>405</v>
@@ -6172,7 +6172,7 @@
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D68" t="s">
         <v>404</v>
@@ -6186,7 +6186,7 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D69" t="s">
         <v>407</v>
@@ -6197,10 +6197,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D70" t="s">
         <v>408</v>
@@ -6214,7 +6214,7 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D71" t="s">
         <v>409</v>
@@ -6228,7 +6228,7 @@
         <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D72" t="s">
         <v>410</v>
@@ -6242,7 +6242,7 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D73" t="s">
         <v>411</v>
@@ -6253,10 +6253,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C74" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D74" t="s">
         <v>412</v>
@@ -6270,7 +6270,7 @@
         <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D75" t="s">
         <v>413</v>
@@ -6284,7 +6284,7 @@
         <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D76" t="s">
         <v>414</v>
@@ -6298,7 +6298,7 @@
         <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D77" t="s">
         <v>415</v>
@@ -6312,7 +6312,7 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D78" t="s">
         <v>416</v>
@@ -6323,10 +6323,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C79" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D79" t="s">
         <v>417</v>
@@ -6337,10 +6337,10 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C80" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D80" t="s">
         <v>418</v>
@@ -6351,10 +6351,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C81" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D81" t="s">
         <v>419</v>
@@ -6365,10 +6365,10 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D82" t="s">
         <v>420</v>
@@ -6379,10 +6379,10 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C83" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D83" t="s">
         <v>421</v>
@@ -6393,10 +6393,10 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C84" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D84" t="s">
         <v>422</v>
@@ -6410,7 +6410,7 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D85" t="s">
         <v>423</v>
@@ -6424,7 +6424,7 @@
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D86" t="s">
         <v>424</v>
@@ -6438,7 +6438,7 @@
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D87" t="s">
         <v>425</v>
@@ -6449,10 +6449,10 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C88" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D88" t="s">
         <v>426</v>
@@ -6463,7 +6463,7 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C89" t="s">
         <v>86</v>
@@ -6480,7 +6480,7 @@
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D90" t="s">
         <v>428</v>
@@ -6494,7 +6494,7 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D91" t="s">
         <v>429</v>
@@ -6505,10 +6505,10 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C92" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D92" t="s">
         <v>430</v>
@@ -6519,10 +6519,10 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C93" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D93" t="s">
         <v>431</v>
@@ -6533,10 +6533,10 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C94" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D94" t="s">
         <v>432</v>
@@ -6550,7 +6550,7 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D95" t="s">
         <v>433</v>
@@ -6561,10 +6561,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D96" t="s">
         <v>406</v>
@@ -6575,10 +6575,10 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C97" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D97" t="s">
         <v>434</v>
@@ -6592,10 +6592,10 @@
         <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D98" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6603,10 +6603,10 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C99" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D99" t="s">
         <v>435</v>
@@ -6617,10 +6617,10 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C100" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D100" t="s">
         <v>436</v>
@@ -6631,10 +6631,10 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C101" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D101" t="s">
         <v>437</v>
@@ -6648,7 +6648,7 @@
         <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D102" t="s">
         <v>438</v>
@@ -6662,7 +6662,7 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D103" t="s">
         <v>439</v>
@@ -6673,10 +6673,10 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C104" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D104" t="s">
         <v>440</v>
@@ -6687,10 +6687,10 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C105" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D105" t="s">
         <v>441</v>
@@ -6701,10 +6701,10 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C106" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D106" t="s">
         <v>442</v>
@@ -6718,7 +6718,7 @@
         <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D107" t="s">
         <v>408</v>
@@ -6729,10 +6729,10 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C108" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D108" t="s">
         <v>443</v>
@@ -6743,10 +6743,10 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C109" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D109" t="s">
         <v>444</v>
@@ -6757,13 +6757,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C110" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D110" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6774,7 +6774,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D111" t="s">
         <v>445</v>
@@ -6788,7 +6788,7 @@
         <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D112" t="s">
         <v>446</v>
@@ -6796,16 +6796,16 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B113" t="s">
+        <v>813</v>
+      </c>
+      <c r="C113" t="s">
+        <v>815</v>
+      </c>
+      <c r="D113" t="s">
         <v>814</v>
-      </c>
-      <c r="B113" t="s">
-        <v>814</v>
-      </c>
-      <c r="C113" t="s">
-        <v>816</v>
-      </c>
-      <c r="D113" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6816,7 +6816,7 @@
         <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D114" t="s">
         <v>447</v>
@@ -6830,7 +6830,7 @@
         <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D115" t="s">
         <v>448</v>
@@ -6844,7 +6844,7 @@
         <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D116" t="s">
         <v>449</v>
@@ -6858,7 +6858,7 @@
         <v>113</v>
       </c>
       <c r="C117" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D117" t="s">
         <v>450</v>
@@ -6872,7 +6872,7 @@
         <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D118" t="s">
         <v>451</v>
@@ -6883,10 +6883,10 @@
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C119" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D119" t="s">
         <v>452</v>
@@ -6900,7 +6900,7 @@
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D120" t="s">
         <v>453</v>
@@ -6914,7 +6914,7 @@
         <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D121" t="s">
         <v>454</v>
@@ -6925,10 +6925,10 @@
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C122" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D122" t="s">
         <v>455</v>
@@ -6942,7 +6942,7 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D123" t="s">
         <v>456</v>
@@ -6953,10 +6953,10 @@
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C124" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D124" t="s">
         <v>457</v>
@@ -6967,10 +6967,10 @@
         <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C125" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D125" t="s">
         <v>458</v>
@@ -6981,10 +6981,10 @@
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C126" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D126" t="s">
         <v>459</v>
@@ -6998,7 +6998,7 @@
         <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D127" t="s">
         <v>460</v>
@@ -7009,10 +7009,10 @@
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C128" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D128" t="s">
         <v>461</v>
@@ -7026,7 +7026,7 @@
         <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D129" t="s">
         <v>462</v>
@@ -7040,7 +7040,7 @@
         <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D130" t="s">
         <v>463</v>
@@ -7051,10 +7051,10 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C131" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D131" t="s">
         <v>464</v>
@@ -7068,7 +7068,7 @@
         <v>128</v>
       </c>
       <c r="C132" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D132" t="s">
         <v>465</v>
@@ -7079,10 +7079,10 @@
         <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C133" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D133" t="s">
         <v>466</v>
@@ -7096,7 +7096,7 @@
         <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D134" t="s">
         <v>467</v>
@@ -7107,10 +7107,10 @@
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C135" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D135" t="s">
         <v>468</v>
@@ -7121,10 +7121,10 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C136" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D136" t="s">
         <v>469</v>
@@ -7138,7 +7138,7 @@
         <v>133</v>
       </c>
       <c r="C137" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D137" t="s">
         <v>470</v>
@@ -7149,10 +7149,10 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C138" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D138" t="s">
         <v>471</v>
@@ -7163,10 +7163,10 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C139" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D139" t="s">
         <v>472</v>
@@ -7177,10 +7177,10 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C140" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D140" t="s">
         <v>473</v>
@@ -7194,7 +7194,7 @@
         <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D141" t="s">
         <v>474</v>
@@ -7208,7 +7208,7 @@
         <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D142" t="s">
         <v>475</v>
@@ -7222,7 +7222,7 @@
         <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D143" t="s">
         <v>476</v>
@@ -7236,7 +7236,7 @@
         <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D144" t="s">
         <v>477</v>
@@ -7250,7 +7250,7 @@
         <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D145" t="s">
         <v>478</v>
@@ -7264,7 +7264,7 @@
         <v>142</v>
       </c>
       <c r="C146" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D146" t="s">
         <v>479</v>
@@ -7278,7 +7278,7 @@
         <v>143</v>
       </c>
       <c r="C147" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D147" t="s">
         <v>682</v>
@@ -7289,10 +7289,10 @@
         <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C148" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D148" t="s">
         <v>683</v>
@@ -7303,10 +7303,10 @@
         <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C149" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D149" t="s">
         <v>684</v>
@@ -7317,10 +7317,10 @@
         <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C150" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D150" t="s">
         <v>685</v>
@@ -7334,7 +7334,7 @@
         <v>147</v>
       </c>
       <c r="C151" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D151" t="s">
         <v>480</v>
@@ -7345,10 +7345,10 @@
         <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C152" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D152" t="s">
         <v>481</v>
@@ -7359,10 +7359,10 @@
         <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C153" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D153" t="s">
         <v>482</v>
@@ -7373,10 +7373,10 @@
         <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C154" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D154" t="s">
         <v>483</v>
@@ -7390,7 +7390,7 @@
         <v>151</v>
       </c>
       <c r="C155" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D155" t="s">
         <v>484</v>
@@ -7401,10 +7401,10 @@
         <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C156" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D156" t="s">
         <v>485</v>
@@ -7415,10 +7415,10 @@
         <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C157" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D157" t="s">
         <v>486</v>
@@ -7429,10 +7429,10 @@
         <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C158" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D158" t="s">
         <v>487</v>
@@ -7460,7 +7460,7 @@
         <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D160" t="s">
         <v>489</v>
@@ -7474,7 +7474,7 @@
         <v>157</v>
       </c>
       <c r="C161" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D161" t="s">
         <v>490</v>
@@ -7488,7 +7488,7 @@
         <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D162" t="s">
         <v>491</v>
@@ -7502,7 +7502,7 @@
         <v>159</v>
       </c>
       <c r="C163" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D163" t="s">
         <v>492</v>
@@ -7516,7 +7516,7 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D164" t="s">
         <v>493</v>
@@ -7530,7 +7530,7 @@
         <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D165" t="s">
         <v>494</v>
@@ -7538,16 +7538,16 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="B166" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" t="s">
         <v>1054</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7555,10 +7555,10 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C167" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D167" t="s">
         <v>495</v>
@@ -7569,10 +7569,10 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C168" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D168" t="s">
         <v>496</v>
@@ -7586,7 +7586,7 @@
         <v>164</v>
       </c>
       <c r="C169" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D169" t="s">
         <v>497</v>
@@ -7600,7 +7600,7 @@
         <v>165</v>
       </c>
       <c r="C170" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D170" t="s">
         <v>498</v>
@@ -7614,7 +7614,7 @@
         <v>166</v>
       </c>
       <c r="C171" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D171" t="s">
         <v>499</v>
@@ -7625,10 +7625,10 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C172" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D172" t="s">
         <v>500</v>
@@ -7639,10 +7639,10 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C173" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D173" t="s">
         <v>501</v>
@@ -7656,7 +7656,7 @@
         <v>169</v>
       </c>
       <c r="C174" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D174" t="s">
         <v>502</v>
@@ -7667,10 +7667,10 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C175" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D175" t="s">
         <v>503</v>
@@ -7681,10 +7681,10 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C176" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D176" t="s">
         <v>504</v>
@@ -7695,10 +7695,10 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C177" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D177" t="s">
         <v>505</v>
@@ -7712,7 +7712,7 @@
         <v>173</v>
       </c>
       <c r="C178" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D178" t="s">
         <v>506</v>
@@ -7726,7 +7726,7 @@
         <v>174</v>
       </c>
       <c r="C179" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D179" t="s">
         <v>507</v>
@@ -7737,10 +7737,10 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C180" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D180" t="s">
         <v>508</v>
@@ -7751,10 +7751,10 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C181" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D181" t="s">
         <v>509</v>
@@ -7768,7 +7768,7 @@
         <v>177</v>
       </c>
       <c r="C182" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D182" t="s">
         <v>510</v>
@@ -7779,10 +7779,10 @@
         <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C183" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D183" t="s">
         <v>511</v>
@@ -7796,7 +7796,7 @@
         <v>179</v>
       </c>
       <c r="C184" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D184" t="s">
         <v>512</v>
@@ -7810,7 +7810,7 @@
         <v>180</v>
       </c>
       <c r="C185" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D185" t="s">
         <v>513</v>
@@ -7821,10 +7821,10 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C186" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D186" t="s">
         <v>514</v>
@@ -7835,10 +7835,10 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C187" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D187" t="s">
         <v>515</v>
@@ -7849,10 +7849,10 @@
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C188" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D188" t="s">
         <v>516</v>
@@ -7863,10 +7863,10 @@
         <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C189" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D189" t="s">
         <v>517</v>
@@ -7877,10 +7877,10 @@
         <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C190" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D190" t="s">
         <v>518</v>
@@ -7894,7 +7894,7 @@
         <v>186</v>
       </c>
       <c r="C191" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D191" t="s">
         <v>519</v>
@@ -7908,7 +7908,7 @@
         <v>187</v>
       </c>
       <c r="C192" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D192" t="s">
         <v>520</v>
@@ -7919,10 +7919,10 @@
         <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C193" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D193" t="s">
         <v>521</v>
@@ -7936,7 +7936,7 @@
         <v>189</v>
       </c>
       <c r="C194" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D194" t="s">
         <v>522</v>
@@ -7947,10 +7947,10 @@
         <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C195" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D195" t="s">
         <v>523</v>
@@ -7964,7 +7964,7 @@
         <v>191</v>
       </c>
       <c r="C196" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D196" t="s">
         <v>524</v>
@@ -7975,10 +7975,10 @@
         <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C197" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D197" t="s">
         <v>525</v>
@@ -7992,7 +7992,7 @@
         <v>193</v>
       </c>
       <c r="C198" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D198" t="s">
         <v>526</v>
@@ -8006,10 +8006,10 @@
         <v>194</v>
       </c>
       <c r="C199" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D199" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -8017,10 +8017,10 @@
         <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C200" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D200" t="s">
         <v>527</v>
@@ -8045,10 +8045,10 @@
         <v>197</v>
       </c>
       <c r="B202" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C202" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D202" t="s">
         <v>529</v>
@@ -8059,10 +8059,10 @@
         <v>198</v>
       </c>
       <c r="B203" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C203" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D203" t="s">
         <v>530</v>
@@ -8073,10 +8073,10 @@
         <v>199</v>
       </c>
       <c r="B204" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C204" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D204" t="s">
         <v>531</v>
@@ -8087,10 +8087,10 @@
         <v>200</v>
       </c>
       <c r="B205" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C205" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D205" t="s">
         <v>532</v>
@@ -8101,10 +8101,10 @@
         <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C206" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D206" t="s">
         <v>533</v>
@@ -8115,10 +8115,10 @@
         <v>202</v>
       </c>
       <c r="B207" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C207" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D207" t="s">
         <v>534</v>
@@ -8132,7 +8132,7 @@
         <v>203</v>
       </c>
       <c r="C208" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D208" t="s">
         <v>535</v>
@@ -8143,10 +8143,10 @@
         <v>204</v>
       </c>
       <c r="B209" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C209" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D209" t="s">
         <v>536</v>
@@ -8157,10 +8157,10 @@
         <v>205</v>
       </c>
       <c r="B210" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C210" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D210" t="s">
         <v>537</v>
@@ -8174,7 +8174,7 @@
         <v>206</v>
       </c>
       <c r="C211" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D211" t="s">
         <v>538</v>
@@ -8185,10 +8185,10 @@
         <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C212" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D212" t="s">
         <v>539</v>
@@ -8199,10 +8199,10 @@
         <v>208</v>
       </c>
       <c r="B213" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C213" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D213" t="s">
         <v>540</v>
@@ -8213,10 +8213,10 @@
         <v>209</v>
       </c>
       <c r="B214" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C214" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D214" t="s">
         <v>541</v>
@@ -8227,10 +8227,10 @@
         <v>210</v>
       </c>
       <c r="B215" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C215" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D215" t="s">
         <v>542</v>
@@ -8241,10 +8241,10 @@
         <v>211</v>
       </c>
       <c r="B216" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C216" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D216" t="s">
         <v>543</v>
@@ -8255,10 +8255,10 @@
         <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C217" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D217" t="s">
         <v>544</v>
@@ -8272,7 +8272,7 @@
         <v>213</v>
       </c>
       <c r="C218" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D218" t="s">
         <v>545</v>
@@ -8283,10 +8283,10 @@
         <v>214</v>
       </c>
       <c r="B219" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C219" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D219" t="s">
         <v>546</v>
@@ -8300,7 +8300,7 @@
         <v>215</v>
       </c>
       <c r="C220" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D220" t="s">
         <v>547</v>
@@ -8314,7 +8314,7 @@
         <v>216</v>
       </c>
       <c r="C221" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D221" t="s">
         <v>548</v>
@@ -8328,7 +8328,7 @@
         <v>217</v>
       </c>
       <c r="C222" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D222" t="s">
         <v>549</v>
@@ -8339,10 +8339,10 @@
         <v>218</v>
       </c>
       <c r="B223" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C223" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D223" t="s">
         <v>550</v>
@@ -8356,7 +8356,7 @@
         <v>219</v>
       </c>
       <c r="C224" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D224" t="s">
         <v>551</v>
@@ -8367,10 +8367,10 @@
         <v>220</v>
       </c>
       <c r="B225" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C225" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D225" t="s">
         <v>552</v>
@@ -8384,7 +8384,7 @@
         <v>221</v>
       </c>
       <c r="C226" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D226" t="s">
         <v>553</v>
@@ -8398,7 +8398,7 @@
         <v>222</v>
       </c>
       <c r="C227" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D227" t="s">
         <v>554</v>
@@ -8412,7 +8412,7 @@
         <v>223</v>
       </c>
       <c r="C228" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D228" t="s">
         <v>555</v>
@@ -8423,10 +8423,10 @@
         <v>224</v>
       </c>
       <c r="B229" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C229" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D229" t="s">
         <v>556</v>
@@ -8440,7 +8440,7 @@
         <v>225</v>
       </c>
       <c r="C230" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D230" t="s">
         <v>557</v>
@@ -8451,10 +8451,10 @@
         <v>226</v>
       </c>
       <c r="B231" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C231" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D231" t="s">
         <v>558</v>
@@ -8462,16 +8462,16 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B232" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C232" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D232" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -8482,7 +8482,7 @@
         <v>227</v>
       </c>
       <c r="C233" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D233" t="s">
         <v>559</v>
@@ -8496,7 +8496,7 @@
         <v>228</v>
       </c>
       <c r="C234" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D234" t="s">
         <v>560</v>
@@ -8510,7 +8510,7 @@
         <v>229</v>
       </c>
       <c r="C235" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D235" t="s">
         <v>561</v>
@@ -8521,10 +8521,10 @@
         <v>230</v>
       </c>
       <c r="B236" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C236" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D236" t="s">
         <v>562</v>
@@ -8535,10 +8535,10 @@
         <v>231</v>
       </c>
       <c r="B237" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C237" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D237" t="s">
         <v>563</v>
@@ -8552,7 +8552,7 @@
         <v>232</v>
       </c>
       <c r="C238" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D238" t="s">
         <v>564</v>
@@ -8560,16 +8560,16 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B239" t="s">
+        <v>939</v>
+      </c>
+      <c r="C239" t="s">
+        <v>941</v>
+      </c>
+      <c r="D239" t="s">
         <v>940</v>
-      </c>
-      <c r="B239" t="s">
-        <v>940</v>
-      </c>
-      <c r="C239" t="s">
-        <v>942</v>
-      </c>
-      <c r="D239" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -8580,10 +8580,10 @@
         <v>233</v>
       </c>
       <c r="C240" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D240" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -8594,7 +8594,7 @@
         <v>234</v>
       </c>
       <c r="C241" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D241" t="s">
         <v>565</v>
@@ -8608,7 +8608,7 @@
         <v>235</v>
       </c>
       <c r="C242" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D242" t="s">
         <v>566</v>
@@ -8622,7 +8622,7 @@
         <v>236</v>
       </c>
       <c r="C243" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D243" t="s">
         <v>567</v>
@@ -8636,7 +8636,7 @@
         <v>237</v>
       </c>
       <c r="C244" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D244" t="s">
         <v>568</v>
@@ -8650,7 +8650,7 @@
         <v>238</v>
       </c>
       <c r="C245" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D245" t="s">
         <v>569</v>
@@ -8664,7 +8664,7 @@
         <v>239</v>
       </c>
       <c r="C246" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D246" t="s">
         <v>570</v>
@@ -8678,7 +8678,7 @@
         <v>240</v>
       </c>
       <c r="C247" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D247" t="s">
         <v>571</v>
@@ -8689,10 +8689,10 @@
         <v>241</v>
       </c>
       <c r="B248" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D248" t="s">
         <v>572</v>
@@ -8706,7 +8706,7 @@
         <v>242</v>
       </c>
       <c r="C249" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D249" t="s">
         <v>573</v>
@@ -8717,10 +8717,10 @@
         <v>243</v>
       </c>
       <c r="B250" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C250" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D250" t="s">
         <v>574</v>
@@ -8731,10 +8731,10 @@
         <v>244</v>
       </c>
       <c r="B251" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C251" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D251" t="s">
         <v>575</v>
@@ -8745,10 +8745,10 @@
         <v>245</v>
       </c>
       <c r="B252" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C252" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D252" t="s">
         <v>576</v>
@@ -8762,7 +8762,7 @@
         <v>246</v>
       </c>
       <c r="C253" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D253" t="s">
         <v>577</v>
@@ -8773,10 +8773,10 @@
         <v>247</v>
       </c>
       <c r="B254" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C254" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D254" t="s">
         <v>578</v>
@@ -8787,10 +8787,10 @@
         <v>248</v>
       </c>
       <c r="B255" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C255" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D255" t="s">
         <v>579</v>
@@ -8801,10 +8801,10 @@
         <v>249</v>
       </c>
       <c r="B256" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C256" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D256" t="s">
         <v>580</v>
@@ -8818,7 +8818,7 @@
         <v>250</v>
       </c>
       <c r="C257" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D257" t="s">
         <v>581</v>
@@ -8832,7 +8832,7 @@
         <v>251</v>
       </c>
       <c r="C258" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D258" t="s">
         <v>582</v>
@@ -8843,10 +8843,10 @@
         <v>252</v>
       </c>
       <c r="B259" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C259" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D259" t="s">
         <v>583</v>
@@ -8857,10 +8857,10 @@
         <v>253</v>
       </c>
       <c r="B260" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C260" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D260" t="s">
         <v>584</v>
@@ -8871,10 +8871,10 @@
         <v>254</v>
       </c>
       <c r="B261" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C261" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D261" t="s">
         <v>585</v>
@@ -8888,7 +8888,7 @@
         <v>255</v>
       </c>
       <c r="C262" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D262" t="s">
         <v>586</v>
@@ -8902,7 +8902,7 @@
         <v>256</v>
       </c>
       <c r="C263" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D263" t="s">
         <v>587</v>
@@ -8916,7 +8916,7 @@
         <v>257</v>
       </c>
       <c r="C264" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D264" t="s">
         <v>588</v>
@@ -8930,7 +8930,7 @@
         <v>258</v>
       </c>
       <c r="C265" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D265" t="s">
         <v>589</v>
@@ -8941,10 +8941,10 @@
         <v>259</v>
       </c>
       <c r="B266" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C266" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D266" t="s">
         <v>590</v>
@@ -8955,7 +8955,7 @@
         <v>260</v>
       </c>
       <c r="B267" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C267" t="s">
         <v>260</v>
@@ -8969,10 +8969,10 @@
         <v>261</v>
       </c>
       <c r="B268" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C268" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D268" t="s">
         <v>592</v>
@@ -8983,10 +8983,10 @@
         <v>262</v>
       </c>
       <c r="B269" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C269" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D269" t="s">
         <v>593</v>
@@ -8997,10 +8997,10 @@
         <v>263</v>
       </c>
       <c r="B270" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C270" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D270" t="s">
         <v>594</v>
@@ -9014,7 +9014,7 @@
         <v>264</v>
       </c>
       <c r="C271" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D271" t="s">
         <v>595</v>
@@ -9025,10 +9025,10 @@
         <v>265</v>
       </c>
       <c r="B272" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C272" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D272" t="s">
         <v>596</v>
@@ -9039,10 +9039,10 @@
         <v>266</v>
       </c>
       <c r="B273" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C273" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D273" t="s">
         <v>597</v>
@@ -9053,10 +9053,10 @@
         <v>267</v>
       </c>
       <c r="B274" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C274" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D274" t="s">
         <v>598</v>
@@ -9067,10 +9067,10 @@
         <v>268</v>
       </c>
       <c r="B275" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C275" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D275" t="s">
         <v>599</v>
@@ -9084,7 +9084,7 @@
         <v>269</v>
       </c>
       <c r="C276" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D276" t="s">
         <v>600</v>
@@ -9095,10 +9095,10 @@
         <v>270</v>
       </c>
       <c r="B277" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C277" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D277" t="s">
         <v>601</v>
@@ -9109,10 +9109,10 @@
         <v>271</v>
       </c>
       <c r="B278" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C278" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D278" t="s">
         <v>602</v>
@@ -9123,10 +9123,10 @@
         <v>272</v>
       </c>
       <c r="B279" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C279" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D279" t="s">
         <v>603</v>
@@ -9137,10 +9137,10 @@
         <v>273</v>
       </c>
       <c r="B280" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C280" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D280" t="s">
         <v>604</v>
@@ -9151,10 +9151,10 @@
         <v>274</v>
       </c>
       <c r="B281" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C281" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D281" t="s">
         <v>605</v>
@@ -9165,10 +9165,10 @@
         <v>275</v>
       </c>
       <c r="B282" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C282" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D282" t="s">
         <v>606</v>
@@ -9179,10 +9179,10 @@
         <v>276</v>
       </c>
       <c r="B283" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C283" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D283" t="s">
         <v>607</v>
@@ -9196,7 +9196,7 @@
         <v>277</v>
       </c>
       <c r="C284" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D284" t="s">
         <v>608</v>
@@ -9207,10 +9207,10 @@
         <v>278</v>
       </c>
       <c r="B285" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C285" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D285" t="s">
         <v>609</v>
@@ -9224,7 +9224,7 @@
         <v>279</v>
       </c>
       <c r="C286" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D286" t="s">
         <v>610</v>
@@ -9238,7 +9238,7 @@
         <v>280</v>
       </c>
       <c r="C287" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D287" t="s">
         <v>611</v>
@@ -9252,7 +9252,7 @@
         <v>281</v>
       </c>
       <c r="C288" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D288" t="s">
         <v>612</v>
@@ -9263,10 +9263,10 @@
         <v>282</v>
       </c>
       <c r="B289" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C289" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D289" t="s">
         <v>613</v>
@@ -9277,7 +9277,7 @@
         <v>283</v>
       </c>
       <c r="B290" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C290" t="s">
         <v>283</v>
@@ -9294,7 +9294,7 @@
         <v>284</v>
       </c>
       <c r="C291" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D291" t="s">
         <v>615</v>
@@ -9308,7 +9308,7 @@
         <v>285</v>
       </c>
       <c r="C292" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D292" t="s">
         <v>616</v>
@@ -9319,10 +9319,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C293" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D293" t="s">
         <v>617</v>
@@ -9333,10 +9333,10 @@
         <v>287</v>
       </c>
       <c r="B294" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C294" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D294" t="s">
         <v>618</v>
@@ -9347,10 +9347,10 @@
         <v>288</v>
       </c>
       <c r="B295" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C295" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D295" t="s">
         <v>619</v>
@@ -9364,7 +9364,7 @@
         <v>289</v>
       </c>
       <c r="C296" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D296" t="s">
         <v>620</v>
@@ -9378,7 +9378,7 @@
         <v>290</v>
       </c>
       <c r="C297" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D297" t="s">
         <v>621</v>
@@ -9389,10 +9389,10 @@
         <v>291</v>
       </c>
       <c r="B298" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C298" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D298" t="s">
         <v>622</v>
@@ -9403,10 +9403,10 @@
         <v>292</v>
       </c>
       <c r="B299" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C299" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D299" t="s">
         <v>623</v>
@@ -9417,10 +9417,10 @@
         <v>293</v>
       </c>
       <c r="B300" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C300" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D300" t="s">
         <v>624</v>
@@ -9434,7 +9434,7 @@
         <v>294</v>
       </c>
       <c r="C301" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D301" t="s">
         <v>625</v>
@@ -9445,10 +9445,10 @@
         <v>295</v>
       </c>
       <c r="B302" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C302" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D302" t="s">
         <v>626</v>
@@ -9462,7 +9462,7 @@
         <v>296</v>
       </c>
       <c r="C303" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D303" t="s">
         <v>627</v>
@@ -9476,7 +9476,7 @@
         <v>297</v>
       </c>
       <c r="C304" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D304" t="s">
         <v>629</v>
@@ -9490,7 +9490,7 @@
         <v>298</v>
       </c>
       <c r="C305" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D305" t="s">
         <v>628</v>
@@ -9504,7 +9504,7 @@
         <v>299</v>
       </c>
       <c r="C306" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D306" t="s">
         <v>630</v>
@@ -9518,7 +9518,7 @@
         <v>300</v>
       </c>
       <c r="C307" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D307" t="s">
         <v>631</v>
@@ -9546,7 +9546,7 @@
         <v>302</v>
       </c>
       <c r="C309" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D309" t="s">
         <v>633</v>
@@ -9560,7 +9560,7 @@
         <v>303</v>
       </c>
       <c r="C310" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D310" t="s">
         <v>634</v>
@@ -9574,7 +9574,7 @@
         <v>304</v>
       </c>
       <c r="C311" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D311" t="s">
         <v>635</v>
@@ -9588,7 +9588,7 @@
         <v>305</v>
       </c>
       <c r="C312" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D312" t="s">
         <v>636</v>
@@ -9599,10 +9599,10 @@
         <v>306</v>
       </c>
       <c r="B313" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C313" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D313" t="s">
         <v>637</v>
@@ -9613,7 +9613,7 @@
         <v>307</v>
       </c>
       <c r="B314" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C314" t="s">
         <v>307</v>
@@ -9641,10 +9641,10 @@
         <v>309</v>
       </c>
       <c r="B316" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D316" t="s">
         <v>640</v>
@@ -9655,7 +9655,7 @@
         <v>310</v>
       </c>
       <c r="B317" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C317" t="s">
         <v>310</v>
@@ -9683,10 +9683,10 @@
         <v>312</v>
       </c>
       <c r="B319" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C319" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D319" t="s">
         <v>643</v>
@@ -9697,10 +9697,10 @@
         <v>313</v>
       </c>
       <c r="B320" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C320" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D320" t="s">
         <v>644</v>
@@ -9711,10 +9711,10 @@
         <v>314</v>
       </c>
       <c r="B321" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D321" t="s">
         <v>645</v>
@@ -9753,10 +9753,10 @@
         <v>317</v>
       </c>
       <c r="B324" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C324" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D324" t="s">
         <v>648</v>
@@ -9767,10 +9767,10 @@
         <v>318</v>
       </c>
       <c r="B325" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D325" t="s">
         <v>649</v>
@@ -9781,10 +9781,10 @@
         <v>319</v>
       </c>
       <c r="B326" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D326" t="s">
         <v>650</v>
@@ -9798,7 +9798,7 @@
         <v>320</v>
       </c>
       <c r="C327" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D327" t="s">
         <v>651</v>
@@ -9809,10 +9809,10 @@
         <v>321</v>
       </c>
       <c r="B328" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C328" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D328" t="s">
         <v>652</v>
@@ -9823,10 +9823,10 @@
         <v>322</v>
       </c>
       <c r="B329" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C329" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D329" t="s">
         <v>653</v>
@@ -9837,7 +9837,7 @@
         <v>323</v>
       </c>
       <c r="B330" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C330" t="s">
         <v>323</v>
@@ -9851,7 +9851,7 @@
         <v>324</v>
       </c>
       <c r="B331" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C331" t="s">
         <v>324</v>
@@ -9868,7 +9868,7 @@
         <v>325</v>
       </c>
       <c r="C332" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D332" t="s">
         <v>656</v>
@@ -9882,7 +9882,7 @@
         <v>326</v>
       </c>
       <c r="C333" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D333" t="s">
         <v>657</v>
@@ -9910,7 +9910,7 @@
         <v>328</v>
       </c>
       <c r="C335" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D335" t="s">
         <v>659</v>
@@ -9924,7 +9924,7 @@
         <v>329</v>
       </c>
       <c r="C336" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D336" t="s">
         <v>660</v>
@@ -9938,7 +9938,7 @@
         <v>330</v>
       </c>
       <c r="C337" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D337" t="s">
         <v>661</v>
@@ -9949,10 +9949,10 @@
         <v>331</v>
       </c>
       <c r="B338" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C338" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D338" t="s">
         <v>662</v>
@@ -9963,7 +9963,7 @@
         <v>332</v>
       </c>
       <c r="B339" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C339" t="s">
         <v>332</v>
@@ -9980,7 +9980,7 @@
         <v>333</v>
       </c>
       <c r="C340" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D340" t="s">
         <v>664</v>
@@ -9994,7 +9994,7 @@
         <v>334</v>
       </c>
       <c r="C341" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D341" t="s">
         <v>665</v>
@@ -10008,7 +10008,7 @@
         <v>335</v>
       </c>
       <c r="C342" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D342" t="s">
         <v>666</v>
@@ -10019,10 +10019,10 @@
         <v>336</v>
       </c>
       <c r="B343" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C343" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D343" t="s">
         <v>667</v>
@@ -10033,10 +10033,10 @@
         <v>337</v>
       </c>
       <c r="B344" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C344" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D344" t="s">
         <v>668</v>
@@ -10047,10 +10047,10 @@
         <v>338</v>
       </c>
       <c r="B345" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C345" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D345" t="s">
         <v>669</v>
@@ -10061,10 +10061,10 @@
         <v>339</v>
       </c>
       <c r="B346" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C346" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D346" t="s">
         <v>670</v>
@@ -10075,10 +10075,10 @@
         <v>340</v>
       </c>
       <c r="B347" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C347" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D347" t="s">
         <v>671</v>
@@ -10089,10 +10089,10 @@
         <v>341</v>
       </c>
       <c r="B348" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C348" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D348" t="s">
         <v>672</v>
@@ -10103,10 +10103,10 @@
         <v>342</v>
       </c>
       <c r="B349" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C349" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D349" t="s">
         <v>673</v>
@@ -10117,10 +10117,10 @@
         <v>343</v>
       </c>
       <c r="B350" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C350" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D350" t="s">
         <v>674</v>
@@ -10131,10 +10131,10 @@
         <v>344</v>
       </c>
       <c r="B351" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C351" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D351" t="s">
         <v>675</v>
@@ -10148,7 +10148,7 @@
         <v>345</v>
       </c>
       <c r="C352" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D352" t="s">
         <v>676</v>
@@ -10162,7 +10162,7 @@
         <v>346</v>
       </c>
       <c r="C353" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D353" t="s">
         <v>677</v>
@@ -10176,10 +10176,10 @@
         <v>347</v>
       </c>
       <c r="C354" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D354" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -10187,10 +10187,10 @@
         <v>348</v>
       </c>
       <c r="B355" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C355" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D355" t="s">
         <v>678</v>
@@ -10204,7 +10204,7 @@
         <v>349</v>
       </c>
       <c r="C356" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D356" t="s">
         <v>679</v>
@@ -10218,7 +10218,7 @@
         <v>350</v>
       </c>
       <c r="C357" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D357" t="s">
         <v>680</v>
@@ -10226,16 +10226,16 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C358" t="s">
         <v>1045</v>
       </c>
-      <c r="B358" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>1046</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -10243,10 +10243,10 @@
         <v>351</v>
       </c>
       <c r="B359" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C359" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D359" t="s">
         <v>681</v>

--- a/Logos.xlsx
+++ b/Logos.xlsx
@@ -1218,9 +1218,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/College_of_Charleston_Cougars_logo.svg/1200px-College_of_Charleston_Cougars_logo.svg.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c3/Colorado_Buffaloes_wordmark.svg/1200px-Colorado_Buffaloes_wordmark.svg.png</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/1/14/Colorado_State_Rams_logo.svg/1200px-Colorado_State_Rams_logo.svg.png</t>
   </si>
   <si>
@@ -1287,9 +1284,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c1/Eastern_Michigan_Eagles_logo.svg/1200px-Eastern_Michigan_Eagles_logo.svg.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e2/Eastern_Washington_University_wordmark.svg/2880px-Eastern_Washington_University_wordmark.svg.png</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/3/3c/Elon_Phoenix_logo.svg/1200px-Elon_Phoenix_logo.svg.png</t>
   </si>
   <si>
@@ -1476,9 +1470,6 @@
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/5/59/Louisville_Cardinals_logo.svg/1200px-Louisville_Cardinals_logo.svg.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Loyola_Ramblers_wordmark.svg/1200px-Loyola_Ramblers_wordmark.svg.png</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/62/LMU_Lions_logo.svg/1200px-LMU_Lions_logo.svg.png</t>
   </si>
   <si>
@@ -1566,9 +1557,6 @@
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/2/2f/Montana_State_Bobcats_logo.svg/1200px-Montana_State_Bobcats_logo.svg.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/03/Morehead_State_Eagles_wordmark.svg/1200px-Morehead_State_Eagles_wordmark.svg.png</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/2/28/Morgan_State_Wordmark.png</t>
   </si>
   <si>
@@ -1608,9 +1596,6 @@
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/3/30/NJIT_Highlanders_logo.svg/1200px-NJIT_Highlanders_logo.svg.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/b/b9/Norfolk_State_Spartans_wordmark.png</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/96/North_Alabama_Lions_wordmark.svg/1200px-North_Alabama_Lions_wordmark.svg.png</t>
   </si>
   <si>
@@ -1755,9 +1740,6 @@
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/0/03/Saint_Louis_Billikens_logo.svg/1200px-Saint_Louis_Billikens_logo.svg.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/en/thumb/7/7c/Saint_Mary%27s_College_Gaels_logo.svg/1200px-Saint_Mary%27s_College_Gaels_logo.svg.png</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/9/97/Saint_Peter%27s_Peacocks_logo.svg/1024px-Saint_Peter%27s_Peacocks_logo.svg.png</t>
   </si>
   <si>
@@ -3724,6 +3706,24 @@
   </si>
   <si>
     <t>https://cdn.freebiesupply.com/logos/large/2x/ncaa-basketball-logo-png-transparent.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/8/80/Eastern_Washington_Eagles_logo.svg/1200px-Eastern_Washington_Eagles_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/d/d3/Colorado_Buffaloes_logo.svg/1200px-Colorado_Buffaloes_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://a2.espncdn.com/combiner/i?img=%2Fi%2Fteamlogos%2Fncaa%2F500%2F2608.png</t>
+  </si>
+  <si>
+    <t>https://a1.espncdn.com/combiner/i?img=%2Fi%2Fteamlogos%2Fncaa%2F500%2F2350.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/1/12/Morehead_State_Eagles_logo.svg/1200px-Morehead_State_Eagles_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://a2.espncdn.com/combiner/i?img=%2Fi%2Fteamlogos%2Fncaa%2F500%2F2450.png</t>
   </si>
 </sst>
 </file>
@@ -5215,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5231,10 +5231,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -5242,16 +5242,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5259,10 +5259,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C3" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -5276,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -5290,7 +5290,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -5304,7 +5304,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D6" t="s">
         <v>352</v>
@@ -5315,10 +5315,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D7" t="s">
         <v>353</v>
@@ -5329,10 +5329,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C8" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D8" t="s">
         <v>354</v>
@@ -5346,7 +5346,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D9" t="s">
         <v>355</v>
@@ -5357,10 +5357,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="C10" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D10" t="s">
         <v>356</v>
@@ -5374,7 +5374,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D11" t="s">
         <v>357</v>
@@ -5385,10 +5385,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C12" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D12" t="s">
         <v>358</v>
@@ -5402,7 +5402,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D13" t="s">
         <v>359</v>
@@ -5413,10 +5413,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C14" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D14" t="s">
         <v>360</v>
@@ -5430,7 +5430,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D15" t="s">
         <v>361</v>
@@ -5441,10 +5441,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C16" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D16" t="s">
         <v>362</v>
@@ -5455,13 +5455,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C17" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D17" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5472,7 +5472,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D18" t="s">
         <v>363</v>
@@ -5486,7 +5486,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D19" t="s">
         <v>364</v>
@@ -5500,7 +5500,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D20" t="s">
         <v>365</v>
@@ -5511,10 +5511,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="C21" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D21" t="s">
         <v>366</v>
@@ -5528,7 +5528,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D22" t="s">
         <v>367</v>
@@ -5542,7 +5542,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D23" t="s">
         <v>368</v>
@@ -5556,7 +5556,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D24" t="s">
         <v>369</v>
@@ -5564,16 +5564,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B25" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C25" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D25" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5584,7 +5584,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D26" t="s">
         <v>370</v>
@@ -5595,13 +5595,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="C27" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D27" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5609,10 +5609,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C28" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D28" t="s">
         <v>371</v>
@@ -5623,10 +5623,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C29" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D29" t="s">
         <v>372</v>
@@ -5637,10 +5637,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C30" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D30" t="s">
         <v>373</v>
@@ -5648,16 +5648,16 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B31" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C31" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D31" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5668,7 +5668,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D32" t="s">
         <v>374</v>
@@ -5682,7 +5682,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D33" t="s">
         <v>375</v>
@@ -5696,7 +5696,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D34" t="s">
         <v>376</v>
@@ -5710,7 +5710,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D35" t="s">
         <v>377</v>
@@ -5724,7 +5724,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D36" t="s">
         <v>378</v>
@@ -5752,7 +5752,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D38" t="s">
         <v>380</v>
@@ -5766,7 +5766,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D39" t="s">
         <v>381</v>
@@ -5777,10 +5777,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D40" t="s">
         <v>382</v>
@@ -5791,10 +5791,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C41" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D41" t="s">
         <v>383</v>
@@ -5805,10 +5805,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C42" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D42" t="s">
         <v>384</v>
@@ -5822,7 +5822,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D43" t="s">
         <v>385</v>
@@ -5836,7 +5836,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D44" t="s">
         <v>386</v>
@@ -5850,7 +5850,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D45" t="s">
         <v>387</v>
@@ -5861,10 +5861,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C46" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D46" t="s">
         <v>388</v>
@@ -5875,10 +5875,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C47" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D47" t="s">
         <v>389</v>
@@ -5889,10 +5889,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C48" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D48" t="s">
         <v>390</v>
@@ -5903,10 +5903,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C49" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D49" t="s">
         <v>391</v>
@@ -5920,7 +5920,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D50" t="s">
         <v>392</v>
@@ -5934,7 +5934,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D51" t="s">
         <v>393</v>
@@ -5945,13 +5945,13 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C52" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D52" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5962,10 +5962,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D53" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5976,7 +5976,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D54" t="s">
         <v>394</v>
@@ -5987,10 +5987,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C55" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D55" t="s">
         <v>395</v>
@@ -6001,10 +6001,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C56" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D56" t="s">
         <v>396</v>
@@ -6018,7 +6018,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D57" t="s">
         <v>397</v>
@@ -6029,10 +6029,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C58" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D58" t="s">
         <v>398</v>
@@ -6046,10 +6046,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D59" t="s">
-        <v>399</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6057,27 +6057,27 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C60" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B61" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C61" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D61" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6088,10 +6088,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="D62" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6099,27 +6099,27 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C63" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B64" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C64" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D64" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6130,24 +6130,24 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B66" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C66" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D66" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6158,10 +6158,10 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6172,10 +6172,10 @@
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D68" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6186,10 +6186,10 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6197,13 +6197,13 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C70" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6214,10 +6214,10 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D71" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6228,10 +6228,10 @@
         <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6242,10 +6242,10 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D73" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6253,13 +6253,13 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="C74" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6270,10 +6270,10 @@
         <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6284,10 +6284,10 @@
         <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6298,10 +6298,10 @@
         <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -6312,10 +6312,10 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D78" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -6323,13 +6323,13 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C79" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -6337,13 +6337,13 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C80" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D80" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6351,13 +6351,13 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C81" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D81" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6365,13 +6365,13 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C82" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D82" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6379,13 +6379,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="C83" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D83" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -6393,13 +6393,13 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="C84" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D84" t="s">
-        <v>422</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -6410,10 +6410,10 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D85" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -6424,10 +6424,10 @@
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D86" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -6438,10 +6438,10 @@
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D87" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6449,13 +6449,13 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C88" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D88" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -6463,13 +6463,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C89" t="s">
         <v>86</v>
       </c>
       <c r="D89" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6480,10 +6480,10 @@
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D90" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -6494,10 +6494,10 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D91" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6505,13 +6505,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C92" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D92" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -6519,13 +6519,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C93" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D93" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -6533,13 +6533,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="C94" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D94" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -6550,10 +6550,10 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D95" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -6561,13 +6561,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D96" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6575,13 +6575,13 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="C97" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D97" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6592,10 +6592,10 @@
         <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D98" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6603,13 +6603,13 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="C99" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D99" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6617,13 +6617,13 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="C100" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D100" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -6631,13 +6631,13 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="C101" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D101" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6648,10 +6648,10 @@
         <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D102" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -6662,10 +6662,10 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -6673,13 +6673,13 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="C104" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D104" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6687,13 +6687,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="C105" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D105" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6701,13 +6701,13 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="C106" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D106" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6718,10 +6718,10 @@
         <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D107" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -6729,13 +6729,13 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C108" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D108" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6743,13 +6743,13 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C109" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D109" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -6757,13 +6757,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="C110" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D110" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6774,10 +6774,10 @@
         <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D111" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -6788,24 +6788,24 @@
         <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D112" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B113" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C113" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D113" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6816,10 +6816,10 @@
         <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D114" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -6830,10 +6830,10 @@
         <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D115" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6844,10 +6844,10 @@
         <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D116" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6858,10 +6858,10 @@
         <v>113</v>
       </c>
       <c r="C117" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D117" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6872,10 +6872,10 @@
         <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D118" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6883,13 +6883,13 @@
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C119" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D119" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6900,10 +6900,10 @@
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D120" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6914,10 +6914,10 @@
         <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D121" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -6925,13 +6925,13 @@
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="C122" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D122" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6942,10 +6942,10 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D123" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6953,13 +6953,13 @@
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C124" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D124" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6967,13 +6967,13 @@
         <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C125" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D125" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6981,13 +6981,13 @@
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="C126" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D126" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6998,10 +6998,10 @@
         <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D127" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -7009,13 +7009,13 @@
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="C128" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D128" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -7026,10 +7026,10 @@
         <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D129" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -7040,10 +7040,10 @@
         <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D130" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -7051,13 +7051,13 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C131" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D131" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -7068,10 +7068,10 @@
         <v>128</v>
       </c>
       <c r="C132" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D132" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -7079,13 +7079,13 @@
         <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C133" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D133" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -7096,10 +7096,10 @@
         <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="D134" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -7107,13 +7107,13 @@
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="C135" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="D135" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7121,13 +7121,13 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C136" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="D136" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -7138,10 +7138,10 @@
         <v>133</v>
       </c>
       <c r="C137" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="D137" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -7149,13 +7149,13 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="C138" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="D138" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -7163,13 +7163,13 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C139" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D139" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -7177,13 +7177,13 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="C140" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="D140" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -7194,10 +7194,10 @@
         <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D141" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -7208,10 +7208,10 @@
         <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D142" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -7222,10 +7222,10 @@
         <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D143" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -7236,10 +7236,10 @@
         <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="D144" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -7250,10 +7250,10 @@
         <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D145" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -7264,10 +7264,10 @@
         <v>142</v>
       </c>
       <c r="C146" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D146" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -7278,10 +7278,10 @@
         <v>143</v>
       </c>
       <c r="C147" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D147" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -7289,13 +7289,13 @@
         <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="C148" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D148" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -7303,13 +7303,13 @@
         <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C149" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D149" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -7317,13 +7317,13 @@
         <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="C150" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D150" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -7334,10 +7334,10 @@
         <v>147</v>
       </c>
       <c r="C151" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D151" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -7345,13 +7345,13 @@
         <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C152" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D152" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -7359,13 +7359,13 @@
         <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="C153" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D153" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -7373,13 +7373,13 @@
         <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="C154" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D154" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -7390,10 +7390,10 @@
         <v>151</v>
       </c>
       <c r="C155" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D155" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -7401,13 +7401,13 @@
         <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="C156" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D156" t="s">
-        <v>485</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -7415,13 +7415,13 @@
         <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="C157" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="D157" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -7429,13 +7429,13 @@
         <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C158" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D158" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -7449,7 +7449,7 @@
         <v>155</v>
       </c>
       <c r="D159" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -7460,10 +7460,10 @@
         <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D160" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7474,10 +7474,10 @@
         <v>157</v>
       </c>
       <c r="C161" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D161" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7488,10 +7488,10 @@
         <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D162" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7502,10 +7502,10 @@
         <v>159</v>
       </c>
       <c r="C163" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="D163" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7516,10 +7516,10 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D164" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -7530,24 +7530,24 @@
         <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D165" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="B166" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D166" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7555,13 +7555,13 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="C167" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="D167" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7569,13 +7569,13 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C168" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="D168" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -7586,10 +7586,10 @@
         <v>164</v>
       </c>
       <c r="C169" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D169" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -7600,10 +7600,10 @@
         <v>165</v>
       </c>
       <c r="C170" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="D170" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -7614,10 +7614,10 @@
         <v>166</v>
       </c>
       <c r="C171" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="D171" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -7625,13 +7625,13 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="C172" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D172" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -7639,13 +7639,13 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C173" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D173" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -7656,10 +7656,10 @@
         <v>169</v>
       </c>
       <c r="C174" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="D174" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7667,13 +7667,13 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="C175" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D175" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -7681,13 +7681,13 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="C176" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D176" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -7695,13 +7695,13 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="C177" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D177" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -7712,10 +7712,10 @@
         <v>173</v>
       </c>
       <c r="C178" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D178" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -7726,10 +7726,10 @@
         <v>174</v>
       </c>
       <c r="C179" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="D179" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -7737,13 +7737,13 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="C180" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D180" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -7751,13 +7751,13 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C181" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="D181" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7768,10 +7768,10 @@
         <v>177</v>
       </c>
       <c r="C182" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D182" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -7779,13 +7779,13 @@
         <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="C183" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="D183" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -7796,10 +7796,10 @@
         <v>179</v>
       </c>
       <c r="C184" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D184" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -7810,10 +7810,10 @@
         <v>180</v>
       </c>
       <c r="C185" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D185" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -7821,13 +7821,13 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C186" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="D186" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -7835,13 +7835,13 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="C187" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="D187" t="s">
-        <v>515</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -7849,13 +7849,13 @@
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C188" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="D188" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -7863,13 +7863,13 @@
         <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C189" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="D189" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -7877,13 +7877,13 @@
         <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C190" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="D190" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -7894,10 +7894,10 @@
         <v>186</v>
       </c>
       <c r="C191" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="D191" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -7908,10 +7908,10 @@
         <v>187</v>
       </c>
       <c r="C192" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D192" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -7919,13 +7919,13 @@
         <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C193" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="D193" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -7936,10 +7936,10 @@
         <v>189</v>
       </c>
       <c r="C194" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="D194" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -7947,13 +7947,13 @@
         <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C195" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="D195" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -7964,10 +7964,10 @@
         <v>191</v>
       </c>
       <c r="C196" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="D196" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -7975,13 +7975,13 @@
         <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C197" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="D197" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -7992,10 +7992,10 @@
         <v>193</v>
       </c>
       <c r="C198" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="D198" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -8006,10 +8006,10 @@
         <v>194</v>
       </c>
       <c r="C199" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D199" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -8017,13 +8017,13 @@
         <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="C200" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D200" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -8037,7 +8037,7 @@
         <v>196</v>
       </c>
       <c r="D201" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -8045,13 +8045,13 @@
         <v>197</v>
       </c>
       <c r="B202" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C202" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D202" t="s">
-        <v>529</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -8059,13 +8059,13 @@
         <v>198</v>
       </c>
       <c r="B203" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="C203" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D203" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -8073,13 +8073,13 @@
         <v>199</v>
       </c>
       <c r="B204" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="C204" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="D204" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -8087,13 +8087,13 @@
         <v>200</v>
       </c>
       <c r="B205" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C205" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D205" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -8101,13 +8101,13 @@
         <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="C206" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D206" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -8115,13 +8115,13 @@
         <v>202</v>
       </c>
       <c r="B207" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C207" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D207" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -8132,10 +8132,10 @@
         <v>203</v>
       </c>
       <c r="C208" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="D208" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -8143,13 +8143,13 @@
         <v>204</v>
       </c>
       <c r="B209" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="C209" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D209" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -8157,13 +8157,13 @@
         <v>205</v>
       </c>
       <c r="B210" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C210" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D210" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -8174,10 +8174,10 @@
         <v>206</v>
       </c>
       <c r="C211" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="D211" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -8185,13 +8185,13 @@
         <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="C212" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="D212" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -8199,13 +8199,13 @@
         <v>208</v>
       </c>
       <c r="B213" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C213" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="D213" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -8213,13 +8213,13 @@
         <v>209</v>
       </c>
       <c r="B214" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C214" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D214" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -8227,13 +8227,13 @@
         <v>210</v>
       </c>
       <c r="B215" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C215" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="D215" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -8241,13 +8241,13 @@
         <v>211</v>
       </c>
       <c r="B216" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="C216" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="D216" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -8255,13 +8255,13 @@
         <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="C217" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="D217" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -8272,10 +8272,10 @@
         <v>213</v>
       </c>
       <c r="C218" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D218" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -8283,13 +8283,13 @@
         <v>214</v>
       </c>
       <c r="B219" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C219" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D219" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -8300,10 +8300,10 @@
         <v>215</v>
       </c>
       <c r="C220" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="D220" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -8314,10 +8314,10 @@
         <v>216</v>
       </c>
       <c r="C221" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="D221" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -8328,10 +8328,10 @@
         <v>217</v>
       </c>
       <c r="C222" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D222" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -8339,13 +8339,13 @@
         <v>218</v>
       </c>
       <c r="B223" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C223" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="D223" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -8356,10 +8356,10 @@
         <v>219</v>
       </c>
       <c r="C224" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D224" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -8367,13 +8367,13 @@
         <v>220</v>
       </c>
       <c r="B225" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C225" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D225" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -8384,10 +8384,10 @@
         <v>221</v>
       </c>
       <c r="C226" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D226" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -8398,10 +8398,10 @@
         <v>222</v>
       </c>
       <c r="C227" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="D227" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -8412,10 +8412,10 @@
         <v>223</v>
       </c>
       <c r="C228" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D228" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -8423,13 +8423,13 @@
         <v>224</v>
       </c>
       <c r="B229" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C229" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="D229" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -8440,10 +8440,10 @@
         <v>225</v>
       </c>
       <c r="C230" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="D230" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -8451,27 +8451,27 @@
         <v>226</v>
       </c>
       <c r="B231" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C231" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D231" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B232" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C232" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="D232" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -8482,10 +8482,10 @@
         <v>227</v>
       </c>
       <c r="C233" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="D233" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -8496,10 +8496,10 @@
         <v>228</v>
       </c>
       <c r="C234" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="D234" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -8510,10 +8510,10 @@
         <v>229</v>
       </c>
       <c r="C235" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="D235" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -8521,13 +8521,13 @@
         <v>230</v>
       </c>
       <c r="B236" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="C236" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D236" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -8535,13 +8535,13 @@
         <v>231</v>
       </c>
       <c r="B237" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="C237" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="D237" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -8552,24 +8552,24 @@
         <v>232</v>
       </c>
       <c r="C238" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D238" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="B239" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C239" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D239" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -8580,10 +8580,10 @@
         <v>233</v>
       </c>
       <c r="C240" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="D240" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -8594,10 +8594,10 @@
         <v>234</v>
       </c>
       <c r="C241" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D241" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -8608,10 +8608,10 @@
         <v>235</v>
       </c>
       <c r="C242" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D242" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -8622,10 +8622,10 @@
         <v>236</v>
       </c>
       <c r="C243" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D243" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -8636,10 +8636,10 @@
         <v>237</v>
       </c>
       <c r="C244" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="D244" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -8650,10 +8650,10 @@
         <v>238</v>
       </c>
       <c r="C245" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D245" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -8664,10 +8664,10 @@
         <v>239</v>
       </c>
       <c r="C246" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="D246" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -8678,10 +8678,10 @@
         <v>240</v>
       </c>
       <c r="C247" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D247" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -8689,13 +8689,13 @@
         <v>241</v>
       </c>
       <c r="B248" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D248" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -8706,10 +8706,10 @@
         <v>242</v>
       </c>
       <c r="C249" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D249" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -8717,13 +8717,13 @@
         <v>243</v>
       </c>
       <c r="B250" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C250" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D250" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -8731,13 +8731,13 @@
         <v>244</v>
       </c>
       <c r="B251" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="C251" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="D251" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -8745,13 +8745,13 @@
         <v>245</v>
       </c>
       <c r="B252" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="C252" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="D252" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -8762,10 +8762,10 @@
         <v>246</v>
       </c>
       <c r="C253" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="D253" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -8773,13 +8773,13 @@
         <v>247</v>
       </c>
       <c r="B254" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C254" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="D254" t="s">
-        <v>578</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -8787,13 +8787,13 @@
         <v>248</v>
       </c>
       <c r="B255" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C255" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D255" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -8801,13 +8801,13 @@
         <v>249</v>
       </c>
       <c r="B256" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="C256" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="D256" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -8818,10 +8818,10 @@
         <v>250</v>
       </c>
       <c r="C257" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D257" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -8832,10 +8832,10 @@
         <v>251</v>
       </c>
       <c r="C258" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="D258" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -8843,13 +8843,13 @@
         <v>252</v>
       </c>
       <c r="B259" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="C259" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="D259" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -8857,13 +8857,13 @@
         <v>253</v>
       </c>
       <c r="B260" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="C260" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="D260" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -8871,13 +8871,13 @@
         <v>254</v>
       </c>
       <c r="B261" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C261" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D261" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -8888,10 +8888,10 @@
         <v>255</v>
       </c>
       <c r="C262" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="D262" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -8902,10 +8902,10 @@
         <v>256</v>
       </c>
       <c r="C263" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D263" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -8916,10 +8916,10 @@
         <v>257</v>
       </c>
       <c r="C264" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="D264" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -8930,10 +8930,10 @@
         <v>258</v>
       </c>
       <c r="C265" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D265" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -8941,13 +8941,13 @@
         <v>259</v>
       </c>
       <c r="B266" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="C266" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="D266" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -8955,13 +8955,13 @@
         <v>260</v>
       </c>
       <c r="B267" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="C267" t="s">
         <v>260</v>
       </c>
       <c r="D267" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -8969,13 +8969,13 @@
         <v>261</v>
       </c>
       <c r="B268" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C268" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="D268" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -8983,13 +8983,13 @@
         <v>262</v>
       </c>
       <c r="B269" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C269" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D269" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -8997,13 +8997,13 @@
         <v>263</v>
       </c>
       <c r="B270" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="C270" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="D270" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -9014,10 +9014,10 @@
         <v>264</v>
       </c>
       <c r="C271" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D271" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -9025,13 +9025,13 @@
         <v>265</v>
       </c>
       <c r="B272" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="C272" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="D272" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -9039,13 +9039,13 @@
         <v>266</v>
       </c>
       <c r="B273" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="C273" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="D273" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -9053,13 +9053,13 @@
         <v>267</v>
       </c>
       <c r="B274" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C274" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D274" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -9067,13 +9067,13 @@
         <v>268</v>
       </c>
       <c r="B275" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C275" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D275" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -9084,10 +9084,10 @@
         <v>269</v>
       </c>
       <c r="C276" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="D276" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -9095,13 +9095,13 @@
         <v>270</v>
       </c>
       <c r="B277" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C277" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="D277" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -9109,13 +9109,13 @@
         <v>271</v>
       </c>
       <c r="B278" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C278" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="D278" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -9123,13 +9123,13 @@
         <v>272</v>
       </c>
       <c r="B279" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C279" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="D279" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -9137,13 +9137,13 @@
         <v>273</v>
       </c>
       <c r="B280" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="C280" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D280" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -9151,13 +9151,13 @@
         <v>274</v>
       </c>
       <c r="B281" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="C281" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="D281" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -9165,13 +9165,13 @@
         <v>275</v>
       </c>
       <c r="B282" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="C282" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D282" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -9179,13 +9179,13 @@
         <v>276</v>
       </c>
       <c r="B283" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C283" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D283" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -9196,10 +9196,10 @@
         <v>277</v>
       </c>
       <c r="C284" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D284" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -9207,13 +9207,13 @@
         <v>278</v>
       </c>
       <c r="B285" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="C285" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="D285" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -9224,10 +9224,10 @@
         <v>279</v>
       </c>
       <c r="C286" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D286" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -9238,10 +9238,10 @@
         <v>280</v>
       </c>
       <c r="C287" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D287" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -9252,10 +9252,10 @@
         <v>281</v>
       </c>
       <c r="C288" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D288" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -9263,13 +9263,13 @@
         <v>282</v>
       </c>
       <c r="B289" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C289" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D289" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -9277,13 +9277,13 @@
         <v>283</v>
       </c>
       <c r="B290" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="C290" t="s">
         <v>283</v>
       </c>
       <c r="D290" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -9294,10 +9294,10 @@
         <v>284</v>
       </c>
       <c r="C291" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D291" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -9308,10 +9308,10 @@
         <v>285</v>
       </c>
       <c r="C292" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D292" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -9319,13 +9319,13 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="C293" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D293" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -9333,13 +9333,13 @@
         <v>287</v>
       </c>
       <c r="B294" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C294" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="D294" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -9347,13 +9347,13 @@
         <v>288</v>
       </c>
       <c r="B295" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="C295" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="D295" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -9364,10 +9364,10 @@
         <v>289</v>
       </c>
       <c r="C296" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D296" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -9378,10 +9378,10 @@
         <v>290</v>
       </c>
       <c r="C297" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D297" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -9389,13 +9389,13 @@
         <v>291</v>
       </c>
       <c r="B298" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="C298" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="D298" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -9403,13 +9403,13 @@
         <v>292</v>
       </c>
       <c r="B299" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="C299" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="D299" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -9417,13 +9417,13 @@
         <v>293</v>
       </c>
       <c r="B300" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="C300" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="D300" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -9434,10 +9434,10 @@
         <v>294</v>
       </c>
       <c r="C301" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="D301" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -9445,13 +9445,13 @@
         <v>295</v>
       </c>
       <c r="B302" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C302" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D302" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -9462,10 +9462,10 @@
         <v>296</v>
       </c>
       <c r="C303" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D303" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -9476,10 +9476,10 @@
         <v>297</v>
       </c>
       <c r="C304" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D304" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -9490,10 +9490,10 @@
         <v>298</v>
       </c>
       <c r="C305" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="D305" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -9504,10 +9504,10 @@
         <v>299</v>
       </c>
       <c r="C306" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D306" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -9518,10 +9518,10 @@
         <v>300</v>
       </c>
       <c r="C307" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D307" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -9535,7 +9535,7 @@
         <v>301</v>
       </c>
       <c r="D308" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -9546,10 +9546,10 @@
         <v>302</v>
       </c>
       <c r="C309" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D309" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -9560,10 +9560,10 @@
         <v>303</v>
       </c>
       <c r="C310" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D310" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -9574,10 +9574,10 @@
         <v>304</v>
       </c>
       <c r="C311" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D311" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -9588,10 +9588,10 @@
         <v>305</v>
       </c>
       <c r="C312" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D312" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -9599,13 +9599,13 @@
         <v>306</v>
       </c>
       <c r="B313" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="C313" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D313" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -9613,13 +9613,13 @@
         <v>307</v>
       </c>
       <c r="B314" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C314" t="s">
         <v>307</v>
       </c>
       <c r="D314" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -9633,7 +9633,7 @@
         <v>308</v>
       </c>
       <c r="D315" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -9641,13 +9641,13 @@
         <v>309</v>
       </c>
       <c r="B316" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="D316" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -9655,13 +9655,13 @@
         <v>310</v>
       </c>
       <c r="B317" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="C317" t="s">
         <v>310</v>
       </c>
       <c r="D317" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -9675,7 +9675,7 @@
         <v>311</v>
       </c>
       <c r="D318" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -9683,13 +9683,13 @@
         <v>312</v>
       </c>
       <c r="B319" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="C319" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D319" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -9697,13 +9697,13 @@
         <v>313</v>
       </c>
       <c r="B320" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C320" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D320" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -9711,13 +9711,13 @@
         <v>314</v>
       </c>
       <c r="B321" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D321" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -9731,7 +9731,7 @@
         <v>315</v>
       </c>
       <c r="D322" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -9745,7 +9745,7 @@
         <v>316</v>
       </c>
       <c r="D323" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -9753,13 +9753,13 @@
         <v>317</v>
       </c>
       <c r="B324" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C324" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D324" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -9767,13 +9767,13 @@
         <v>318</v>
       </c>
       <c r="B325" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D325" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -9781,13 +9781,13 @@
         <v>319</v>
       </c>
       <c r="B326" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D326" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -9798,10 +9798,10 @@
         <v>320</v>
       </c>
       <c r="C327" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D327" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -9809,13 +9809,13 @@
         <v>321</v>
       </c>
       <c r="B328" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="C328" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D328" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -9823,13 +9823,13 @@
         <v>322</v>
       </c>
       <c r="B329" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="C329" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D329" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -9837,13 +9837,13 @@
         <v>323</v>
       </c>
       <c r="B330" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="C330" t="s">
         <v>323</v>
       </c>
       <c r="D330" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -9851,13 +9851,13 @@
         <v>324</v>
       </c>
       <c r="B331" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C331" t="s">
         <v>324</v>
       </c>
       <c r="D331" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -9868,10 +9868,10 @@
         <v>325</v>
       </c>
       <c r="C332" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D332" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -9882,10 +9882,10 @@
         <v>326</v>
       </c>
       <c r="C333" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D333" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -9899,7 +9899,7 @@
         <v>327</v>
       </c>
       <c r="D334" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -9910,10 +9910,10 @@
         <v>328</v>
       </c>
       <c r="C335" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D335" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -9924,10 +9924,10 @@
         <v>329</v>
       </c>
       <c r="C336" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D336" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -9938,10 +9938,10 @@
         <v>330</v>
       </c>
       <c r="C337" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D337" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -9949,13 +9949,13 @@
         <v>331</v>
       </c>
       <c r="B338" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="C338" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D338" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -9963,13 +9963,13 @@
         <v>332</v>
       </c>
       <c r="B339" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="C339" t="s">
         <v>332</v>
       </c>
       <c r="D339" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -9980,10 +9980,10 @@
         <v>333</v>
       </c>
       <c r="C340" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D340" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -9994,10 +9994,10 @@
         <v>334</v>
       </c>
       <c r="C341" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D341" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -10008,10 +10008,10 @@
         <v>335</v>
       </c>
       <c r="C342" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D342" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -10019,13 +10019,13 @@
         <v>336</v>
       </c>
       <c r="B343" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="C343" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D343" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -10033,13 +10033,13 @@
         <v>337</v>
       </c>
       <c r="B344" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C344" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D344" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -10047,13 +10047,13 @@
         <v>338</v>
       </c>
       <c r="B345" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="C345" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D345" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -10061,13 +10061,13 @@
         <v>339</v>
       </c>
       <c r="B346" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C346" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D346" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -10075,13 +10075,13 @@
         <v>340</v>
       </c>
       <c r="B347" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="C347" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D347" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -10089,13 +10089,13 @@
         <v>341</v>
       </c>
       <c r="B348" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="C348" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="D348" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -10103,13 +10103,13 @@
         <v>342</v>
       </c>
       <c r="B349" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C349" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D349" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -10117,13 +10117,13 @@
         <v>343</v>
       </c>
       <c r="B350" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C350" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D350" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -10131,13 +10131,13 @@
         <v>344</v>
       </c>
       <c r="B351" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C351" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D351" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -10148,10 +10148,10 @@
         <v>345</v>
       </c>
       <c r="C352" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D352" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -10162,10 +10162,10 @@
         <v>346</v>
       </c>
       <c r="C353" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D353" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -10176,10 +10176,10 @@
         <v>347</v>
       </c>
       <c r="C354" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D354" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -10187,13 +10187,13 @@
         <v>348</v>
       </c>
       <c r="B355" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C355" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D355" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -10204,10 +10204,10 @@
         <v>349</v>
       </c>
       <c r="C356" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="D356" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -10218,24 +10218,24 @@
         <v>350</v>
       </c>
       <c r="C357" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D357" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B358" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C358" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D358" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -10243,13 +10243,13 @@
         <v>351</v>
       </c>
       <c r="B359" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="C359" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="D359" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/Logos.xlsx
+++ b/Logos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1236">
   <si>
     <t>TEAM</t>
   </si>
@@ -3724,6 +3724,9 @@
   </si>
   <si>
     <t>https://a2.espncdn.com/combiner/i?img=%2Fi%2Fteamlogos%2Fncaa%2F500%2F2450.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/d/db/Delaware_State_Hornets_logo.svg/1200px-Delaware_State_Hornets_logo.svg.png</t>
   </si>
 </sst>
 </file>
@@ -5215,8 +5218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6203,7 +6206,7 @@
         <v>766</v>
       </c>
       <c r="D70" t="s">
-        <v>407</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="71" spans="1:4">

--- a/Logos.xlsx
+++ b/Logos.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh24pC+ay98ADZ4AoJiCeCYg+q2lg=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="34gt9QYdMeOompwA+kEkVGJ9/Zcvdve/5CmhSRfjrDM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="1025">
   <si>
     <t>TEAM</t>
   </si>
@@ -2863,6 +2863,9 @@
   </si>
   <si>
     <t>VCU</t>
+  </si>
+  <si>
+    <t>https://content.sportslogos.net/logos/35/899/full/virginia_commonwealth_rams_logo_primary_20149157.png</t>
   </si>
   <si>
     <t>VMI</t>
@@ -8139,403 +8142,403 @@
       <c r="B337" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="C337" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="D337" s="5" t="s">
-        <v>816</v>
+      <c r="C337" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D337" s="7" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="C338" s="3" t="s">
-        <v>949</v>
-      </c>
       <c r="D338" s="5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B344" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C344" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="C344" s="3" t="s">
-        <v>962</v>
-      </c>
       <c r="D344" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B350" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="C350" s="3" t="s">
-        <v>979</v>
-      </c>
       <c r="D350" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B351" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C351" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="C351" s="3" t="s">
-        <v>982</v>
-      </c>
       <c r="D351" s="5" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B352" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="C352" s="3" t="s">
-        <v>985</v>
-      </c>
       <c r="D352" s="5" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="3" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B353" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="C353" s="3" t="s">
-        <v>988</v>
-      </c>
       <c r="D353" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B354" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C354" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="C354" s="3" t="s">
-        <v>991</v>
-      </c>
       <c r="D354" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D361" s="5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="8" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">

--- a/Logos.xlsx
+++ b/Logos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1086">
   <si>
     <t xml:space="preserve">TEAM</t>
   </si>
@@ -23,12 +23,15 @@
     <t xml:space="preserve">SportsLogosName</t>
   </si>
   <si>
+    <t xml:space="preserve">ncaa_team_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCAA_ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOGO</t>
   </si>
   <si>
-    <t xml:space="preserve">NCAA_ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abilene Christian</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t xml:space="preserve">Albany</t>
   </si>
   <si>
+    <t xml:space="preserve">UAlbany</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/818/full/4469_albany_great_danes-primary-2020.png</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t xml:space="preserve">Alcorn State</t>
   </si>
   <si>
+    <t xml:space="preserve">Alcorn</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/600/full/3087_alcorn_state_braves-primary-2017.png</t>
   </si>
   <si>
@@ -149,6 +158,9 @@
     <t xml:space="preserve">Arkansas-PB</t>
   </si>
   <si>
+    <t xml:space="preserve">Ark.-Pine Bluff</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/608/full/arkansas-pb_golden_lions_logo_primary_20143758.png</t>
   </si>
   <si>
@@ -167,6 +179,9 @@
     <t xml:space="preserve">Army</t>
   </si>
   <si>
+    <t xml:space="preserve">Army West Point</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/609/full/army_black_knights_logo_primary_20153532.png</t>
   </si>
   <si>
@@ -266,6 +281,9 @@
     <t xml:space="preserve">Boston U</t>
   </si>
   <si>
+    <t xml:space="preserve">Boston U.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/619/full/boston_university_terriers_logo_primary_2015_sportslogosnet-1121.png</t>
   </si>
   <si>
@@ -362,6 +380,9 @@
     <t xml:space="preserve">Cal State Northridge</t>
   </si>
   <si>
+    <t xml:space="preserve">CSUN</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/628/full/9784_cal_state_northridge_matadors-primary-2014.png</t>
   </si>
   <si>
@@ -389,6 +410,9 @@
     <t xml:space="preserve">Central Ark</t>
   </si>
   <si>
+    <t xml:space="preserve">Central Ark.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/5028/full/central_arkansas_bears_logo_primary_2017_sportslogosnet-5177.png</t>
   </si>
   <si>
@@ -398,6 +422,9 @@
     <t xml:space="preserve">Central Conn</t>
   </si>
   <si>
+    <t xml:space="preserve">Central Conn. St.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/634/full/1735_ccsu_blue_devils-primary-2012.png</t>
   </si>
   <si>
@@ -407,6 +434,9 @@
     <t xml:space="preserve">Central Mich</t>
   </si>
   <si>
+    <t xml:space="preserve">Central Mich.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/636/full/6843.png</t>
   </si>
   <si>
@@ -419,6 +449,9 @@
     <t xml:space="preserve">CSU</t>
   </si>
   <si>
+    <t xml:space="preserve">Charleston So.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/638/full/csu_buccaneers_logo_primary_2021_sportslogosnet-2659.png</t>
   </si>
   <si>
@@ -491,6 +524,9 @@
     <t xml:space="preserve">Col Charlestn</t>
   </si>
   <si>
+    <t xml:space="preserve">Col. of Charleston</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/637/full/college_of_charleston_cougars_logo_primary_20138537.png</t>
   </si>
   <si>
@@ -602,6 +638,9 @@
     <t xml:space="preserve">Detroit</t>
   </si>
   <si>
+    <t xml:space="preserve">Detroit Mercy</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/660/full/detroit_titans_logo_primary_20169620.png</t>
   </si>
   <si>
@@ -656,6 +695,9 @@
     <t xml:space="preserve">E Illinois</t>
   </si>
   <si>
+    <t xml:space="preserve">Eastern Ill.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/667/full/eastern_illinois_panthers_logo_primary_20156069.png</t>
   </si>
   <si>
@@ -665,6 +707,9 @@
     <t xml:space="preserve">E Kentucky</t>
   </si>
   <si>
+    <t xml:space="preserve">Eastern Ky.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/668/full/eastern_kentucky_colonels_logo_primary_2017_sportslogosnet-1555.png</t>
   </si>
   <si>
@@ -674,6 +719,9 @@
     <t xml:space="preserve">E Michigan</t>
   </si>
   <si>
+    <t xml:space="preserve">Eastern Mich.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/669/full/8844_eastern_michigan_eagles-primary-2013.png</t>
   </si>
   <si>
@@ -683,6 +731,9 @@
     <t xml:space="preserve">E Washingtn</t>
   </si>
   <si>
+    <t xml:space="preserve">Eastern Wash.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/670/full/6878.png</t>
   </si>
   <si>
@@ -743,6 +794,9 @@
     <t xml:space="preserve">Fla Atlantic</t>
   </si>
   <si>
+    <t xml:space="preserve">Fla. Atlantic</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/677/full/florida_atlantic_owls_logo_primary_2023_sportslogosnet-9332.png</t>
   </si>
   <si>
@@ -752,6 +806,9 @@
     <t xml:space="preserve">Fla Gulf Cst</t>
   </si>
   <si>
+    <t xml:space="preserve">FGCU</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/4946/full/florida_gulf_coast_eagles_logo_primary_2023_sportslogosnet-6447.png</t>
   </si>
   <si>
@@ -779,6 +836,9 @@
     <t xml:space="preserve">IPFW</t>
   </si>
   <si>
+    <t xml:space="preserve">Purdue Fort Wayne</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/6268/full/2796_fort_wayne__mastodons-primary-2016.png</t>
   </si>
   <si>
@@ -848,6 +908,9 @@
     <t xml:space="preserve">GA Southern</t>
   </si>
   <si>
+    <t xml:space="preserve">Ga. Southern</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/688/full/georgia_southern_eagles_logo_primary_2016_sportslogosnet-7753.png</t>
   </si>
   <si>
@@ -887,6 +950,9 @@
     <t xml:space="preserve">Grambling State</t>
   </si>
   <si>
+    <t xml:space="preserve">Grambling</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/692/full/4181_grambling_state_tigers-primary-1997.png</t>
   </si>
   <si>
@@ -917,12 +983,6 @@
     <t xml:space="preserve">https://content.sportslogos.net/logos/31/693/full/v5qq5g21hwe2twrfggxhgh8j1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Hartford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://content.sportslogos.net/logos/31/694/full/3944_hartford_hawks-primary-2015.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">Harvard</t>
   </si>
   <si>
@@ -1016,6 +1076,9 @@
     <t xml:space="preserve">Illinois-Chicago</t>
   </si>
   <si>
+    <t xml:space="preserve">UIC</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/708/full/illinois-chicago_flames_logo_primary_2020_sportslogosnet-4770.png</t>
   </si>
   <si>
@@ -1037,6 +1100,9 @@
     <t xml:space="preserve">Incar Word</t>
   </si>
   <si>
+    <t xml:space="preserve">UIW</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/5075/full/7473_incarnate_word__cardinals-secondary-2011.png</t>
   </si>
   <si>
@@ -1199,6 +1265,9 @@
     <t xml:space="preserve">Lamar</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamar University</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/726/full/1htioevlhiz6gi9bqhiwavorf.gif</t>
   </si>
   <si>
@@ -1271,6 +1340,9 @@
     <t xml:space="preserve">Louisiana-Monroe</t>
   </si>
   <si>
+    <t xml:space="preserve">ULM</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/733/full/louisiana-monroe_warhawks_logo_primary_20187644.png</t>
   </si>
   <si>
@@ -1310,6 +1382,9 @@
     <t xml:space="preserve">Loyola-Maryland</t>
   </si>
   <si>
+    <t xml:space="preserve">Loyola Maryland</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/736/full/loyola-maryland_greyhounds_logo_primary_2019_sportslogosnet-6756.png</t>
   </si>
   <si>
@@ -1319,6 +1394,9 @@
     <t xml:space="preserve">Loyola Mymt</t>
   </si>
   <si>
+    <t xml:space="preserve">LMU (CA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/737/full/2273_loyola_marymount_lions-primary-2019.png</t>
   </si>
   <si>
@@ -1367,6 +1445,9 @@
     <t xml:space="preserve">Maryland-Eastern Shore</t>
   </si>
   <si>
+    <t xml:space="preserve">UMES</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/744/full/maryland-eastern_shore_hawks_logo_primary_2022_sportslogosnet-1938.png</t>
   </si>
   <si>
@@ -1388,6 +1469,9 @@
     <t xml:space="preserve">McNeese State</t>
   </si>
   <si>
+    <t xml:space="preserve">McNeese</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/745/full/mcneese_state_cowboys_logo_primary_20113800.png</t>
   </si>
   <si>
@@ -1415,6 +1499,9 @@
     <t xml:space="preserve">Miami</t>
   </si>
   <si>
+    <t xml:space="preserve">Miami (FL)</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/748/full/miami_hurricanes_logo_primary_19723285.png</t>
   </si>
   <si>
@@ -1454,6 +1541,9 @@
     <t xml:space="preserve">Middle Tenn</t>
   </si>
   <si>
+    <t xml:space="preserve">Middle Tenn.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/752/full/middle_tennessee_blue_raiders_logo_primary_2019_sportslogosnet-8213.png</t>
   </si>
   <si>
@@ -1478,6 +1568,9 @@
     <t xml:space="preserve">Mississippi</t>
   </si>
   <si>
+    <t xml:space="preserve">Ole Miss</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/754/full/mississippi_rebels_logo_primary_2020_sportslogosnet-1609.png</t>
   </si>
   <si>
@@ -1502,6 +1595,9 @@
     <t xml:space="preserve">MVSU</t>
   </si>
   <si>
+    <t xml:space="preserve">Mississippi Val.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/32/756/full/6924.png</t>
   </si>
   <si>
@@ -1622,6 +1718,9 @@
     <t xml:space="preserve">Nebraska-Omaha</t>
   </si>
   <si>
+    <t xml:space="preserve">Omaha</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/5049/full/6320_nebraska_omaha__mavericks-secondary-2011.png</t>
   </si>
   <si>
@@ -1700,6 +1799,9 @@
     <t xml:space="preserve">N Alabama</t>
   </si>
   <si>
+    <t xml:space="preserve">North Ala.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/4754/full/north_alabama_lions_logo_primary_2022_sportslogosnet-8829.png</t>
   </si>
   <si>
@@ -1721,6 +1823,9 @@
     <t xml:space="preserve">North Carolina AT</t>
   </si>
   <si>
+    <t xml:space="preserve">N.C. A&amp;T</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/776/full/ozen4wrgvfg9ihr086dw.png</t>
   </si>
   <si>
@@ -1733,6 +1838,9 @@
     <t xml:space="preserve">NCCU</t>
   </si>
   <si>
+    <t xml:space="preserve">N.C. Central</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/5020/full/nccu_eagles_logo_primary_20053258.png</t>
   </si>
   <si>
@@ -1799,6 +1907,9 @@
     <t xml:space="preserve">N Arizona</t>
   </si>
   <si>
+    <t xml:space="preserve">Northern Ariz.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/784/full/northern_arizona_lumberjacks_logo_primary_2020_sportslogosnet-4605.png</t>
   </si>
   <si>
@@ -1808,6 +1919,9 @@
     <t xml:space="preserve">N Colorado</t>
   </si>
   <si>
+    <t xml:space="preserve">Northern Colo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/4954/full/northern_colorado_bears_logo_primary_20157270.png</t>
   </si>
   <si>
@@ -1817,6 +1931,9 @@
     <t xml:space="preserve">N Illinois</t>
   </si>
   <si>
+    <t xml:space="preserve">NIU</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/785/full/northern_illinois_huskies_logo_primary_2011_sportslogosnet-3650.png</t>
   </si>
   <si>
@@ -1826,6 +1943,9 @@
     <t xml:space="preserve">N Iowa</t>
   </si>
   <si>
+    <t xml:space="preserve">UNI</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/786/full/northern_iowa_panthers_logo_primary_2021_sportslogosnet-1681.png</t>
   </si>
   <si>
@@ -1835,6 +1955,9 @@
     <t xml:space="preserve">N Kentucky</t>
   </si>
   <si>
+    <t xml:space="preserve">Northern Ky.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/5047/full/northern_kentucky_norse_logo_primary_20164443.png</t>
   </si>
   <si>
@@ -2030,6 +2153,9 @@
     <t xml:space="preserve">Queens</t>
   </si>
   <si>
+    <t xml:space="preserve">Queens (NC)</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/6859/full/queens_royals_logo_primary_2023_sportslogosnet-5281.png</t>
   </si>
   <si>
@@ -2090,6 +2216,9 @@
     <t xml:space="preserve">SIU Edward</t>
   </si>
   <si>
+    <t xml:space="preserve">SIUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/5051/full/siu_edwardsville_cougars_logo_primary_20232151.png</t>
   </si>
   <si>
@@ -2147,6 +2276,9 @@
     <t xml:space="preserve">Saint Marys</t>
   </si>
   <si>
+    <t xml:space="preserve">Saint Mary's (CA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/852/full/saint_marys_gaels_logo_primary_20075686.png</t>
   </si>
   <si>
@@ -2171,6 +2303,9 @@
     <t xml:space="preserve">Sam Houston State</t>
   </si>
   <si>
+    <t xml:space="preserve">Sam Houston</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/823/full/7833_sam_houston_state_bearkats-primary-2020.png</t>
   </si>
   <si>
@@ -2228,6 +2363,9 @@
     <t xml:space="preserve">Seattle</t>
   </si>
   <si>
+    <t xml:space="preserve">Seattle U</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/5052/full/1754_seattle__redhawks-primary-2008.png</t>
   </si>
   <si>
@@ -2297,6 +2435,9 @@
     <t xml:space="preserve">S Florida</t>
   </si>
   <si>
+    <t xml:space="preserve">South Fla.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/837/full/south_florida_bulls_logo_primary_2011_sportslogosnet-9058.png</t>
   </si>
   <si>
@@ -2309,6 +2450,9 @@
     <t xml:space="preserve">SE Missouri State</t>
   </si>
   <si>
+    <t xml:space="preserve">Southeast Mo. St.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/838/full/se_missouri_state_redhawks_logo_primary_20206648.png</t>
   </si>
   <si>
@@ -2318,12 +2462,18 @@
     <t xml:space="preserve">SE Louisiana</t>
   </si>
   <si>
+    <t xml:space="preserve">Southeastern La.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/839/full/southeastern_louisiana_lions_logo_primary_2021_sportslogosnet-3512.png</t>
   </si>
   <si>
     <t xml:space="preserve">Southern</t>
   </si>
   <si>
+    <t xml:space="preserve">Southern U.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/845/full/southern_jaguars_logo_primary_2016_sportslogosnet-7096.png</t>
   </si>
   <si>
@@ -2333,6 +2483,9 @@
     <t xml:space="preserve">S Illinois</t>
   </si>
   <si>
+    <t xml:space="preserve">Southern Ill.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/841/full/4349_southern_illinois_salukis-alternate-2019.png</t>
   </si>
   <si>
@@ -2342,6 +2495,9 @@
     <t xml:space="preserve">S Indiana</t>
   </si>
   <si>
+    <t xml:space="preserve">Southern Ind.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/6860/full/southern_indiana_screaming_eagles_logo_primary_2014_sportslogosnet-1424.png</t>
   </si>
   <si>
@@ -2351,6 +2507,9 @@
     <t xml:space="preserve">S Mississippi</t>
   </si>
   <si>
+    <t xml:space="preserve">Southern Miss.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/843/full/1262_southern_miss_golden_eagles-secondary-2015.png</t>
   </si>
   <si>
@@ -2375,18 +2534,6 @@
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/848/full/st_bonaventure_bonnies_logo_primary_20162682.png</t>
   </si>
   <si>
-    <t xml:space="preserve">St. Francis NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Fran (NY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Francis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://content.sportslogos.net/logos/34/849/full/4780_st_francis__terriers-primary-2013.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">St. Francis PA</t>
   </si>
   <si>
@@ -2396,6 +2543,9 @@
     <t xml:space="preserve">Saint Francis</t>
   </si>
   <si>
+    <t xml:space="preserve">Saint Francis (PA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/821/full/saint_francis_red_flash_logo_primary_2018_sportslogosnet-7517.png</t>
   </si>
   <si>
@@ -2405,6 +2555,9 @@
     <t xml:space="preserve">St Johns</t>
   </si>
   <si>
+    <t xml:space="preserve">St. John's (NY)</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/850/full/st_johns_red_storm_logo_primary_2015_sportslogosnet-3920.png</t>
   </si>
   <si>
@@ -2414,6 +2567,9 @@
     <t xml:space="preserve">St Thomas</t>
   </si>
   <si>
+    <t xml:space="preserve">St. Thomas (MN)</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/6817/full/st_thomas_tommies_logo_primary_2009_sportslogosnet-5410.png</t>
   </si>
   <si>
@@ -2432,6 +2588,9 @@
     <t xml:space="preserve">Stephen F Austin</t>
   </si>
   <si>
+    <t xml:space="preserve">SFA</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/856/full/7471_stephen_f_austin_lumberjacks-primary-20201.png</t>
   </si>
   <si>
@@ -2549,6 +2708,9 @@
     <t xml:space="preserve">AM Commerce</t>
   </si>
   <si>
+    <t xml:space="preserve">Tex. A&amp;M-Commerce</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/30/6863/full/a&amp;m-commerce_lions_logo_primary_2013_sportslogosnet-6740.png</t>
   </si>
   <si>
@@ -2561,6 +2723,9 @@
     <t xml:space="preserve">Texas AM-CC</t>
   </si>
   <si>
+    <t xml:space="preserve">A&amp;M-Corpus Christi</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/34/867/full/texas_a&amp;m-cc_islanders_logo_primary_2022_sportslogosnet-7886.png</t>
   </si>
   <si>
@@ -2756,6 +2921,9 @@
     <t xml:space="preserve">NC-Wilmington</t>
   </si>
   <si>
+    <t xml:space="preserve">UNCW</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/33/780/full/nc-wilmington_seahawks_logo_primary_20154692.png</t>
   </si>
   <si>
@@ -2972,6 +3140,9 @@
     <t xml:space="preserve">W Carolina</t>
   </si>
   <si>
+    <t xml:space="preserve">Western Caro.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/35/2724/full/western_carolina_catamounts_logo_primary_2018_sportslogosnet-9819.png</t>
   </si>
   <si>
@@ -2981,6 +3152,9 @@
     <t xml:space="preserve">W Illinois</t>
   </si>
   <si>
+    <t xml:space="preserve">Western Ill.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/35/908/full/western_illinois_leathernecks_logo_primary_2019_sportslogosnet-5267.png</t>
   </si>
   <si>
@@ -2990,6 +3164,9 @@
     <t xml:space="preserve">W Kentucky</t>
   </si>
   <si>
+    <t xml:space="preserve">Western Ky.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/35/909/full/western_kentucky_hilltoppers_logo_primary_2017_sportslogosnet-1251.png</t>
   </si>
   <si>
@@ -2997,6 +3174,9 @@
   </si>
   <si>
     <t xml:space="preserve">W Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Mich.</t>
   </si>
   <si>
     <t xml:space="preserve">https://content.sportslogos.net/logos/35/910/full/western_michigan_broncos_logo_alternate_2021_sportslogosnet-9901.png</t>
@@ -3437,33 +3617,39 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>560649</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -3471,16 +3657,19 @@
       <c r="E3" t="n">
         <v>561195</v>
       </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -3488,16 +3677,19 @@
       <c r="E4" t="n">
         <v>560651</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -3505,129 +3697,159 @@
       <c r="E5" t="n">
         <v>560658</v>
       </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>560654</v>
       </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7" t="n">
         <v>560655</v>
       </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8"/>
+        <v>24</v>
+      </c>
+      <c r="E8" t="n">
+        <v>560662</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9"/>
+        <v>29</v>
+      </c>
+      <c r="E9" t="n">
+        <v>560664</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n">
         <v>560666</v>
       </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11"/>
+        <v>34</v>
+      </c>
+      <c r="E11" t="n">
+        <v>560667</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
         <v>560672</v>
       </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -3635,5827 +3857,7008 @@
       <c r="E13" t="n">
         <v>560669</v>
       </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
         <v>560676</v>
       </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15"/>
+        <v>48</v>
+      </c>
+      <c r="E15" t="n">
+        <v>560622</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>560674</v>
       </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17"/>
+        <v>55</v>
+      </c>
+      <c r="E17" t="n">
+        <v>561197</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E18" t="n">
         <v>560680</v>
       </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
         <v>560682</v>
       </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
         <v>560702</v>
       </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
         <v>560683</v>
       </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E22" t="n">
         <v>560687</v>
       </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
         <v>561098</v>
       </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E24" t="n">
         <v>560635</v>
       </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25"/>
+        <v>76</v>
+      </c>
+      <c r="E25" t="n">
+        <v>560689</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n">
         <v>560691</v>
       </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" t="n">
         <v>560693</v>
       </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E28" t="n">
         <v>560695</v>
       </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29"/>
+        <v>89</v>
+      </c>
+      <c r="E29" t="n">
+        <v>560696</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E30" t="n">
         <v>560699</v>
       </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E31" t="n">
         <v>560700</v>
       </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E32" t="n">
         <v>560704</v>
       </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E33" t="n">
         <v>560705</v>
       </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E34" t="n">
         <v>560707</v>
       </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E35" t="n">
         <v>560709</v>
       </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E36" t="n">
         <v>560711</v>
       </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37"/>
+        <v>107</v>
+      </c>
+      <c r="E37" t="n">
+        <v>561094</v>
+      </c>
+      <c r="F37" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E38" t="n">
         <v>560712</v>
       </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39"/>
+        <v>113</v>
+      </c>
+      <c r="E39" t="n">
+        <v>560714</v>
+      </c>
+      <c r="F39" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E40" t="n">
         <v>560718</v>
       </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41"/>
+        <v>122</v>
+      </c>
+      <c r="E41" t="n">
+        <v>560723</v>
+      </c>
+      <c r="F41" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E42" t="n">
         <v>560729</v>
       </c>
+      <c r="F42" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E43" t="n">
         <v>560820</v>
       </c>
+      <c r="F43" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E44" t="n">
         <v>560822</v>
       </c>
+      <c r="F44" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45"/>
+        <v>132</v>
+      </c>
+      <c r="E45" t="n">
+        <v>561265</v>
+      </c>
+      <c r="F45" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46"/>
+        <v>136</v>
+      </c>
+      <c r="E46" t="n">
+        <v>560824</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47"/>
+        <v>140</v>
+      </c>
+      <c r="E47" t="n">
+        <v>560828</v>
+      </c>
+      <c r="F47" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48"/>
+        <v>145</v>
+      </c>
+      <c r="E48" t="n">
+        <v>560685</v>
+      </c>
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E49" t="n">
         <v>560798</v>
       </c>
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E50" t="n">
         <v>561164</v>
       </c>
+      <c r="F50" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E51" t="n">
         <v>560830</v>
       </c>
+      <c r="F51" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E52" t="n">
         <v>560832</v>
       </c>
+      <c r="F52" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E53" t="n">
         <v>560836</v>
       </c>
+      <c r="F53" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E54" t="n">
         <v>560838</v>
       </c>
+      <c r="F54" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E55" t="n">
         <v>560840</v>
       </c>
+      <c r="F55" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E56" t="n">
         <v>560843</v>
       </c>
+      <c r="F56" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57"/>
+        <v>170</v>
+      </c>
+      <c r="E57" t="n">
+        <v>560608</v>
+      </c>
+      <c r="F57" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E58" t="n">
         <v>560847</v>
       </c>
+      <c r="F58" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E59" t="n">
         <v>560845</v>
       </c>
+      <c r="F59" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E60" t="n">
         <v>560849</v>
       </c>
+      <c r="F60" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61"/>
+        <v>181</v>
+      </c>
+      <c r="E61" t="n">
+        <v>560851</v>
+      </c>
+      <c r="F61" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E62" t="n">
         <v>560853</v>
       </c>
+      <c r="F62" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E63" t="n">
         <v>560855</v>
       </c>
+      <c r="F63" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E64" t="n">
         <v>560857</v>
       </c>
+      <c r="F64" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E65" t="n">
         <v>560859</v>
       </c>
+      <c r="F65" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E66" t="n">
         <v>560861</v>
       </c>
+      <c r="F66" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E67" t="n">
         <v>560863</v>
       </c>
+      <c r="F67" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D68" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E68" t="n">
         <v>560865</v>
       </c>
+      <c r="F68" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E69" t="n">
         <v>560869</v>
       </c>
+      <c r="F69" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E70" t="n">
         <v>560867</v>
       </c>
+      <c r="F70" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E71" t="n">
         <v>560871</v>
       </c>
+      <c r="F71" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
-      </c>
-      <c r="E72"/>
+        <v>208</v>
+      </c>
+      <c r="E72" t="n">
+        <v>560873</v>
+      </c>
+      <c r="F72" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B73" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D73" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E73" t="n">
         <v>560875</v>
       </c>
+      <c r="F73" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E74" t="n">
         <v>560877</v>
       </c>
+      <c r="F74" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B75" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E75" t="n">
         <v>560879</v>
       </c>
+      <c r="F75" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E76" t="n">
         <v>560881</v>
       </c>
+      <c r="F76" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E77" t="n">
         <v>560883</v>
       </c>
+      <c r="F77" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
-      </c>
-      <c r="E78"/>
+        <v>223</v>
+      </c>
+      <c r="E78" t="n">
+        <v>560885</v>
+      </c>
+      <c r="F78" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
-      </c>
-      <c r="E79"/>
+        <v>227</v>
+      </c>
+      <c r="E79" t="n">
+        <v>560887</v>
+      </c>
+      <c r="F79" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D80" t="s">
-        <v>217</v>
-      </c>
-      <c r="E80"/>
+        <v>231</v>
+      </c>
+      <c r="E80" t="n">
+        <v>560889</v>
+      </c>
+      <c r="F80" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D81" t="s">
-        <v>220</v>
-      </c>
-      <c r="E81"/>
+        <v>235</v>
+      </c>
+      <c r="E81" t="n">
+        <v>560891</v>
+      </c>
+      <c r="F81" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D82" t="s">
-        <v>223</v>
-      </c>
-      <c r="E82"/>
+        <v>239</v>
+      </c>
+      <c r="E82" t="n">
+        <v>560892</v>
+      </c>
+      <c r="F82" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D83" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E83" t="n">
         <v>560610</v>
       </c>
+      <c r="F83" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D84" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="E84" t="n">
         <v>560893</v>
       </c>
+      <c r="F84" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="E85" t="n">
         <v>560903</v>
       </c>
+      <c r="F85" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C86" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D86" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E86" t="n">
         <v>560895</v>
       </c>
+      <c r="F86" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="E87" t="n">
         <v>560897</v>
       </c>
+      <c r="F87" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E88" t="n">
         <v>560908</v>
       </c>
+      <c r="F88" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="D89" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E89" t="n">
         <v>560899</v>
       </c>
+      <c r="F89" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="D90" t="s">
-        <v>243</v>
-      </c>
-      <c r="E90"/>
+        <v>260</v>
+      </c>
+      <c r="E90" t="n">
+        <v>560901</v>
+      </c>
+      <c r="F90" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C91" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
-      </c>
-      <c r="E91"/>
+        <v>264</v>
+      </c>
+      <c r="E91" t="n">
+        <v>560643</v>
+      </c>
+      <c r="F91" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D92" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="E92" t="n">
         <v>560905</v>
       </c>
+      <c r="F92" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D93" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E93" t="n">
         <v>560909</v>
       </c>
+      <c r="F93" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B94" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C94" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="D94" t="s">
-        <v>255</v>
-      </c>
-      <c r="E94"/>
+        <v>274</v>
+      </c>
+      <c r="E94" t="n">
+        <v>560560</v>
+      </c>
+      <c r="F94" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B95" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D95" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E95" t="n">
         <v>560716</v>
       </c>
+      <c r="F95" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B96" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D96" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="E96" t="n">
         <v>560911</v>
       </c>
+      <c r="F96" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B97" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
-      </c>
-      <c r="E97"/>
+        <v>284</v>
+      </c>
+      <c r="E97" t="n">
+        <v>560612</v>
+      </c>
+      <c r="F97" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C98" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="D98" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="E98" t="n">
         <v>560913</v>
       </c>
+      <c r="F98" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="D99" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="E99" t="n">
         <v>560915</v>
       </c>
+      <c r="F99" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="C100" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E100" t="n">
         <v>560917</v>
       </c>
+      <c r="F100" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C101" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="D101" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="E101" t="n">
         <v>560924</v>
       </c>
+      <c r="F101" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C102" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="D102" t="s">
-        <v>278</v>
-      </c>
-      <c r="E102"/>
+        <v>298</v>
+      </c>
+      <c r="E102" t="n">
+        <v>560919</v>
+      </c>
+      <c r="F102" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="B103" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C103" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="D103" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="E103" t="n">
         <v>560920</v>
       </c>
+      <c r="F103" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="C104" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D104" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E104" t="n">
         <v>560922</v>
       </c>
+      <c r="F104" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="D105" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="E105" t="n">
         <v>560926</v>
       </c>
+      <c r="F105" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="C106" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="D106" t="s">
-        <v>291</v>
-      </c>
-      <c r="E106"/>
+        <v>312</v>
+      </c>
+      <c r="E106" t="n">
+        <v>560929</v>
+      </c>
+      <c r="F106" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B107" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="C107" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="D107" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="E107" t="n">
         <v>560614</v>
       </c>
+      <c r="F107" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="B108" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C108" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="D108" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="E108" t="n">
         <v>561249</v>
       </c>
+      <c r="F108" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C109" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="D109" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="E109" t="n">
         <v>560931</v>
       </c>
+      <c r="F109" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="B110" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="C110" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="D110" t="s">
-        <v>302</v>
-      </c>
-      <c r="E110"/>
+        <v>323</v>
+      </c>
+      <c r="E110" t="n">
+        <v>560935</v>
+      </c>
+      <c r="F110" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="C111" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="D111" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="E111" t="n">
-        <v>560935</v>
+        <v>560937</v>
+      </c>
+      <c r="F111" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="C112" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="D112" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="E112" t="n">
-        <v>560937</v>
+        <v>560637</v>
+      </c>
+      <c r="F112" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="C113" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="D113" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="E113" t="n">
-        <v>560637</v>
+        <v>560939</v>
+      </c>
+      <c r="F113" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="B114" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C114" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D114" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="E114" t="n">
-        <v>560939</v>
+        <v>560941</v>
+      </c>
+      <c r="F114" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="B115" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="D115" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="E115" t="n">
-        <v>560941</v>
+        <v>560945</v>
+      </c>
+      <c r="F115" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="C116" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="D116" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="E116" t="n">
-        <v>560945</v>
+        <v>560943</v>
+      </c>
+      <c r="F116" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="C117" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="D117" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="E117" t="n">
-        <v>560943</v>
+        <v>560947</v>
+      </c>
+      <c r="F117" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B118" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="C118" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="D118" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="E118" t="n">
-        <v>560947</v>
+        <v>560624</v>
+      </c>
+      <c r="F118" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B119" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C119" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="D119" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="E119" t="n">
-        <v>560624</v>
+        <v>560951</v>
+      </c>
+      <c r="F119" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B120" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C120" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="D120" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="E120" t="n">
-        <v>560951</v>
+        <v>560949</v>
+      </c>
+      <c r="F120" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="B121" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="C121" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="D121" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="E121" t="n">
-        <v>560949</v>
+        <v>560955</v>
+      </c>
+      <c r="F121" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="B122" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="C122" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="D122" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="E122" t="n">
-        <v>560955</v>
+        <v>560956</v>
+      </c>
+      <c r="F122" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B123" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="C123" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="D123" t="s">
-        <v>334</v>
-      </c>
-      <c r="E123"/>
+        <v>356</v>
+      </c>
+      <c r="E123" t="n">
+        <v>560953</v>
+      </c>
+      <c r="F123" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="B124" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C124" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="D124" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="E124" t="n">
-        <v>560953</v>
+        <v>560631</v>
+      </c>
+      <c r="F124" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="B125" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="C125" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="D125" t="s">
-        <v>341</v>
-      </c>
-      <c r="E125"/>
+        <v>364</v>
+      </c>
+      <c r="E125" t="n">
+        <v>560558</v>
+      </c>
+      <c r="F125" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="C126" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="D126" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="E126" t="n">
-        <v>560558</v>
+        <v>560557</v>
+      </c>
+      <c r="F126" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="B127" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="C127" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="D127" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="E127" t="n">
-        <v>560557</v>
+        <v>560562</v>
+      </c>
+      <c r="F127" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="B128" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="C128" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="D128" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="E128" t="n">
-        <v>560562</v>
+        <v>560567</v>
+      </c>
+      <c r="F128" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="B129" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C129" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="D129" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="E129" t="n">
-        <v>560567</v>
+        <v>560565</v>
+      </c>
+      <c r="F129" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B130" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="C130" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="D130" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="E130" t="n">
-        <v>560565</v>
+        <v>560569</v>
+      </c>
+      <c r="F130" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="B131" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="C131" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="D131" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="E131" t="n">
-        <v>560569</v>
+        <v>560573</v>
+      </c>
+      <c r="F131" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="B132" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C132" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="D132" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="E132" t="n">
-        <v>560573</v>
+        <v>560571</v>
+      </c>
+      <c r="F132" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="B133" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="D133" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="E133" t="n">
-        <v>560571</v>
+        <v>560575</v>
+      </c>
+      <c r="F133" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="B134" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C134" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="D134" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="E134" t="n">
-        <v>560575</v>
+        <v>560579</v>
+      </c>
+      <c r="F134" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="B135" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C135" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="D135" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="E135" t="n">
-        <v>560579</v>
+        <v>560577</v>
+      </c>
+      <c r="F135" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="B136" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="C136" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="D136" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="E136" t="n">
-        <v>560577</v>
+        <v>560616</v>
+      </c>
+      <c r="F136" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="B137" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="C137" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="D137" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="E137" t="n">
-        <v>560616</v>
+        <v>560581</v>
+      </c>
+      <c r="F137" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="B138" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="C138" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="D138" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="E138" t="n">
-        <v>560581</v>
+        <v>560583</v>
+      </c>
+      <c r="F138" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B139" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="C139" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="D139" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="E139" t="n">
-        <v>560583</v>
+        <v>560596</v>
+      </c>
+      <c r="F139" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="B140" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="C140" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="D140" t="s">
-        <v>387</v>
-      </c>
-      <c r="E140"/>
+        <v>410</v>
+      </c>
+      <c r="E140" t="n">
+        <v>560600</v>
+      </c>
+      <c r="F140" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="B141" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="C141" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="D141" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="E141" t="n">
-        <v>560600</v>
+        <v>560585</v>
+      </c>
+      <c r="F141" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="B142" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="C142" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="D142" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="E142" t="n">
-        <v>560585</v>
+        <v>560587</v>
+      </c>
+      <c r="F142" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="B143" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="C143" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="D143" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="E143" t="n">
-        <v>560587</v>
+        <v>560589</v>
+      </c>
+      <c r="F143" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="B144" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="C144" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="D144" t="s">
-        <v>395</v>
-      </c>
-      <c r="E144"/>
+        <v>419</v>
+      </c>
+      <c r="E144" t="n">
+        <v>560591</v>
+      </c>
+      <c r="F144" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="B145" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C145" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="D145" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="E145" t="n">
-        <v>560591</v>
+        <v>560593</v>
+      </c>
+      <c r="F145" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="B146" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="C146" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="D146" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="E146" t="n">
-        <v>560593</v>
+        <v>560555</v>
+      </c>
+      <c r="F146" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="B147" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="C147" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="D147" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="E147" t="n">
-        <v>560555</v>
+        <v>560641</v>
+      </c>
+      <c r="F147" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B148" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="C148" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="D148" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="E148" t="n">
-        <v>560641</v>
+        <v>560678</v>
+      </c>
+      <c r="F148" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="B149" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="C149" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="D149" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="E149" t="n">
-        <v>560678</v>
+        <v>560721</v>
+      </c>
+      <c r="F149" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="B150" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="C150" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="D150" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="E150" t="n">
-        <v>560721</v>
+        <v>560598</v>
+      </c>
+      <c r="F150" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="B151" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="C151" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="D151" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="E151" t="n">
-        <v>560598</v>
+        <v>561145</v>
+      </c>
+      <c r="F151" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="B152" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="C152" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="D152" t="s">
-        <v>415</v>
-      </c>
-      <c r="E152"/>
+        <v>442</v>
+      </c>
+      <c r="E152" t="n">
+        <v>560985</v>
+      </c>
+      <c r="F152" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="B153" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C153" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D153" t="s">
-        <v>419</v>
-      </c>
-      <c r="E153"/>
+        <v>444</v>
+      </c>
+      <c r="E153" t="n">
+        <v>560602</v>
+      </c>
+      <c r="F153" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="B154" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C154" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="D154" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="E154" t="n">
-        <v>560602</v>
+        <v>560604</v>
+      </c>
+      <c r="F154" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="B155" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C155" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="D155" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="E155" t="n">
-        <v>560604</v>
+        <v>560735</v>
+      </c>
+      <c r="F155" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="B156" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="C156" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="D156" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="E156" t="n">
-        <v>560735</v>
+        <v>560731</v>
+      </c>
+      <c r="F156" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="B157" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="C157" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="D157" t="s">
-        <v>432</v>
-      </c>
-      <c r="E157"/>
+        <v>460</v>
+      </c>
+      <c r="E157" t="n">
+        <v>560733</v>
+      </c>
+      <c r="F157" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="B158" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="C158" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="D158" t="s">
-        <v>435</v>
-      </c>
-      <c r="E158"/>
+        <v>462</v>
+      </c>
+      <c r="E158" t="n">
+        <v>560736</v>
+      </c>
+      <c r="F158" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="B159" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="C159" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="D159" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="E159" t="n">
-        <v>560736</v>
+        <v>560738</v>
+      </c>
+      <c r="F159" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="B160" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="C160" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="D160" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="E160" t="n">
-        <v>560738</v>
+        <v>560740</v>
+      </c>
+      <c r="F160" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="B161" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="C161" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="D161" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="E161" t="n">
-        <v>560740</v>
+        <v>560742</v>
+      </c>
+      <c r="F161" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="B162" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="C162" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="D162" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="E162" t="n">
-        <v>560742</v>
+        <v>560744</v>
+      </c>
+      <c r="F162" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="B163" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="C163" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="D163" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="E163" t="n">
-        <v>560744</v>
+        <v>560747</v>
+      </c>
+      <c r="F163" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B164" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="C164" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="D164" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="E164" t="n">
-        <v>560747</v>
+        <v>560750</v>
+      </c>
+      <c r="F164" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="B165" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="C165" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D165" t="s">
-        <v>451</v>
-      </c>
-      <c r="E165"/>
+        <v>479</v>
+      </c>
+      <c r="E165" t="n">
+        <v>560752</v>
+      </c>
+      <c r="F165" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="B166" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="C166" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="D166" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="E166" t="n">
-        <v>560752</v>
+        <v>560755</v>
+      </c>
+      <c r="F166" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="B167" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="C167" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="D167" t="s">
-        <v>458</v>
-      </c>
-      <c r="E167"/>
+        <v>487</v>
+      </c>
+      <c r="E167" t="n">
+        <v>560756</v>
+      </c>
+      <c r="F167" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="B168" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="C168" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="D168" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="E168" t="n">
-        <v>560756</v>
+        <v>560758</v>
+      </c>
+      <c r="F168" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="B169" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="C169" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="D169" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="E169" t="n">
-        <v>560758</v>
+        <v>561096</v>
+      </c>
+      <c r="F169" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="B170" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="C170" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="D170" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="E170" t="n">
-        <v>561096</v>
+        <v>560763</v>
+      </c>
+      <c r="F170" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="B171" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="C171" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="D171" t="s">
-        <v>467</v>
-      </c>
-      <c r="E171"/>
+        <v>498</v>
+      </c>
+      <c r="E171" t="n">
+        <v>560761</v>
+      </c>
+      <c r="F171" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="B172" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="C172" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="D172" t="s">
-        <v>471</v>
-      </c>
-      <c r="E172"/>
+        <v>501</v>
+      </c>
+      <c r="E172" t="n">
+        <v>560767</v>
+      </c>
+      <c r="F172" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="B173" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="C173" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="D173" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="E173" t="n">
-        <v>560767</v>
+        <v>560765</v>
+      </c>
+      <c r="F173" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="B174" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="C174" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="D174" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="E174" t="n">
-        <v>560765</v>
+        <v>560769</v>
+      </c>
+      <c r="F174" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="B175" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="C175" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="D175" t="s">
-        <v>480</v>
-      </c>
-      <c r="E175"/>
+        <v>511</v>
+      </c>
+      <c r="E175" t="n">
+        <v>561253</v>
+      </c>
+      <c r="F175" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="B176" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="C176" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="D176" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="E176" t="n">
-        <v>561253</v>
+        <v>560772</v>
+      </c>
+      <c r="F176" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="B177" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="C177" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="D177" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="E177" t="n">
-        <v>560772</v>
+        <v>560777</v>
+      </c>
+      <c r="F177" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="B178" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="C178" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="D178" t="s">
-        <v>488</v>
-      </c>
-      <c r="E178"/>
+        <v>520</v>
+      </c>
+      <c r="E178" t="n">
+        <v>560773</v>
+      </c>
+      <c r="F178" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="B179" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="C179" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="D179" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="E179" t="n">
-        <v>560773</v>
+        <v>560775</v>
+      </c>
+      <c r="F179" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="B180" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="C180" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="D180" t="s">
-        <v>496</v>
-      </c>
-      <c r="E180"/>
+        <v>529</v>
+      </c>
+      <c r="E180" t="n">
+        <v>560780</v>
+      </c>
+      <c r="F180" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="B181" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="C181" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="D181" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="E181" t="n">
-        <v>560780</v>
+        <v>561141</v>
+      </c>
+      <c r="F181" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="B182" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="C182" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="D182" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="E182" t="n">
-        <v>561141</v>
+        <v>560781</v>
+      </c>
+      <c r="F182" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="B183" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="C183" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="D183" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="E183" t="n">
-        <v>560781</v>
+        <v>560785</v>
+      </c>
+      <c r="F183" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="B184" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="C184" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="D184" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="E184" t="n">
-        <v>560785</v>
+        <v>560783</v>
+      </c>
+      <c r="F184" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="B185" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="C185" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="D185" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="E185" t="n">
-        <v>560783</v>
+        <v>560787</v>
+      </c>
+      <c r="F185" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="B186" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="C186" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="D186" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="E186" t="n">
-        <v>560787</v>
+        <v>560789</v>
+      </c>
+      <c r="F186" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="B187" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="C187" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="D187" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="E187" t="n">
-        <v>560789</v>
+        <v>560791</v>
+      </c>
+      <c r="F187" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="B188" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="C188" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="D188" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="E188" t="n">
-        <v>560791</v>
+        <v>560792</v>
+      </c>
+      <c r="F188" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="B189" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C189" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="D189" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="E189" t="n">
-        <v>560792</v>
+        <v>560961</v>
+      </c>
+      <c r="F189" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="B190" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="C190" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="D190" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="E190" t="n">
-        <v>560961</v>
+        <v>561199</v>
+      </c>
+      <c r="F190" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="B191" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="C191" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="D191" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="E191" t="n">
-        <v>561199</v>
+        <v>560804</v>
+      </c>
+      <c r="F191" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="B192" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C192" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="D192" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="E192" t="n">
-        <v>560804</v>
+        <v>560806</v>
+      </c>
+      <c r="F192" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="B193" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="C193" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="D193" t="s">
-        <v>536</v>
-      </c>
-      <c r="E193"/>
+        <v>570</v>
+      </c>
+      <c r="E193" t="n">
+        <v>560810</v>
+      </c>
+      <c r="F193" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="B194" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="C194" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="D194" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="E194" t="n">
-        <v>560810</v>
+        <v>560958</v>
+      </c>
+      <c r="F194" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="B195" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C195" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="D195" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="E195" t="n">
-        <v>560958</v>
+        <v>560964</v>
+      </c>
+      <c r="F195" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="B196" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="C196" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="D196" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="E196" t="n">
-        <v>560964</v>
+        <v>560963</v>
+      </c>
+      <c r="F196" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="B197" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="C197" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="D197" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="E197" t="n">
-        <v>560963</v>
+        <v>560966</v>
+      </c>
+      <c r="F197" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="B198" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="C198" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="D198" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="E198" t="n">
-        <v>560966</v>
+        <v>560968</v>
+      </c>
+      <c r="F198" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="B199" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="C199" t="s">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="D199" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="E199" t="n">
-        <v>560968</v>
+        <v>560970</v>
+      </c>
+      <c r="F199" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="B200" t="s">
-        <v>553</v>
+        <v>590</v>
       </c>
       <c r="C200" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="D200" t="s">
-        <v>555</v>
-      </c>
-      <c r="E200"/>
+        <v>589</v>
+      </c>
+      <c r="E200" t="n">
+        <v>560972</v>
+      </c>
+      <c r="F200" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>556</v>
+        <v>593</v>
       </c>
       <c r="B201" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="C201" t="s">
-        <v>558</v>
+        <v>593</v>
       </c>
       <c r="D201" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="E201" t="n">
-        <v>560972</v>
+        <v>560647</v>
+      </c>
+      <c r="F201" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="B202" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="C202" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="D202" t="s">
-        <v>562</v>
-      </c>
-      <c r="E202"/>
+        <v>597</v>
+      </c>
+      <c r="E202" t="n">
+        <v>560796</v>
+      </c>
+      <c r="F202" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="B203" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="C203" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="D203" t="s">
-        <v>565</v>
+        <v>603</v>
       </c>
       <c r="E203" t="n">
-        <v>560796</v>
+        <v>560974</v>
+      </c>
+      <c r="F203" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="B204" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
       <c r="C204" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="D204" t="s">
-        <v>569</v>
-      </c>
-      <c r="E204"/>
+        <v>608</v>
+      </c>
+      <c r="E204" t="n">
+        <v>560976</v>
+      </c>
+      <c r="F204" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="B205" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="C205" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="D205" t="s">
-        <v>573</v>
-      </c>
-      <c r="E205"/>
+        <v>611</v>
+      </c>
+      <c r="E205" t="n">
+        <v>560978</v>
+      </c>
+      <c r="F205" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="B206" t="s">
-        <v>575</v>
+        <v>614</v>
       </c>
       <c r="C206" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="D206" t="s">
-        <v>577</v>
-      </c>
-      <c r="E206"/>
+        <v>614</v>
+      </c>
+      <c r="E206" t="n">
+        <v>560981</v>
+      </c>
+      <c r="F206" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>578</v>
+        <v>616</v>
       </c>
       <c r="B207" t="s">
-        <v>578</v>
+        <v>617</v>
       </c>
       <c r="C207" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="D207" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="E207" t="n">
-        <v>560981</v>
+        <v>560980</v>
+      </c>
+      <c r="F207" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="B208" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="C208" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="D208" t="s">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="E208" t="n">
-        <v>560980</v>
+        <v>560628</v>
+      </c>
+      <c r="F208" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="B209" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="C209" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="D209" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="E209" t="n">
-        <v>560628</v>
+        <v>560983</v>
+      </c>
+      <c r="F209" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="B210" t="s">
-        <v>588</v>
+        <v>627</v>
       </c>
       <c r="C210" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="D210" t="s">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="E210" t="n">
-        <v>560983</v>
+        <v>560988</v>
+      </c>
+      <c r="F210" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="B211" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="C211" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="D211" t="s">
-        <v>592</v>
+        <v>631</v>
       </c>
       <c r="E211" t="n">
-        <v>560988</v>
+        <v>560989</v>
+      </c>
+      <c r="F211" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="B212" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="C212" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="D212" t="s">
-        <v>595</v>
-      </c>
-      <c r="E212"/>
+        <v>635</v>
+      </c>
+      <c r="E212" t="n">
+        <v>560992</v>
+      </c>
+      <c r="F212" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="B213" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="C213" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="D213" t="s">
-        <v>598</v>
-      </c>
-      <c r="E213"/>
+        <v>639</v>
+      </c>
+      <c r="E213" t="n">
+        <v>560994</v>
+      </c>
+      <c r="F213" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="B214" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="C214" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="D214" t="s">
-        <v>601</v>
-      </c>
-      <c r="E214"/>
+        <v>643</v>
+      </c>
+      <c r="E214" t="n">
+        <v>560995</v>
+      </c>
+      <c r="F214" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>602</v>
+        <v>645</v>
       </c>
       <c r="B215" t="s">
-        <v>603</v>
+        <v>646</v>
       </c>
       <c r="C215" t="s">
-        <v>602</v>
+        <v>645</v>
       </c>
       <c r="D215" t="s">
-        <v>604</v>
-      </c>
-      <c r="E215"/>
+        <v>647</v>
+      </c>
+      <c r="E215" t="n">
+        <v>560998</v>
+      </c>
+      <c r="F215" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>605</v>
+        <v>649</v>
       </c>
       <c r="B216" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="C216" t="s">
-        <v>605</v>
+        <v>649</v>
       </c>
       <c r="D216" t="s">
-        <v>607</v>
-      </c>
-      <c r="E216"/>
+        <v>649</v>
+      </c>
+      <c r="E216" t="n">
+        <v>561002</v>
+      </c>
+      <c r="F216" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>608</v>
+        <v>651</v>
       </c>
       <c r="B217" t="s">
-        <v>608</v>
+        <v>652</v>
       </c>
       <c r="C217" t="s">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c r="D217" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="E217" t="n">
-        <v>561002</v>
+        <v>561000</v>
+      </c>
+      <c r="F217" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="B218" t="s">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="C218" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="D218" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="E218" t="n">
-        <v>561000</v>
+        <v>561004</v>
+      </c>
+      <c r="F218" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>614</v>
+        <v>657</v>
       </c>
       <c r="B219" t="s">
-        <v>614</v>
+        <v>657</v>
       </c>
       <c r="C219" t="s">
-        <v>614</v>
+        <v>657</v>
       </c>
       <c r="D219" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="E219" t="n">
-        <v>561004</v>
+        <v>561006</v>
+      </c>
+      <c r="F219" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="B220" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="C220" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="D220" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="E220" t="n">
-        <v>561006</v>
+        <v>561010</v>
+      </c>
+      <c r="F220" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="B221" t="s">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="C221" t="s">
-        <v>618</v>
+        <v>663</v>
       </c>
       <c r="D221" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="E221" t="n">
-        <v>561010</v>
+        <v>561008</v>
+      </c>
+      <c r="F221" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>620</v>
+        <v>665</v>
       </c>
       <c r="B222" t="s">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="C222" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="D222" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="E222" t="n">
-        <v>561008</v>
+        <v>561014</v>
+      </c>
+      <c r="F222" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="B223" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="C223" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="D223" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
       <c r="E223" t="n">
-        <v>561014</v>
+        <v>561012</v>
+      </c>
+      <c r="F223" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>626</v>
+        <v>671</v>
       </c>
       <c r="B224" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="C224" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="D224" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
       <c r="E224" t="n">
-        <v>561012</v>
+        <v>561016</v>
+      </c>
+      <c r="F224" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="B225" t="s">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="C225" t="s">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="D225" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="E225" t="n">
-        <v>561016</v>
+        <v>561018</v>
+      </c>
+      <c r="F225" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>632</v>
+        <v>675</v>
       </c>
       <c r="B226" t="s">
-        <v>632</v>
+        <v>675</v>
       </c>
       <c r="C226" t="s">
-        <v>632</v>
+        <v>675</v>
       </c>
       <c r="D226" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="E226" t="n">
-        <v>561018</v>
+        <v>561022</v>
+      </c>
+      <c r="F226" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>634</v>
+        <v>677</v>
       </c>
       <c r="B227" t="s">
-        <v>634</v>
+        <v>678</v>
       </c>
       <c r="C227" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="D227" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="E227" t="n">
-        <v>561022</v>
+        <v>561020</v>
+      </c>
+      <c r="F227" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="B228" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
       <c r="C228" t="s">
-        <v>638</v>
+        <v>681</v>
       </c>
       <c r="D228" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="E228" t="n">
-        <v>561020</v>
+        <v>561024</v>
+      </c>
+      <c r="F228" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="B229" t="s">
-        <v>640</v>
+        <v>684</v>
       </c>
       <c r="C229" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="D229" t="s">
-        <v>641</v>
+        <v>683</v>
       </c>
       <c r="E229" t="n">
-        <v>561024</v>
+        <v>561029</v>
+      </c>
+      <c r="F229" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>642</v>
+        <v>686</v>
       </c>
       <c r="B230" t="s">
-        <v>643</v>
+        <v>687</v>
       </c>
       <c r="C230" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="D230" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="E230" t="n">
-        <v>561029</v>
+        <v>561028</v>
+      </c>
+      <c r="F230" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="B231" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
       <c r="C231" t="s">
-        <v>647</v>
+        <v>690</v>
       </c>
       <c r="D231" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
       <c r="E231" t="n">
-        <v>561028</v>
+        <v>561031</v>
+      </c>
+      <c r="F231" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="B232" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="C232" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="D232" t="s">
-        <v>650</v>
+        <v>692</v>
       </c>
       <c r="E232" t="n">
-        <v>561031</v>
+        <v>561033</v>
+      </c>
+      <c r="F232" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="B233" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="C233" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="D233" t="s">
-        <v>652</v>
+        <v>694</v>
       </c>
       <c r="E233" t="n">
-        <v>561033</v>
+        <v>561036</v>
+      </c>
+      <c r="F233" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>653</v>
+        <v>696</v>
       </c>
       <c r="B234" t="s">
-        <v>653</v>
+        <v>697</v>
       </c>
       <c r="C234" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c r="D234" t="s">
-        <v>654</v>
+        <v>696</v>
       </c>
       <c r="E234" t="n">
-        <v>561036</v>
+        <v>561035</v>
+      </c>
+      <c r="F234" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="B235" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="C235" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="D235" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="E235" t="n">
-        <v>561035</v>
+        <v>561038</v>
+      </c>
+      <c r="F235" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="B236" t="s">
-        <v>660</v>
+        <v>704</v>
       </c>
       <c r="C236" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="D236" t="s">
-        <v>662</v>
-      </c>
-      <c r="E236"/>
+        <v>704</v>
+      </c>
+      <c r="E236" t="n">
+        <v>560618</v>
+      </c>
+      <c r="F236" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>663</v>
+        <v>706</v>
       </c>
       <c r="B237" t="s">
-        <v>663</v>
+        <v>706</v>
       </c>
       <c r="C237" t="s">
-        <v>663</v>
+        <v>706</v>
       </c>
       <c r="D237" t="s">
-        <v>664</v>
+        <v>706</v>
       </c>
       <c r="E237" t="n">
-        <v>560618</v>
+        <v>561040</v>
+      </c>
+      <c r="F237" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="B238" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="C238" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="D238" t="s">
-        <v>666</v>
+        <v>708</v>
       </c>
       <c r="E238" t="n">
-        <v>561040</v>
+        <v>561042</v>
+      </c>
+      <c r="F238" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="B239" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="C239" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="D239" t="s">
-        <v>668</v>
+        <v>710</v>
       </c>
       <c r="E239" t="n">
-        <v>561042</v>
+        <v>561044</v>
+      </c>
+      <c r="F239" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="B240" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="C240" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="D240" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="E240" t="n">
-        <v>561044</v>
+        <v>560552</v>
+      </c>
+      <c r="F240" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>671</v>
+        <v>715</v>
       </c>
       <c r="B241" t="s">
-        <v>671</v>
+        <v>715</v>
       </c>
       <c r="C241" t="s">
-        <v>671</v>
+        <v>715</v>
       </c>
       <c r="D241" t="s">
-        <v>672</v>
-      </c>
-      <c r="E241"/>
+        <v>715</v>
+      </c>
+      <c r="E241" t="n">
+        <v>561047</v>
+      </c>
+      <c r="F241" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>673</v>
+        <v>717</v>
       </c>
       <c r="B242" t="s">
-        <v>673</v>
+        <v>717</v>
       </c>
       <c r="C242" t="s">
-        <v>673</v>
+        <v>717</v>
       </c>
       <c r="D242" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="E242" t="n">
-        <v>561047</v>
+        <v>561049</v>
+      </c>
+      <c r="F242" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>675</v>
+        <v>719</v>
       </c>
       <c r="B243" t="s">
-        <v>675</v>
+        <v>719</v>
       </c>
       <c r="C243" t="s">
-        <v>675</v>
+        <v>719</v>
       </c>
       <c r="D243" t="s">
-        <v>676</v>
+        <v>719</v>
       </c>
       <c r="E243" t="n">
-        <v>561049</v>
+        <v>561050</v>
+      </c>
+      <c r="F243" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="B244" t="s">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="C244" t="s">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="D244" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="E244" t="n">
-        <v>561050</v>
+        <v>561052</v>
+      </c>
+      <c r="F244" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>679</v>
+        <v>723</v>
       </c>
       <c r="B245" t="s">
-        <v>679</v>
+        <v>723</v>
       </c>
       <c r="C245" t="s">
-        <v>679</v>
+        <v>723</v>
       </c>
       <c r="D245" t="s">
-        <v>680</v>
+        <v>723</v>
       </c>
       <c r="E245" t="n">
-        <v>561052</v>
+        <v>561055</v>
+      </c>
+      <c r="F245" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>681</v>
+        <v>725</v>
       </c>
       <c r="B246" t="s">
-        <v>681</v>
+        <v>725</v>
       </c>
       <c r="C246" t="s">
-        <v>681</v>
+        <v>725</v>
       </c>
       <c r="D246" t="s">
-        <v>682</v>
+        <v>725</v>
       </c>
       <c r="E246" t="n">
-        <v>561055</v>
+        <v>561056</v>
+      </c>
+      <c r="F246" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="B247" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="C247" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="D247" t="s">
-        <v>684</v>
+        <v>727</v>
       </c>
       <c r="E247" t="n">
-        <v>561056</v>
+        <v>561059</v>
+      </c>
+      <c r="F247" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>685</v>
+        <v>730</v>
       </c>
       <c r="B248" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
       <c r="C248" t="s">
-        <v>685</v>
+        <v>730</v>
       </c>
       <c r="D248" t="s">
-        <v>687</v>
+        <v>730</v>
       </c>
       <c r="E248" t="n">
-        <v>561059</v>
+        <v>561061</v>
+      </c>
+      <c r="F248" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>688</v>
+        <v>732</v>
       </c>
       <c r="B249" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="C249" t="s">
-        <v>688</v>
+        <v>732</v>
       </c>
       <c r="D249" t="s">
-        <v>689</v>
+        <v>734</v>
       </c>
       <c r="E249" t="n">
-        <v>561061</v>
+        <v>561131</v>
+      </c>
+      <c r="F249" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>690</v>
+        <v>736</v>
       </c>
       <c r="B250" t="s">
-        <v>691</v>
+        <v>737</v>
       </c>
       <c r="C250" t="s">
-        <v>690</v>
+        <v>736</v>
       </c>
       <c r="D250" t="s">
-        <v>692</v>
-      </c>
-      <c r="E250"/>
+        <v>736</v>
+      </c>
+      <c r="E250" t="n">
+        <v>561133</v>
+      </c>
+      <c r="F250" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>693</v>
+        <v>739</v>
       </c>
       <c r="B251" t="s">
-        <v>694</v>
+        <v>740</v>
       </c>
       <c r="C251" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
       <c r="D251" t="s">
-        <v>695</v>
+        <v>739</v>
       </c>
       <c r="E251" t="n">
-        <v>561133</v>
+        <v>560726</v>
+      </c>
+      <c r="F251" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>696</v>
+        <v>743</v>
       </c>
       <c r="B252" t="s">
-        <v>697</v>
+        <v>744</v>
       </c>
       <c r="C252" t="s">
-        <v>698</v>
+        <v>743</v>
       </c>
       <c r="D252" t="s">
-        <v>699</v>
+        <v>743</v>
       </c>
       <c r="E252" t="n">
-        <v>560726</v>
+        <v>561063</v>
+      </c>
+      <c r="F252" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="B253" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
       <c r="C253" t="s">
-        <v>700</v>
+        <v>747</v>
       </c>
       <c r="D253" t="s">
-        <v>702</v>
+        <v>746</v>
       </c>
       <c r="E253" t="n">
-        <v>561063</v>
+        <v>561077</v>
+      </c>
+      <c r="F253" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>703</v>
+        <v>749</v>
       </c>
       <c r="B254" t="s">
-        <v>704</v>
+        <v>749</v>
       </c>
       <c r="C254" t="s">
-        <v>704</v>
+        <v>749</v>
       </c>
       <c r="D254" t="s">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="E254" t="n">
-        <v>561077</v>
+        <v>561078</v>
+      </c>
+      <c r="F254" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
       <c r="B255" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="C255" t="s">
-        <v>706</v>
+        <v>753</v>
       </c>
       <c r="D255" t="s">
-        <v>707</v>
+        <v>754</v>
       </c>
       <c r="E255" t="n">
-        <v>561078</v>
+        <v>561080</v>
+      </c>
+      <c r="F255" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
       <c r="B256" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
       <c r="C256" t="s">
-        <v>710</v>
+        <v>758</v>
       </c>
       <c r="D256" t="s">
-        <v>711</v>
-      </c>
-      <c r="E256"/>
+        <v>756</v>
+      </c>
+      <c r="E256" t="n">
+        <v>561082</v>
+      </c>
+      <c r="F256" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
       <c r="B257" t="s">
-        <v>713</v>
+        <v>761</v>
       </c>
       <c r="C257" t="s">
-        <v>714</v>
+        <v>762</v>
       </c>
       <c r="D257" t="s">
-        <v>715</v>
+        <v>763</v>
       </c>
       <c r="E257" t="n">
-        <v>561082</v>
+        <v>561084</v>
+      </c>
+      <c r="F257" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>716</v>
+        <v>765</v>
       </c>
       <c r="B258" t="s">
-        <v>717</v>
+        <v>765</v>
       </c>
       <c r="C258" t="s">
-        <v>718</v>
+        <v>765</v>
       </c>
       <c r="D258" t="s">
-        <v>719</v>
-      </c>
-      <c r="E258"/>
+        <v>765</v>
+      </c>
+      <c r="E258" t="n">
+        <v>561086</v>
+      </c>
+      <c r="F258" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>720</v>
+        <v>767</v>
       </c>
       <c r="B259" t="s">
-        <v>720</v>
+        <v>767</v>
       </c>
       <c r="C259" t="s">
-        <v>720</v>
+        <v>767</v>
       </c>
       <c r="D259" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
       <c r="E259" t="n">
-        <v>561086</v>
+        <v>561090</v>
+      </c>
+      <c r="F259" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>722</v>
+        <v>769</v>
       </c>
       <c r="B260" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="C260" t="s">
-        <v>722</v>
+        <v>771</v>
       </c>
       <c r="D260" t="s">
-        <v>723</v>
+        <v>769</v>
       </c>
       <c r="E260" t="n">
-        <v>561090</v>
+        <v>561088</v>
+      </c>
+      <c r="F260" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>724</v>
+        <v>773</v>
       </c>
       <c r="B261" t="s">
-        <v>725</v>
+        <v>774</v>
       </c>
       <c r="C261" t="s">
-        <v>726</v>
+        <v>773</v>
       </c>
       <c r="D261" t="s">
-        <v>727</v>
+        <v>773</v>
       </c>
       <c r="E261" t="n">
-        <v>561088</v>
+        <v>561091</v>
+      </c>
+      <c r="F261" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="B262" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="C262" t="s">
-        <v>728</v>
+        <v>778</v>
       </c>
       <c r="D262" t="s">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="E262" t="n">
-        <v>561091</v>
+        <v>561092</v>
+      </c>
+      <c r="F262" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>731</v>
+        <v>780</v>
       </c>
       <c r="B263" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="C263" t="s">
-        <v>733</v>
+        <v>780</v>
       </c>
       <c r="D263" t="s">
-        <v>734</v>
+        <v>780</v>
       </c>
       <c r="E263" t="n">
-        <v>561092</v>
+        <v>561108</v>
+      </c>
+      <c r="F263" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>735</v>
+        <v>782</v>
       </c>
       <c r="B264" t="s">
-        <v>735</v>
+        <v>782</v>
       </c>
       <c r="C264" t="s">
-        <v>735</v>
+        <v>782</v>
       </c>
       <c r="D264" t="s">
-        <v>736</v>
+        <v>783</v>
       </c>
       <c r="E264" t="n">
-        <v>561108</v>
+        <v>560620</v>
+      </c>
+      <c r="F264" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="B265" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="C265" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="D265" t="s">
-        <v>738</v>
-      </c>
-      <c r="E265"/>
+        <v>785</v>
+      </c>
+      <c r="E265" t="n">
+        <v>561110</v>
+      </c>
+      <c r="F265" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="B266" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="C266" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
       <c r="D266" t="s">
-        <v>740</v>
+        <v>787</v>
       </c>
       <c r="E266" t="n">
-        <v>561110</v>
+        <v>561112</v>
+      </c>
+      <c r="F266" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="B267" t="s">
-        <v>741</v>
+        <v>790</v>
       </c>
       <c r="C267" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="D267" t="s">
-        <v>742</v>
+        <v>789</v>
       </c>
       <c r="E267" t="n">
-        <v>561112</v>
+        <v>561113</v>
+      </c>
+      <c r="F267" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>743</v>
+        <v>792</v>
       </c>
       <c r="B268" t="s">
-        <v>744</v>
+        <v>793</v>
       </c>
       <c r="C268" t="s">
-        <v>743</v>
+        <v>792</v>
       </c>
       <c r="D268" t="s">
-        <v>745</v>
+        <v>792</v>
       </c>
       <c r="E268" t="n">
-        <v>561113</v>
+        <v>561117</v>
+      </c>
+      <c r="F268" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>746</v>
+        <v>795</v>
       </c>
       <c r="B269" t="s">
-        <v>747</v>
+        <v>796</v>
       </c>
       <c r="C269" t="s">
-        <v>746</v>
+        <v>797</v>
       </c>
       <c r="D269" t="s">
-        <v>748</v>
+        <v>795</v>
       </c>
       <c r="E269" t="n">
-        <v>561117</v>
+        <v>561115</v>
+      </c>
+      <c r="F269" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="B270" t="s">
-        <v>750</v>
+        <v>799</v>
       </c>
       <c r="C270" t="s">
-        <v>751</v>
+        <v>799</v>
       </c>
       <c r="D270" t="s">
-        <v>752</v>
+        <v>799</v>
       </c>
       <c r="E270" t="n">
-        <v>561115</v>
+        <v>561121</v>
+      </c>
+      <c r="F270" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>753</v>
+        <v>801</v>
       </c>
       <c r="B271" t="s">
-        <v>753</v>
+        <v>802</v>
       </c>
       <c r="C271" t="s">
-        <v>753</v>
+        <v>803</v>
       </c>
       <c r="D271" t="s">
-        <v>754</v>
+        <v>801</v>
       </c>
       <c r="E271" t="n">
-        <v>561121</v>
+        <v>561119</v>
+      </c>
+      <c r="F271" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>755</v>
+        <v>805</v>
       </c>
       <c r="B272" t="s">
-        <v>756</v>
+        <v>806</v>
       </c>
       <c r="C272" t="s">
-        <v>757</v>
+        <v>805</v>
       </c>
       <c r="D272" t="s">
-        <v>758</v>
+        <v>807</v>
       </c>
       <c r="E272" t="n">
-        <v>561119</v>
+        <v>561122</v>
+      </c>
+      <c r="F272" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>759</v>
+        <v>809</v>
       </c>
       <c r="B273" t="s">
-        <v>760</v>
+        <v>810</v>
       </c>
       <c r="C273" t="s">
-        <v>759</v>
+        <v>811</v>
       </c>
       <c r="D273" t="s">
-        <v>761</v>
-      </c>
-      <c r="E273"/>
+        <v>812</v>
+      </c>
+      <c r="E273" t="n">
+        <v>561124</v>
+      </c>
+      <c r="F273" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>762</v>
+        <v>814</v>
       </c>
       <c r="B274" t="s">
-        <v>763</v>
+        <v>815</v>
       </c>
       <c r="C274" t="s">
-        <v>764</v>
+        <v>814</v>
       </c>
       <c r="D274" t="s">
-        <v>765</v>
-      </c>
-      <c r="E274"/>
+        <v>816</v>
+      </c>
+      <c r="E274" t="n">
+        <v>561126</v>
+      </c>
+      <c r="F274" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>766</v>
+        <v>818</v>
       </c>
       <c r="B275" t="s">
-        <v>767</v>
+        <v>818</v>
       </c>
       <c r="C275" t="s">
-        <v>766</v>
+        <v>818</v>
       </c>
       <c r="D275" t="s">
-        <v>768</v>
-      </c>
-      <c r="E275"/>
+        <v>819</v>
+      </c>
+      <c r="E275" t="n">
+        <v>561136</v>
+      </c>
+      <c r="F275" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>769</v>
+        <v>821</v>
       </c>
       <c r="B276" t="s">
-        <v>769</v>
+        <v>822</v>
       </c>
       <c r="C276" t="s">
-        <v>769</v>
+        <v>821</v>
       </c>
       <c r="D276" t="s">
-        <v>770</v>
-      </c>
-      <c r="E276"/>
+        <v>823</v>
+      </c>
+      <c r="E276" t="n">
+        <v>561129</v>
+      </c>
+      <c r="F276" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>771</v>
+        <v>825</v>
       </c>
       <c r="B277" t="s">
-        <v>772</v>
+        <v>826</v>
       </c>
       <c r="C277" t="s">
-        <v>771</v>
+        <v>825</v>
       </c>
       <c r="D277" t="s">
-        <v>773</v>
-      </c>
-      <c r="E277"/>
+        <v>827</v>
+      </c>
+      <c r="E277" t="n">
+        <v>561269</v>
+      </c>
+      <c r="F277" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>774</v>
+        <v>829</v>
       </c>
       <c r="B278" t="s">
-        <v>775</v>
+        <v>830</v>
       </c>
       <c r="C278" t="s">
-        <v>774</v>
+        <v>829</v>
       </c>
       <c r="D278" t="s">
-        <v>776</v>
-      </c>
-      <c r="E278"/>
+        <v>831</v>
+      </c>
+      <c r="E278" t="n">
+        <v>561134</v>
+      </c>
+      <c r="F278" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>777</v>
+        <v>833</v>
       </c>
       <c r="B279" t="s">
-        <v>778</v>
+        <v>834</v>
       </c>
       <c r="C279" t="s">
-        <v>777</v>
+        <v>833</v>
       </c>
       <c r="D279" t="s">
-        <v>779</v>
-      </c>
-      <c r="E279"/>
+        <v>833</v>
+      </c>
+      <c r="E279" t="n">
+        <v>561139</v>
+      </c>
+      <c r="F279" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>780</v>
+        <v>836</v>
       </c>
       <c r="B280" t="s">
-        <v>781</v>
+        <v>837</v>
       </c>
       <c r="C280" t="s">
-        <v>780</v>
+        <v>838</v>
       </c>
       <c r="D280" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
       <c r="E280" t="n">
-        <v>561139</v>
+        <v>561067</v>
+      </c>
+      <c r="F280" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>783</v>
+        <v>840</v>
       </c>
       <c r="B281" t="s">
-        <v>784</v>
+        <v>841</v>
       </c>
       <c r="C281" t="s">
-        <v>785</v>
+        <v>842</v>
       </c>
       <c r="D281" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
       <c r="E281" t="n">
-        <v>561067</v>
+        <v>561072</v>
+      </c>
+      <c r="F281" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>787</v>
+        <v>845</v>
       </c>
       <c r="B282" t="s">
-        <v>788</v>
+        <v>846</v>
       </c>
       <c r="C282" t="s">
-        <v>789</v>
+        <v>846</v>
       </c>
       <c r="D282" t="s">
-        <v>790</v>
-      </c>
-      <c r="E282"/>
+        <v>847</v>
+      </c>
+      <c r="E282" t="n">
+        <v>561074</v>
+      </c>
+      <c r="F282" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>791</v>
+        <v>849</v>
       </c>
       <c r="B283" t="s">
-        <v>792</v>
+        <v>849</v>
       </c>
       <c r="C283" t="s">
-        <v>793</v>
+        <v>850</v>
       </c>
       <c r="D283" t="s">
-        <v>794</v>
-      </c>
-      <c r="E283"/>
+        <v>851</v>
+      </c>
+      <c r="E283" t="n">
+        <v>561106</v>
+      </c>
+      <c r="F283" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>795</v>
+        <v>853</v>
       </c>
       <c r="B284" t="s">
-        <v>796</v>
+        <v>853</v>
       </c>
       <c r="C284" t="s">
-        <v>796</v>
+        <v>853</v>
       </c>
       <c r="D284" t="s">
-        <v>797</v>
-      </c>
-      <c r="E284"/>
+        <v>853</v>
+      </c>
+      <c r="E284" t="n">
+        <v>561147</v>
+      </c>
+      <c r="F284" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>798</v>
+        <v>855</v>
       </c>
       <c r="B285" t="s">
-        <v>798</v>
+        <v>856</v>
       </c>
       <c r="C285" t="s">
-        <v>799</v>
+        <v>857</v>
       </c>
       <c r="D285" t="s">
-        <v>800</v>
-      </c>
-      <c r="E285"/>
+        <v>858</v>
+      </c>
+      <c r="E285" t="n">
+        <v>561150</v>
+      </c>
+      <c r="F285" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>801</v>
+        <v>860</v>
       </c>
       <c r="B286" t="s">
-        <v>801</v>
+        <v>860</v>
       </c>
       <c r="C286" t="s">
-        <v>801</v>
+        <v>860</v>
       </c>
       <c r="D286" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="E286" t="n">
-        <v>561147</v>
+        <v>561152</v>
+      </c>
+      <c r="F286" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>803</v>
+        <v>862</v>
       </c>
       <c r="B287" t="s">
-        <v>804</v>
+        <v>862</v>
       </c>
       <c r="C287" t="s">
-        <v>805</v>
+        <v>862</v>
       </c>
       <c r="D287" t="s">
-        <v>806</v>
-      </c>
-      <c r="E287"/>
+        <v>862</v>
+      </c>
+      <c r="E287" t="n">
+        <v>561271</v>
+      </c>
+      <c r="F287" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>807</v>
+        <v>864</v>
       </c>
       <c r="B288" t="s">
-        <v>807</v>
+        <v>864</v>
       </c>
       <c r="C288" t="s">
-        <v>807</v>
+        <v>864</v>
       </c>
       <c r="D288" t="s">
-        <v>808</v>
+        <v>864</v>
       </c>
       <c r="E288" t="n">
-        <v>561152</v>
+        <v>561154</v>
+      </c>
+      <c r="F288" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="B289" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="C289" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="D289" t="s">
-        <v>810</v>
+        <v>866</v>
       </c>
       <c r="E289" t="n">
-        <v>561271</v>
+        <v>561156</v>
+      </c>
+      <c r="F289" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>811</v>
+        <v>868</v>
       </c>
       <c r="B290" t="s">
-        <v>811</v>
+        <v>869</v>
       </c>
       <c r="C290" t="s">
-        <v>811</v>
+        <v>868</v>
       </c>
       <c r="D290" t="s">
-        <v>812</v>
+        <v>868</v>
       </c>
       <c r="E290" t="n">
-        <v>561154</v>
+        <v>561172</v>
+      </c>
+      <c r="F290" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>813</v>
+        <v>871</v>
       </c>
       <c r="B291" t="s">
-        <v>813</v>
+        <v>872</v>
       </c>
       <c r="C291" t="s">
-        <v>813</v>
+        <v>873</v>
       </c>
       <c r="D291" t="s">
-        <v>814</v>
+        <v>871</v>
       </c>
       <c r="E291" t="n">
-        <v>561156</v>
+        <v>561104</v>
+      </c>
+      <c r="F291" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>815</v>
+        <v>875</v>
       </c>
       <c r="B292" t="s">
-        <v>816</v>
+        <v>875</v>
       </c>
       <c r="C292" t="s">
-        <v>815</v>
+        <v>875</v>
       </c>
       <c r="D292" t="s">
-        <v>817</v>
+        <v>875</v>
       </c>
       <c r="E292" t="n">
-        <v>561172</v>
+        <v>561158</v>
+      </c>
+      <c r="F292" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>818</v>
+        <v>877</v>
       </c>
       <c r="B293" t="s">
-        <v>819</v>
+        <v>877</v>
       </c>
       <c r="C293" t="s">
-        <v>820</v>
+        <v>877</v>
       </c>
       <c r="D293" t="s">
-        <v>821</v>
+        <v>877</v>
       </c>
       <c r="E293" t="n">
-        <v>561104</v>
+        <v>561166</v>
+      </c>
+      <c r="F293" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>822</v>
+        <v>879</v>
       </c>
       <c r="B294" t="s">
-        <v>822</v>
+        <v>880</v>
       </c>
       <c r="C294" t="s">
-        <v>822</v>
+        <v>881</v>
       </c>
       <c r="D294" t="s">
-        <v>823</v>
+        <v>881</v>
       </c>
       <c r="E294" t="n">
-        <v>561158</v>
+        <v>561168</v>
+      </c>
+      <c r="F294" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>824</v>
+        <v>883</v>
       </c>
       <c r="B295" t="s">
-        <v>824</v>
+        <v>884</v>
       </c>
       <c r="C295" t="s">
-        <v>824</v>
+        <v>885</v>
       </c>
       <c r="D295" t="s">
-        <v>825</v>
+        <v>883</v>
       </c>
       <c r="E295" t="n">
-        <v>561166</v>
+        <v>561160</v>
+      </c>
+      <c r="F295" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>826</v>
+        <v>887</v>
       </c>
       <c r="B296" t="s">
-        <v>827</v>
+        <v>888</v>
       </c>
       <c r="C296" t="s">
-        <v>828</v>
+        <v>887</v>
       </c>
       <c r="D296" t="s">
-        <v>829</v>
-      </c>
-      <c r="E296"/>
+        <v>887</v>
+      </c>
+      <c r="E296" t="n">
+        <v>561162</v>
+      </c>
+      <c r="F296" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="B297" t="s">
-        <v>831</v>
+        <v>890</v>
       </c>
       <c r="C297" t="s">
-        <v>832</v>
+        <v>890</v>
       </c>
       <c r="D297" t="s">
-        <v>833</v>
+        <v>890</v>
       </c>
       <c r="E297" t="n">
-        <v>561160</v>
+        <v>561179</v>
+      </c>
+      <c r="F297" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>834</v>
+        <v>892</v>
       </c>
       <c r="B298" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="C298" t="s">
-        <v>834</v>
+        <v>893</v>
       </c>
       <c r="D298" t="s">
-        <v>836</v>
+        <v>892</v>
       </c>
       <c r="E298" t="n">
-        <v>561162</v>
+        <v>561170</v>
+      </c>
+      <c r="F298" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>837</v>
+        <v>895</v>
       </c>
       <c r="B299" t="s">
-        <v>837</v>
+        <v>896</v>
       </c>
       <c r="C299" t="s">
-        <v>837</v>
+        <v>897</v>
       </c>
       <c r="D299" t="s">
-        <v>838</v>
+        <v>898</v>
       </c>
       <c r="E299" t="n">
-        <v>561179</v>
+        <v>561267</v>
+      </c>
+      <c r="F299" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>839</v>
+        <v>900</v>
       </c>
       <c r="B300" t="s">
-        <v>839</v>
+        <v>901</v>
       </c>
       <c r="C300" t="s">
-        <v>840</v>
+        <v>902</v>
       </c>
       <c r="D300" t="s">
-        <v>841</v>
+        <v>903</v>
       </c>
       <c r="E300" t="n">
-        <v>561170</v>
+        <v>560639</v>
+      </c>
+      <c r="F300" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>842</v>
+        <v>905</v>
       </c>
       <c r="B301" t="s">
-        <v>843</v>
+        <v>906</v>
       </c>
       <c r="C301" t="s">
-        <v>844</v>
+        <v>905</v>
       </c>
       <c r="D301" t="s">
-        <v>845</v>
-      </c>
-      <c r="E301"/>
+        <v>905</v>
+      </c>
+      <c r="E301" t="n">
+        <v>561174</v>
+      </c>
+      <c r="F301" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>846</v>
+        <v>908</v>
       </c>
       <c r="B302" t="s">
-        <v>847</v>
+        <v>909</v>
       </c>
       <c r="C302" t="s">
-        <v>848</v>
+        <v>910</v>
       </c>
       <c r="D302" t="s">
-        <v>849</v>
-      </c>
-      <c r="E302"/>
+        <v>908</v>
+      </c>
+      <c r="E302" t="n">
+        <v>561143</v>
+      </c>
+      <c r="F302" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>850</v>
+        <v>912</v>
       </c>
       <c r="B303" t="s">
-        <v>851</v>
+        <v>912</v>
       </c>
       <c r="C303" t="s">
-        <v>850</v>
+        <v>912</v>
       </c>
       <c r="D303" t="s">
-        <v>852</v>
+        <v>912</v>
       </c>
       <c r="E303" t="n">
-        <v>561174</v>
+        <v>561176</v>
+      </c>
+      <c r="F303" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>853</v>
+        <v>914</v>
       </c>
       <c r="B304" t="s">
-        <v>854</v>
+        <v>915</v>
       </c>
       <c r="C304" t="s">
-        <v>855</v>
+        <v>914</v>
       </c>
       <c r="D304" t="s">
-        <v>856</v>
+        <v>914</v>
       </c>
       <c r="E304" t="n">
-        <v>561143</v>
+        <v>560834</v>
+      </c>
+      <c r="F304" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>857</v>
+        <v>917</v>
       </c>
       <c r="B305" t="s">
-        <v>857</v>
+        <v>917</v>
       </c>
       <c r="C305" t="s">
-        <v>857</v>
+        <v>917</v>
       </c>
       <c r="D305" t="s">
-        <v>858</v>
+        <v>917</v>
       </c>
       <c r="E305" t="n">
-        <v>561176</v>
+        <v>561186</v>
+      </c>
+      <c r="F305" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>859</v>
+        <v>919</v>
       </c>
       <c r="B306" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="C306" t="s">
-        <v>859</v>
+        <v>919</v>
       </c>
       <c r="D306" t="s">
-        <v>861</v>
+        <v>919</v>
       </c>
       <c r="E306" t="n">
-        <v>560834</v>
+        <v>561188</v>
+      </c>
+      <c r="F306" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>862</v>
+        <v>921</v>
       </c>
       <c r="B307" t="s">
-        <v>862</v>
+        <v>921</v>
       </c>
       <c r="C307" t="s">
-        <v>862</v>
+        <v>921</v>
       </c>
       <c r="D307" t="s">
-        <v>863</v>
+        <v>921</v>
       </c>
       <c r="E307" t="n">
-        <v>561186</v>
+        <v>561190</v>
+      </c>
+      <c r="F307" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>864</v>
+        <v>923</v>
       </c>
       <c r="B308" t="s">
-        <v>864</v>
+        <v>923</v>
       </c>
       <c r="C308" t="s">
-        <v>864</v>
+        <v>923</v>
       </c>
       <c r="D308" t="s">
-        <v>865</v>
+        <v>923</v>
       </c>
       <c r="E308" t="n">
-        <v>561188</v>
+        <v>561192</v>
+      </c>
+      <c r="F308" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>866</v>
+        <v>925</v>
       </c>
       <c r="B309" t="s">
-        <v>866</v>
+        <v>925</v>
       </c>
       <c r="C309" t="s">
-        <v>866</v>
+        <v>925</v>
       </c>
       <c r="D309" t="s">
-        <v>867</v>
+        <v>925</v>
       </c>
       <c r="E309" t="n">
-        <v>561190</v>
+        <v>561194</v>
+      </c>
+      <c r="F309" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>868</v>
+        <v>927</v>
       </c>
       <c r="B310" t="s">
-        <v>868</v>
+        <v>927</v>
       </c>
       <c r="C310" t="s">
-        <v>868</v>
+        <v>927</v>
       </c>
       <c r="D310" t="s">
-        <v>869</v>
+        <v>927</v>
       </c>
       <c r="E310" t="n">
-        <v>561192</v>
+        <v>560659</v>
+      </c>
+      <c r="F310" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>870</v>
+        <v>929</v>
       </c>
       <c r="B311" t="s">
-        <v>870</v>
+        <v>929</v>
       </c>
       <c r="C311" t="s">
-        <v>870</v>
+        <v>930</v>
       </c>
       <c r="D311" t="s">
-        <v>871</v>
+        <v>929</v>
       </c>
       <c r="E311" t="n">
-        <v>561194</v>
+        <v>560813</v>
+      </c>
+      <c r="F311" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>872</v>
+        <v>932</v>
       </c>
       <c r="B312" t="s">
-        <v>872</v>
+        <v>932</v>
       </c>
       <c r="C312" t="s">
-        <v>872</v>
+        <v>933</v>
       </c>
       <c r="D312" t="s">
-        <v>873</v>
+        <v>932</v>
       </c>
       <c r="E312" t="n">
-        <v>560659</v>
+        <v>560815</v>
+      </c>
+      <c r="F312" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>874</v>
+        <v>935</v>
       </c>
       <c r="B313" t="s">
-        <v>874</v>
+        <v>935</v>
       </c>
       <c r="C313" t="s">
-        <v>875</v>
+        <v>935</v>
       </c>
       <c r="D313" t="s">
-        <v>876</v>
+        <v>935</v>
       </c>
       <c r="E313" t="n">
-        <v>560813</v>
+        <v>560819</v>
+      </c>
+      <c r="F313" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>877</v>
+        <v>937</v>
       </c>
       <c r="B314" t="s">
-        <v>877</v>
+        <v>938</v>
       </c>
       <c r="C314" t="s">
-        <v>878</v>
+        <v>937</v>
       </c>
       <c r="D314" t="s">
-        <v>879</v>
+        <v>937</v>
       </c>
       <c r="E314" t="n">
-        <v>560815</v>
+        <v>561100</v>
+      </c>
+      <c r="F314" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>880</v>
+        <v>940</v>
       </c>
       <c r="B315" t="s">
-        <v>880</v>
+        <v>941</v>
       </c>
       <c r="C315" t="s">
-        <v>880</v>
+        <v>941</v>
       </c>
       <c r="D315" t="s">
-        <v>881</v>
+        <v>940</v>
       </c>
       <c r="E315" t="n">
-        <v>560819</v>
+        <v>560727</v>
+      </c>
+      <c r="F315" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>882</v>
+        <v>943</v>
       </c>
       <c r="B316" t="s">
-        <v>883</v>
+        <v>944</v>
       </c>
       <c r="C316" t="s">
-        <v>882</v>
+        <v>945</v>
       </c>
       <c r="D316" t="s">
-        <v>884</v>
+        <v>943</v>
       </c>
       <c r="E316" t="n">
-        <v>561100</v>
+        <v>560826</v>
+      </c>
+      <c r="F316" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>885</v>
+        <v>947</v>
       </c>
       <c r="B317" t="s">
-        <v>886</v>
+        <v>947</v>
       </c>
       <c r="C317" t="s">
-        <v>886</v>
+        <v>947</v>
       </c>
       <c r="D317" t="s">
-        <v>887</v>
+        <v>947</v>
       </c>
       <c r="E317" t="n">
-        <v>560727</v>
+        <v>560817</v>
+      </c>
+      <c r="F317" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>888</v>
+        <v>949</v>
       </c>
       <c r="B318" t="s">
-        <v>889</v>
+        <v>950</v>
       </c>
       <c r="C318" t="s">
-        <v>890</v>
+        <v>949</v>
       </c>
       <c r="D318" t="s">
-        <v>891</v>
+        <v>949</v>
       </c>
       <c r="E318" t="n">
-        <v>560826</v>
+        <v>560746</v>
+      </c>
+      <c r="F318" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>892</v>
+        <v>952</v>
       </c>
       <c r="B319" t="s">
-        <v>892</v>
+        <v>953</v>
       </c>
       <c r="C319" t="s">
-        <v>892</v>
+        <v>952</v>
       </c>
       <c r="D319" t="s">
-        <v>893</v>
+        <v>953</v>
       </c>
       <c r="E319" t="n">
-        <v>560817</v>
+        <v>560626</v>
+      </c>
+      <c r="F319" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>894</v>
+        <v>955</v>
       </c>
       <c r="B320" t="s">
-        <v>895</v>
+        <v>956</v>
       </c>
       <c r="C320" t="s">
-        <v>894</v>
+        <v>955</v>
       </c>
       <c r="D320" t="s">
-        <v>896</v>
+        <v>955</v>
       </c>
       <c r="E320" t="n">
-        <v>560746</v>
+        <v>560606</v>
+      </c>
+      <c r="F320" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>897</v>
+        <v>958</v>
       </c>
       <c r="B321" t="s">
-        <v>898</v>
+        <v>959</v>
       </c>
       <c r="C321" t="s">
-        <v>897</v>
+        <v>960</v>
       </c>
       <c r="D321" t="s">
-        <v>899</v>
-      </c>
-      <c r="E321"/>
+        <v>958</v>
+      </c>
+      <c r="E321" t="n">
+        <v>560795</v>
+      </c>
+      <c r="F321" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>900</v>
+        <v>962</v>
       </c>
       <c r="B322" t="s">
-        <v>901</v>
+        <v>963</v>
       </c>
       <c r="C322" t="s">
-        <v>900</v>
+        <v>964</v>
       </c>
       <c r="D322" t="s">
-        <v>902</v>
+        <v>962</v>
       </c>
       <c r="E322" t="n">
-        <v>560606</v>
+        <v>560800</v>
+      </c>
+      <c r="F322" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>903</v>
+        <v>966</v>
       </c>
       <c r="B323" t="s">
-        <v>904</v>
+        <v>967</v>
       </c>
       <c r="C323" t="s">
-        <v>905</v>
+        <v>968</v>
       </c>
       <c r="D323" t="s">
-        <v>906</v>
+        <v>969</v>
       </c>
       <c r="E323" t="n">
-        <v>560795</v>
+        <v>560802</v>
+      </c>
+      <c r="F323" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>907</v>
+        <v>971</v>
       </c>
       <c r="B324" t="s">
-        <v>908</v>
+        <v>971</v>
       </c>
       <c r="C324" t="s">
-        <v>909</v>
+        <v>971</v>
       </c>
       <c r="D324" t="s">
-        <v>910</v>
+        <v>971</v>
       </c>
       <c r="E324" t="n">
-        <v>560800</v>
+        <v>560808</v>
+      </c>
+      <c r="F324" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>911</v>
+        <v>973</v>
       </c>
       <c r="B325" t="s">
-        <v>912</v>
+        <v>973</v>
       </c>
       <c r="C325" t="s">
-        <v>913</v>
+        <v>974</v>
       </c>
       <c r="D325" t="s">
-        <v>914</v>
-      </c>
-      <c r="E325"/>
+        <v>974</v>
+      </c>
+      <c r="E325" t="n">
+        <v>561127</v>
+      </c>
+      <c r="F325" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>915</v>
+        <v>976</v>
       </c>
       <c r="B326" t="s">
-        <v>915</v>
+        <v>977</v>
       </c>
       <c r="C326" t="s">
-        <v>915</v>
+        <v>976</v>
       </c>
       <c r="D326" t="s">
-        <v>916</v>
+        <v>976</v>
       </c>
       <c r="E326" t="n">
-        <v>560808</v>
+        <v>560633</v>
+      </c>
+      <c r="F326" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>917</v>
+        <v>979</v>
       </c>
       <c r="B327" t="s">
-        <v>917</v>
+        <v>980</v>
       </c>
       <c r="C327" t="s">
-        <v>918</v>
+        <v>981</v>
       </c>
       <c r="D327" t="s">
-        <v>919</v>
-      </c>
-      <c r="E327"/>
+        <v>979</v>
+      </c>
+      <c r="E327" t="n">
+        <v>561178</v>
+      </c>
+      <c r="F327" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>920</v>
+        <v>983</v>
       </c>
       <c r="B328" t="s">
-        <v>921</v>
+        <v>984</v>
       </c>
       <c r="C328" t="s">
-        <v>920</v>
+        <v>985</v>
       </c>
       <c r="D328" t="s">
-        <v>922</v>
+        <v>985</v>
       </c>
       <c r="E328" t="n">
-        <v>560633</v>
+        <v>561026</v>
+      </c>
+      <c r="F328" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>923</v>
+        <v>987</v>
       </c>
       <c r="B329" t="s">
-        <v>924</v>
+        <v>988</v>
       </c>
       <c r="C329" t="s">
-        <v>925</v>
+        <v>987</v>
       </c>
       <c r="D329" t="s">
-        <v>926</v>
+        <v>987</v>
       </c>
       <c r="E329" t="n">
-        <v>561178</v>
+        <v>561182</v>
+      </c>
+      <c r="F329" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>927</v>
+        <v>990</v>
       </c>
       <c r="B330" t="s">
-        <v>928</v>
+        <v>991</v>
       </c>
       <c r="C330" t="s">
-        <v>929</v>
+        <v>992</v>
       </c>
       <c r="D330" t="s">
-        <v>930</v>
-      </c>
-      <c r="E330"/>
+        <v>990</v>
+      </c>
+      <c r="E330" t="n">
+        <v>561184</v>
+      </c>
+      <c r="F330" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>931</v>
+        <v>994</v>
       </c>
       <c r="B331" t="s">
-        <v>932</v>
+        <v>994</v>
       </c>
       <c r="C331" t="s">
-        <v>931</v>
+        <v>994</v>
       </c>
       <c r="D331" t="s">
-        <v>933</v>
+        <v>994</v>
       </c>
       <c r="E331" t="n">
-        <v>561182</v>
+        <v>561204</v>
+      </c>
+      <c r="F331" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>934</v>
+        <v>996</v>
       </c>
       <c r="B332" t="s">
-        <v>935</v>
+        <v>997</v>
       </c>
       <c r="C332" t="s">
-        <v>936</v>
+        <v>998</v>
       </c>
       <c r="D332" t="s">
-        <v>937</v>
+        <v>996</v>
       </c>
       <c r="E332" t="n">
-        <v>561184</v>
+        <v>561202</v>
+      </c>
+      <c r="F332" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="B333" t="s">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="C333" t="s">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="D333" t="s">
-        <v>939</v>
+        <v>1000</v>
       </c>
       <c r="E333" t="n">
-        <v>561204</v>
+        <v>561102</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>940</v>
+        <v>1002</v>
       </c>
       <c r="B334" t="s">
-        <v>941</v>
+        <v>1003</v>
       </c>
       <c r="C334" t="s">
-        <v>942</v>
+        <v>1002</v>
       </c>
       <c r="D334" t="s">
-        <v>943</v>
+        <v>1002</v>
       </c>
       <c r="E334" t="n">
-        <v>561202</v>
+        <v>560646</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>944</v>
+        <v>1005</v>
       </c>
       <c r="B335" t="s">
-        <v>944</v>
+        <v>1005</v>
       </c>
       <c r="C335" t="s">
-        <v>944</v>
+        <v>1005</v>
       </c>
       <c r="D335" t="s">
-        <v>945</v>
+        <v>1005</v>
       </c>
       <c r="E335" t="n">
-        <v>561102</v>
+        <v>561214</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>946</v>
+        <v>1007</v>
       </c>
       <c r="B336" t="s">
-        <v>947</v>
+        <v>1008</v>
       </c>
       <c r="C336" t="s">
-        <v>946</v>
+        <v>1007</v>
       </c>
       <c r="D336" t="s">
-        <v>948</v>
+        <v>1007</v>
       </c>
       <c r="E336" t="n">
-        <v>560646</v>
+        <v>561216</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>949</v>
+        <v>1010</v>
       </c>
       <c r="B337" t="s">
-        <v>949</v>
+        <v>1010</v>
       </c>
       <c r="C337" t="s">
-        <v>949</v>
+        <v>1010</v>
       </c>
       <c r="D337" t="s">
-        <v>950</v>
+        <v>1010</v>
       </c>
       <c r="E337" t="n">
-        <v>561214</v>
+        <v>561206</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>951</v>
+        <v>1012</v>
       </c>
       <c r="B338" t="s">
-        <v>952</v>
+        <v>1012</v>
       </c>
       <c r="C338" t="s">
-        <v>951</v>
+        <v>1012</v>
       </c>
       <c r="D338" t="s">
-        <v>953</v>
+        <v>1012</v>
       </c>
       <c r="E338" t="n">
-        <v>561216</v>
+        <v>561208</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>954</v>
+        <v>1014</v>
       </c>
       <c r="B339" t="s">
-        <v>954</v>
+        <v>1014</v>
       </c>
       <c r="C339" t="s">
-        <v>954</v>
+        <v>1014</v>
       </c>
       <c r="D339" t="s">
-        <v>955</v>
+        <v>1014</v>
       </c>
       <c r="E339" t="n">
-        <v>561206</v>
+        <v>561210</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>956</v>
+        <v>1016</v>
       </c>
       <c r="B340" t="s">
-        <v>956</v>
+        <v>1016</v>
       </c>
       <c r="C340" t="s">
-        <v>956</v>
+        <v>1016</v>
       </c>
       <c r="D340" t="s">
-        <v>957</v>
+        <v>1016</v>
       </c>
       <c r="E340" t="n">
-        <v>561208</v>
+        <v>561212</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>958</v>
+        <v>1018</v>
       </c>
       <c r="B341" t="s">
-        <v>958</v>
+        <v>1018</v>
       </c>
       <c r="C341" t="s">
-        <v>958</v>
+        <v>1018</v>
       </c>
       <c r="D341" t="s">
-        <v>959</v>
+        <v>1018</v>
       </c>
       <c r="E341" t="n">
-        <v>561210</v>
+        <v>561220</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="B342" t="s">
-        <v>960</v>
+        <v>1021</v>
       </c>
       <c r="C342" t="s">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="D342" t="s">
-        <v>961</v>
+        <v>1020</v>
       </c>
       <c r="E342" t="n">
-        <v>561212</v>
+        <v>561218</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>962</v>
+        <v>1023</v>
       </c>
       <c r="B343" t="s">
-        <v>962</v>
+        <v>1023</v>
       </c>
       <c r="C343" t="s">
-        <v>962</v>
+        <v>1023</v>
       </c>
       <c r="D343" t="s">
-        <v>963</v>
+        <v>1023</v>
       </c>
       <c r="E343" t="n">
-        <v>561220</v>
+        <v>561222</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>964</v>
+        <v>1025</v>
       </c>
       <c r="B344" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="C344" t="s">
-        <v>964</v>
+        <v>1025</v>
       </c>
       <c r="D344" t="s">
-        <v>966</v>
+        <v>1025</v>
       </c>
       <c r="E344" t="n">
-        <v>561218</v>
+        <v>561224</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>967</v>
+        <v>1027</v>
       </c>
       <c r="B345" t="s">
-        <v>967</v>
+        <v>1027</v>
       </c>
       <c r="C345" t="s">
-        <v>967</v>
+        <v>1027</v>
       </c>
       <c r="D345" t="s">
-        <v>968</v>
+        <v>1027</v>
       </c>
       <c r="E345" t="n">
-        <v>561222</v>
+        <v>561228</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>969</v>
+        <v>1029</v>
       </c>
       <c r="B346" t="s">
-        <v>969</v>
+        <v>1030</v>
       </c>
       <c r="C346" t="s">
-        <v>969</v>
+        <v>1031</v>
       </c>
       <c r="D346" t="s">
-        <v>970</v>
+        <v>1029</v>
       </c>
       <c r="E346" t="n">
-        <v>561224</v>
+        <v>561226</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>971</v>
+        <v>1033</v>
       </c>
       <c r="B347" t="s">
-        <v>971</v>
+        <v>1034</v>
       </c>
       <c r="C347" t="s">
-        <v>971</v>
+        <v>1035</v>
       </c>
       <c r="D347" t="s">
-        <v>972</v>
+        <v>1033</v>
       </c>
       <c r="E347" t="n">
-        <v>561228</v>
+        <v>561230</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>973</v>
+        <v>1037</v>
       </c>
       <c r="B348" t="s">
-        <v>974</v>
+        <v>1038</v>
       </c>
       <c r="C348" t="s">
-        <v>975</v>
+        <v>1037</v>
       </c>
       <c r="D348" t="s">
-        <v>976</v>
+        <v>1037</v>
       </c>
       <c r="E348" t="n">
-        <v>561226</v>
+        <v>561232</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>977</v>
+        <v>1040</v>
       </c>
       <c r="B349" t="s">
-        <v>978</v>
+        <v>1041</v>
       </c>
       <c r="C349" t="s">
-        <v>979</v>
+        <v>1040</v>
       </c>
       <c r="D349" t="s">
-        <v>980</v>
+        <v>1042</v>
       </c>
       <c r="E349" t="n">
-        <v>561230</v>
+        <v>561235</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>981</v>
+        <v>1044</v>
       </c>
       <c r="B350" t="s">
-        <v>982</v>
+        <v>1045</v>
       </c>
       <c r="C350" t="s">
-        <v>981</v>
+        <v>1044</v>
       </c>
       <c r="D350" t="s">
-        <v>983</v>
+        <v>1046</v>
       </c>
       <c r="E350" t="n">
-        <v>561232</v>
+        <v>561238</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>984</v>
+        <v>1048</v>
       </c>
       <c r="B351" t="s">
-        <v>985</v>
+        <v>1049</v>
       </c>
       <c r="C351" t="s">
-        <v>984</v>
+        <v>1048</v>
       </c>
       <c r="D351" t="s">
-        <v>986</v>
-      </c>
-      <c r="E351"/>
+        <v>1050</v>
+      </c>
+      <c r="E351" t="n">
+        <v>561239</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>987</v>
+        <v>1052</v>
       </c>
       <c r="B352" t="s">
-        <v>988</v>
+        <v>1053</v>
       </c>
       <c r="C352" t="s">
-        <v>987</v>
+        <v>1052</v>
       </c>
       <c r="D352" t="s">
-        <v>989</v>
-      </c>
-      <c r="E352"/>
+        <v>1054</v>
+      </c>
+      <c r="E352" t="n">
+        <v>561241</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>990</v>
+        <v>1056</v>
       </c>
       <c r="B353" t="s">
-        <v>991</v>
+        <v>1057</v>
       </c>
       <c r="C353" t="s">
-        <v>990</v>
+        <v>1058</v>
       </c>
       <c r="D353" t="s">
-        <v>992</v>
-      </c>
-      <c r="E353"/>
+        <v>1056</v>
+      </c>
+      <c r="E353" t="n">
+        <v>561243</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>993</v>
+        <v>1060</v>
       </c>
       <c r="B354" t="s">
-        <v>994</v>
+        <v>1061</v>
       </c>
       <c r="C354" t="s">
-        <v>993</v>
+        <v>1062</v>
       </c>
       <c r="D354" t="s">
-        <v>995</v>
-      </c>
-      <c r="E354"/>
+        <v>1060</v>
+      </c>
+      <c r="E354" t="n">
+        <v>561245</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>996</v>
+        <v>1064</v>
       </c>
       <c r="B355" t="s">
-        <v>997</v>
+        <v>1064</v>
       </c>
       <c r="C355" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="D355" t="s">
-        <v>999</v>
+        <v>1064</v>
       </c>
       <c r="E355" t="n">
-        <v>561243</v>
+        <v>561247</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>1000</v>
+        <v>1066</v>
       </c>
       <c r="B356" t="s">
-        <v>1001</v>
+        <v>1066</v>
       </c>
       <c r="C356" t="s">
-        <v>1002</v>
+        <v>1066</v>
       </c>
       <c r="D356" t="s">
-        <v>1003</v>
+        <v>1066</v>
       </c>
       <c r="E356" t="n">
-        <v>561245</v>
+        <v>561251</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>1004</v>
+        <v>1068</v>
       </c>
       <c r="B357" t="s">
-        <v>1004</v>
+        <v>1068</v>
       </c>
       <c r="C357" t="s">
-        <v>1004</v>
+        <v>1068</v>
       </c>
       <c r="D357" t="s">
-        <v>1005</v>
+        <v>1068</v>
       </c>
       <c r="E357" t="n">
-        <v>561247</v>
+        <v>560632</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>1006</v>
+        <v>1070</v>
       </c>
       <c r="B358" t="s">
-        <v>1006</v>
+        <v>1071</v>
       </c>
       <c r="C358" t="s">
-        <v>1006</v>
+        <v>1072</v>
       </c>
       <c r="D358" t="s">
-        <v>1007</v>
+        <v>1070</v>
       </c>
       <c r="E358" t="n">
-        <v>561251</v>
+        <v>561255</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="B359" t="s">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="C359" t="s">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="D359" t="s">
-        <v>1009</v>
+        <v>1074</v>
       </c>
       <c r="E359" t="n">
-        <v>560632</v>
+        <v>561258</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>1010</v>
+        <v>1076</v>
       </c>
       <c r="B360" t="s">
-        <v>1011</v>
+        <v>1076</v>
       </c>
       <c r="C360" t="s">
-        <v>1012</v>
+        <v>1076</v>
       </c>
       <c r="D360" t="s">
-        <v>1013</v>
+        <v>1076</v>
       </c>
       <c r="E360" t="n">
-        <v>561255</v>
+        <v>561259</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>1014</v>
+        <v>1078</v>
       </c>
       <c r="B361" t="s">
-        <v>1014</v>
+        <v>1078</v>
       </c>
       <c r="C361" t="s">
-        <v>1014</v>
+        <v>1078</v>
       </c>
       <c r="D361" t="s">
-        <v>1015</v>
+        <v>1078</v>
       </c>
       <c r="E361" t="n">
-        <v>561258</v>
+        <v>561262</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>1016</v>
+        <v>1080</v>
       </c>
       <c r="B362" t="s">
-        <v>1016</v>
+        <v>1081</v>
       </c>
       <c r="C362" t="s">
-        <v>1016</v>
+        <v>1082</v>
       </c>
       <c r="D362" t="s">
-        <v>1017</v>
+        <v>1080</v>
       </c>
       <c r="E362" t="n">
-        <v>561259</v>
+        <v>561264</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>1018</v>
+        <v>1084</v>
       </c>
       <c r="B363" t="s">
-        <v>1018</v>
+        <v>1084</v>
       </c>
       <c r="C363" t="s">
-        <v>1018</v>
+        <v>1084</v>
       </c>
       <c r="D363" t="s">
-        <v>1019</v>
+        <v>1084</v>
       </c>
       <c r="E363" t="n">
-        <v>561262</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E364" t="n">
-        <v>561264</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D365" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E365" t="n">
         <v>561749</v>
+      </c>
+      <c r="F363" t="s">
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
